--- a/data/indicators_input.xlsx
+++ b/data/indicators_input.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="168">
   <si>
     <t>Index</t>
   </si>
@@ -314,7 +314,7 @@
     <t>DV01 -  126 Bus. Days Average</t>
   </si>
   <si>
-    <t>Overall market</t>
+    <t>Markeit</t>
   </si>
   <si>
     <t>V17</t>
@@ -470,19 +470,28 @@
     <t>Impact</t>
   </si>
   <si>
-    <t>US</t>
-  </si>
-  <si>
-    <t>Factory Orders</t>
-  </si>
-  <si>
-    <t>July</t>
-  </si>
-  <si>
-    <t>-3,3% mom</t>
+    <t>BZ</t>
+  </si>
+  <si>
+    <t>IGP-M 1F @ 0,345</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>0,34% mom</t>
   </si>
   <si>
     <t>Medium</t>
+  </si>
+  <si>
+    <t>IPC-S @ 0,10%</t>
+  </si>
+  <si>
+    <t>1W Sep</t>
+  </si>
+  <si>
+    <t>0,10% mom</t>
   </si>
   <si>
     <t>Contract</t>
@@ -574,6 +583,7 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <family val="2"/>
       <b val="1"/>
       <sz val="11"/>
     </font>
@@ -732,8 +742,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="20" pivotButton="0" quotePrefix="1" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -755,6 +763,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="20" pivotButton="0" quotePrefix="1" xfId="0"/>
     <xf applyAlignment="1" borderId="5" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1031,7 +1043,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1046,7 +1058,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -1066,111 +1078,111 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="23" t="n">
-        <v>192.759</v>
-      </c>
-      <c r="C2" s="29" t="n">
-        <v>-0.02300000000002456</v>
+      <c r="B2" s="21" t="n">
+        <v>181.685</v>
+      </c>
+      <c r="C2" s="27" t="n">
+        <v>0.2079999999999984</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="23" t="n">
-        <v>12095.12</v>
-      </c>
-      <c r="C3" s="29" t="n">
-        <v>-0.3913481746967595</v>
+      <c r="B3" s="21" t="n">
+        <v>12437.87</v>
+      </c>
+      <c r="C3" s="27" t="n">
+        <v>1.088184473641873</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="23" t="n">
-        <v>2.1674301</v>
-      </c>
-      <c r="C4" s="29" t="n">
-        <v>0.0004300999999999888</v>
+      <c r="B4" s="21" t="n">
+        <v>2.0913861</v>
+      </c>
+      <c r="C4" s="27" t="n">
+        <v>0.03938609999999976</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="23" t="n">
-        <v>2462.6</v>
-      </c>
-      <c r="C5" s="29" t="n">
-        <v>-0.4688384124161282</v>
+      <c r="B5" s="21" t="n">
+        <v>2474</v>
+      </c>
+      <c r="C5" s="27" t="n">
+        <v>0.5282405526208844</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="23" t="n">
-        <v>1.1909</v>
-      </c>
-      <c r="C6" s="29" t="n">
-        <v>0.4131534569983275</v>
+      <c r="B6" s="21" t="n">
+        <v>1.201</v>
+      </c>
+      <c r="C6" s="27" t="n">
+        <v>-0.2160186108341566</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="23" t="n">
-        <v>17.9194</v>
-      </c>
-      <c r="C7" s="29" t="n">
-        <v>0.5922341542278664</v>
-      </c>
-      <c r="H7" s="31" t="n"/>
+      <c r="B7" s="21" t="n">
+        <v>17.6809</v>
+      </c>
+      <c r="C7" s="27" t="n">
+        <v>-0.1722054721817634</v>
+      </c>
+      <c r="H7" s="29" t="n"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="23" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="C8" s="29" t="n">
-        <v>0.02114611968704327</v>
+      <c r="B8" s="21" t="n">
+        <v>47.79</v>
+      </c>
+      <c r="C8" s="27" t="n">
+        <v>0.6529064869418733</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="23" t="n">
-        <v>582.5</v>
-      </c>
-      <c r="C9" s="29" t="n">
-        <v>0.8658008658008587</v>
+      <c r="B9" s="21" t="n">
+        <v>530</v>
+      </c>
+      <c r="C9" s="27" t="n">
+        <v>-2.84142988084326</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="23" t="n">
-        <v>949.5</v>
-      </c>
-      <c r="C10" s="29" t="n">
-        <v>0</v>
+      <c r="B10" s="21" t="n">
+        <v>963.75</v>
+      </c>
+      <c r="C10" s="27" t="n">
+        <v>0.1819126819126771</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="23" t="n">
-        <v>10.13</v>
-      </c>
-      <c r="C11" s="29" t="n">
-        <v>0</v>
+      <c r="B11" s="21" t="n">
+        <v>11.13</v>
+      </c>
+      <c r="C11" s="27" t="n">
+        <v>-0.9899999999999984</v>
       </c>
     </row>
   </sheetData>
@@ -1184,220 +1196,210 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="2" min="2" style="35" width="13.28515625"/>
-    <col customWidth="1" max="3" min="3" style="35" width="13.5703125"/>
-    <col customWidth="1" max="4" min="4" style="35" width="11.140625"/>
-    <col customWidth="1" max="5" min="5" style="35" width="15.28515625"/>
+    <col customWidth="1" max="2" min="2" style="33" width="13.28515625"/>
+    <col customWidth="1" max="3" min="3" style="33" width="13.5703125"/>
+    <col customWidth="1" max="4" min="4" style="33" width="11.140625"/>
+    <col customWidth="1" max="5" min="5" style="33" width="15.28515625"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15.75" r="1" s="35" spans="1:9" thickBot="1">
+    <row customHeight="1" ht="15.75" r="1" s="33" spans="1:5" thickBot="1">
       <c r="A1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.75" r="2" s="35" spans="1:9" thickBot="1">
+        <v>160</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="2" s="33" spans="1:5" thickBot="1">
       <c r="A2" s="14" t="s">
         <v>97</v>
       </c>
       <c r="B2" s="17" t="n">
-        <v>3201636</v>
+        <v>3283045</v>
       </c>
       <c r="C2" s="15" t="n">
-        <v>3325087</v>
+        <v>3174343</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>123451</v>
+        <v>-108702</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>37851402.656</v>
-      </c>
-      <c r="I2" s="21" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="3" s="35" spans="1:9" thickBot="1">
+        <v>26500470.208</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="3" s="33" spans="1:5" thickBot="1">
       <c r="A3" s="14" t="s">
         <v>98</v>
       </c>
       <c r="B3" s="17" t="n">
-        <v>271515</v>
+        <v>300720</v>
       </c>
       <c r="C3" s="15" t="n">
-        <v>284245</v>
+        <v>307775</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>12730</v>
+        <v>7055</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>2336378.467</v>
-      </c>
-      <c r="I3" s="21" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="4" s="35" spans="1:9" thickBot="1">
+        <v>717775.2929999999</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="4" s="33" spans="1:5" thickBot="1">
       <c r="A4" s="14" t="s">
         <v>99</v>
       </c>
       <c r="B4" s="17" t="n">
-        <v>263650</v>
+        <v>263655</v>
       </c>
       <c r="C4" s="15" t="n">
-        <v>261080</v>
+        <v>281130</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>-2570</v>
+        <v>17475</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>1261434.008</v>
-      </c>
-      <c r="I4" s="21" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="5" s="35" spans="1:9" thickBot="1">
+        <v>10054122.084</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="5" s="33" spans="1:5" thickBot="1">
       <c r="A5" s="14" t="s">
         <v>66</v>
       </c>
       <c r="B5" s="17" t="n">
-        <v>4157305</v>
+        <v>4213295</v>
       </c>
       <c r="C5" s="15" t="n">
-        <v>4116181</v>
+        <v>4221431</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>-41124</v>
+        <v>8136</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>41016202.002</v>
-      </c>
-      <c r="I5" s="21" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="6" s="35" spans="1:9" thickBot="1">
+        <v>24623767.295</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="6" s="33" spans="1:5" thickBot="1">
       <c r="A6" s="14" t="s">
         <v>100</v>
       </c>
       <c r="B6" s="17" t="n">
-        <v>72305</v>
+        <v>75650</v>
       </c>
       <c r="C6" s="15" t="n">
-        <v>73265</v>
+        <v>75655</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>960</v>
+        <v>5</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>196467.438</v>
-      </c>
-      <c r="I6" s="21" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="7" s="35" spans="1:9" thickBot="1">
+        <v>129265.17</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="7" s="33" spans="1:5" thickBot="1">
       <c r="A7" s="14" t="s">
         <v>101</v>
       </c>
       <c r="B7" s="17" t="n">
-        <v>52290</v>
+        <v>63750</v>
       </c>
       <c r="C7" s="15" t="n">
-        <v>56325</v>
+        <v>63765</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>4035</v>
+        <v>15</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>392451.178</v>
-      </c>
-      <c r="I7" s="21" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="8" s="35" spans="1:9" thickBot="1">
+        <v>118954.882</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="8" s="33" spans="1:5" thickBot="1">
       <c r="A8" s="14" t="s">
         <v>102</v>
       </c>
       <c r="B8" s="17" t="n">
-        <v>1205473</v>
+        <v>1245752</v>
       </c>
       <c r="C8" s="15" t="n">
-        <v>1241180</v>
+        <v>1276173</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>35707</v>
+        <v>30421</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>5587872.954</v>
-      </c>
-      <c r="I8" s="21" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="9" s="35" spans="1:9" thickBot="1">
+        <v>8122139.062</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="9" s="33" spans="1:5" thickBot="1">
       <c r="A9" s="14" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B9" s="17" t="n">
-        <v>25845</v>
+        <v>26330</v>
       </c>
       <c r="C9" s="15" t="n">
-        <v>25840</v>
+        <v>26330</v>
       </c>
       <c r="D9" s="3" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>477.12</v>
-      </c>
-      <c r="I9" s="21" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="10" s="35" spans="1:9" thickBot="1">
+        <v>2389.889</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="10" s="33" spans="1:5" thickBot="1">
       <c r="A10" s="14" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B10" s="17" t="n">
-        <v>35045</v>
+        <v>36370</v>
       </c>
       <c r="C10" s="15" t="n">
-        <v>35040</v>
+        <v>36370</v>
       </c>
       <c r="D10" s="3" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>236634.714</v>
-      </c>
-      <c r="I10" s="21" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="11" s="35" spans="1:9" thickBot="1">
+        <v>57982.836</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="11" s="33" spans="1:5" thickBot="1">
       <c r="A11" s="14" t="s">
         <v>103</v>
       </c>
       <c r="B11" s="17" t="n">
-        <v>1425844</v>
+        <v>1478483</v>
       </c>
       <c r="C11" s="15" t="n">
-        <v>1462190</v>
+        <v>1469898</v>
       </c>
       <c r="D11" s="3" t="n">
-        <v>36346</v>
+        <v>-8585</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>10303879.049</v>
-      </c>
-      <c r="I11" s="21" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="12" s="35" spans="1:9" thickBot="1">
+        <v>13739003.941</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="12" s="33" spans="1:5" thickBot="1">
       <c r="A12" s="14" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B12" s="17" t="n">
         <v>5485</v>
@@ -1411,17 +1413,16 @@
       <c r="E12" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="I12" s="21" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="13" s="35" spans="1:9" thickBot="1">
+    </row>
+    <row customHeight="1" ht="15.75" r="13" s="33" spans="1:5" thickBot="1">
       <c r="A13" s="14" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B13" s="17" t="n">
-        <v>0</v>
+        <v>4350</v>
       </c>
       <c r="C13" s="15" t="n">
-        <v>0</v>
+        <v>4350</v>
       </c>
       <c r="D13" s="3" t="n">
         <v>0</v>
@@ -1429,269 +1430,254 @@
       <c r="E13" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="I13" s="21" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="14" s="35" spans="1:9" thickBot="1">
+    </row>
+    <row customHeight="1" ht="15.75" r="14" s="33" spans="1:5" thickBot="1">
       <c r="A14" s="14" t="s">
         <v>104</v>
       </c>
       <c r="B14" s="17" t="n">
-        <v>639145</v>
+        <v>635697</v>
       </c>
       <c r="C14" s="15" t="n">
-        <v>638172</v>
+        <v>641006</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>-973</v>
+        <v>5309</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>1105127.951</v>
-      </c>
-      <c r="I14" s="21" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="15" s="35" spans="1:9" thickBot="1">
+        <v>2887557.871</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="15" s="33" spans="1:5" thickBot="1">
       <c r="A15" s="14" t="s">
         <v>68</v>
       </c>
       <c r="B15" s="17" t="n">
-        <v>2324130</v>
+        <v>2322802</v>
       </c>
       <c r="C15" s="15" t="n">
-        <v>2311619</v>
+        <v>2122813</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>-12511</v>
+        <v>-199989</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>26319221.315</v>
-      </c>
-      <c r="I15" s="21" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="16" s="35" spans="1:9" thickBot="1">
+        <v>63759415.995</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="16" s="33" spans="1:5" thickBot="1">
       <c r="A16" s="14" t="s">
         <v>105</v>
       </c>
       <c r="B16" s="17" t="n">
-        <v>571054</v>
+        <v>567915</v>
       </c>
       <c r="C16" s="15" t="n">
-        <v>570588</v>
+        <v>568096</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>-466</v>
+        <v>181</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>376433.385</v>
-      </c>
-      <c r="I16" s="21" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="17" s="35" spans="1:9" thickBot="1">
+        <v>586644.303</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="17" s="33" spans="1:5" thickBot="1">
       <c r="A17" s="14" t="s">
         <v>106</v>
       </c>
       <c r="B17" s="17" t="n">
-        <v>541633</v>
+        <v>578021</v>
       </c>
       <c r="C17" s="15" t="n">
-        <v>560618</v>
+        <v>576951</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>18985</v>
+        <v>-1070</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>3636327.323</v>
-      </c>
-      <c r="I17" s="21" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="18" s="35" spans="1:9" thickBot="1">
+        <v>1406955.5</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="18" s="33" spans="1:5" thickBot="1">
       <c r="A18" s="14" t="s">
         <v>107</v>
       </c>
       <c r="B18" s="17" t="n">
-        <v>245172</v>
+        <v>260090</v>
       </c>
       <c r="C18" s="15" t="n">
-        <v>247960</v>
+        <v>266755</v>
       </c>
       <c r="D18" s="3" t="n">
-        <v>2788</v>
+        <v>6665</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>1014757.968</v>
-      </c>
-      <c r="I18" s="21" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="19" s="35" spans="1:9" thickBot="1">
+        <v>1614306.312</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="19" s="33" spans="1:5" thickBot="1">
       <c r="A19" s="14" t="s">
         <v>108</v>
       </c>
       <c r="B19" s="17" t="n">
-        <v>1740801</v>
+        <v>1640716</v>
       </c>
       <c r="C19" s="15" t="n">
-        <v>1733381</v>
+        <v>1724560</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>-7420</v>
+        <v>83844</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>11549187.927</v>
-      </c>
-      <c r="I19" s="21" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="20" s="35" spans="1:9" thickBot="1">
+        <v>18120066.744</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="20" s="33" spans="1:5" thickBot="1">
       <c r="A20" s="14" t="s">
         <v>109</v>
       </c>
       <c r="B20" s="17" t="n">
-        <v>74724</v>
+        <v>73894</v>
       </c>
       <c r="C20" s="15" t="n">
-        <v>74009</v>
+        <v>74059</v>
       </c>
       <c r="D20" s="3" t="n">
-        <v>-715</v>
+        <v>165</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>92080.808</v>
-      </c>
-      <c r="I20" s="21" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="21" s="35" spans="1:9" thickBot="1">
+        <v>45518.782</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="21" s="33" spans="1:5" thickBot="1">
       <c r="A21" s="14" t="s">
         <v>110</v>
       </c>
       <c r="B21" s="17" t="n">
-        <v>1322484</v>
+        <v>1320914</v>
       </c>
       <c r="C21" s="15" t="n">
-        <v>1319534</v>
+        <v>1322156</v>
       </c>
       <c r="D21" s="3" t="n">
-        <v>-2950</v>
+        <v>1242</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>3483983.058</v>
-      </c>
-      <c r="I21" s="21" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="22" s="35" spans="1:9" thickBot="1">
+        <v>1514029.217</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="22" s="33" spans="1:5" thickBot="1">
       <c r="A22" s="14" t="s">
         <v>111</v>
       </c>
       <c r="B22" s="17" t="n">
-        <v>50090</v>
+        <v>49642</v>
       </c>
       <c r="C22" s="15" t="n">
-        <v>50070</v>
+        <v>50182</v>
       </c>
       <c r="D22" s="3" t="n">
-        <v>-20</v>
+        <v>540</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>116804.731</v>
-      </c>
-      <c r="I22" s="21" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="23" s="35" spans="1:9" thickBot="1">
+        <v>46434.494</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="23" s="33" spans="1:5" thickBot="1">
       <c r="A23" s="14" t="s">
         <v>69</v>
       </c>
       <c r="B23" s="17" t="n">
-        <v>1430247</v>
+        <v>1459181</v>
       </c>
       <c r="C23" s="15" t="n">
-        <v>1443515</v>
+        <v>1462307</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>13268</v>
+        <v>3126</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>12790765.561</v>
-      </c>
-      <c r="I23" s="21" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="24" s="35" spans="1:9" thickBot="1">
+        <v>12443911.026</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="24" s="33" spans="1:5" thickBot="1">
       <c r="A24" s="14" t="s">
         <v>112</v>
       </c>
       <c r="B24" s="17" t="n">
-        <v>33750</v>
+        <v>33895</v>
       </c>
       <c r="C24" s="15" t="n">
-        <v>33580</v>
+        <v>33865</v>
       </c>
       <c r="D24" s="3" t="n">
-        <v>-170</v>
+        <v>-30</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>41155.105</v>
-      </c>
-      <c r="I24" s="21" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="25" s="35" spans="1:9" thickBot="1">
+        <v>8843.678</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="25" s="33" spans="1:5" thickBot="1">
       <c r="A25" s="14" t="s">
         <v>113</v>
       </c>
       <c r="B25" s="17" t="n">
-        <v>219196</v>
+        <v>247984</v>
       </c>
       <c r="C25" s="15" t="n">
-        <v>228438</v>
+        <v>259768</v>
       </c>
       <c r="D25" s="3" t="n">
-        <v>9242</v>
+        <v>11784</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>1628640.824</v>
-      </c>
-      <c r="I25" s="21" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="26" s="35" spans="1:9" thickBot="1">
+        <v>2165597.257</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="26" s="33" spans="1:5" thickBot="1">
       <c r="A26" s="14" t="s">
         <v>114</v>
       </c>
       <c r="B26" s="17" t="n">
-        <v>17062</v>
+        <v>17057</v>
       </c>
       <c r="C26" s="15" t="n">
-        <v>17062</v>
+        <v>17092</v>
       </c>
       <c r="D26" s="3" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>3115.788</v>
-      </c>
-      <c r="I26" s="21" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="27" s="35" spans="1:9" thickBot="1">
+        <v>12249.958</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="27" s="33" spans="1:5" thickBot="1">
       <c r="A27" s="14" t="s">
         <v>115</v>
       </c>
       <c r="B27" s="17" t="n">
-        <v>106219</v>
+        <v>109549</v>
       </c>
       <c r="C27" s="15" t="n">
-        <v>106649</v>
+        <v>111379</v>
       </c>
       <c r="D27" s="3" t="n">
-        <v>430</v>
+        <v>1830</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>296828.47</v>
-      </c>
-      <c r="I27" s="21" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="28" s="35" spans="1:9" thickBot="1">
+        <v>865518.6580000001</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="28" s="33" spans="1:5" thickBot="1">
       <c r="A28" s="14" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B28" s="17" t="n">
-        <v>1805</v>
+        <v>1590</v>
       </c>
       <c r="C28" s="15" t="n">
-        <v>1805</v>
+        <v>1590</v>
       </c>
       <c r="D28" s="3" t="n">
         <v>0</v>
@@ -1699,45 +1685,42 @@
       <c r="E28" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="I28" s="21" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="29" s="35" spans="1:9" thickBot="1">
+    </row>
+    <row customHeight="1" ht="15.75" r="29" s="33" spans="1:5" thickBot="1">
       <c r="A29" s="14" t="s">
         <v>116</v>
       </c>
       <c r="B29" s="17" t="n">
-        <v>12815</v>
+        <v>11995</v>
       </c>
       <c r="C29" s="15" t="n">
-        <v>12815</v>
+        <v>12000</v>
       </c>
       <c r="D29" s="3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>11554.762</v>
-      </c>
-      <c r="I29" s="21" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="30" s="35" spans="1:9" thickBot="1">
+        <v>324.843</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="30" s="33" spans="1:5" thickBot="1">
       <c r="A30" s="14" t="s">
         <v>70</v>
       </c>
       <c r="B30" s="17" t="n">
-        <v>766254</v>
+        <v>761521</v>
       </c>
       <c r="C30" s="15" t="n">
-        <v>761147</v>
+        <v>762546</v>
       </c>
       <c r="D30" s="3" t="n">
-        <v>-5107</v>
+        <v>1025</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>3179710.749</v>
-      </c>
-      <c r="I30" s="21" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="31" s="35" spans="1:9" thickBot="1">
+        <v>3941801.081</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="31" s="33" spans="1:5" thickBot="1">
       <c r="A31" s="14" t="s">
         <v>117</v>
       </c>
@@ -1753,27 +1736,25 @@
       <c r="E31" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="I31" s="21" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="32" s="35" spans="1:9" thickBot="1">
+    </row>
+    <row customHeight="1" ht="15.75" r="32" s="33" spans="1:5" thickBot="1">
       <c r="A32" s="14" t="s">
         <v>118</v>
       </c>
       <c r="B32" s="17" t="n">
-        <v>57145</v>
+        <v>57015</v>
       </c>
       <c r="C32" s="15" t="n">
-        <v>57145</v>
+        <v>56990</v>
       </c>
       <c r="D32" s="3" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>2478.522</v>
-      </c>
-      <c r="I32" s="21" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="33" s="35" spans="1:9" thickBot="1">
+        <v>26613.342</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="33" s="33" spans="1:5" thickBot="1">
       <c r="A33" s="14" t="s">
         <v>119</v>
       </c>
@@ -1789,63 +1770,59 @@
       <c r="E33" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="I33" s="21" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="34" s="35" spans="1:9" thickBot="1">
+    </row>
+    <row customHeight="1" ht="15.75" r="34" s="33" spans="1:5" thickBot="1">
       <c r="A34" s="14" t="s">
         <v>71</v>
       </c>
       <c r="B34" s="17" t="n">
-        <v>545352</v>
+        <v>525545</v>
       </c>
       <c r="C34" s="15" t="n">
-        <v>544316</v>
+        <v>524796</v>
       </c>
       <c r="D34" s="3" t="n">
-        <v>-1036</v>
+        <v>-749</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>2115929.942</v>
-      </c>
-      <c r="I34" s="21" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="35" s="35" spans="1:9" thickBot="1">
+        <v>2091885.214</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="35" s="33" spans="1:5" thickBot="1">
       <c r="A35" s="14" t="s">
         <v>120</v>
       </c>
       <c r="B35" s="17" t="n">
-        <v>61868</v>
+        <v>62683</v>
       </c>
       <c r="C35" s="15" t="n">
-        <v>62018</v>
+        <v>62683</v>
       </c>
       <c r="D35" s="3" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>85824.022</v>
-      </c>
-      <c r="I35" s="21" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="36" s="35" spans="1:9" thickBot="1">
+        <v>66722.49800000001</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="36" s="33" spans="1:5" thickBot="1">
       <c r="A36" s="14" t="s">
         <v>72</v>
       </c>
       <c r="B36" s="18" t="n">
-        <v>397268</v>
+        <v>412545</v>
       </c>
       <c r="C36" s="16" t="n">
-        <v>406443</v>
+        <v>414113</v>
       </c>
       <c r="D36" s="3" t="n">
-        <v>9175</v>
+        <v>1568</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>1781981.08</v>
-      </c>
-      <c r="I36" s="21" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="37" s="35" spans="1:9" thickBot="1">
+        <v>996471.106</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="37" s="33" spans="1:5" thickBot="1">
       <c r="A37" s="14" t="s">
         <v>121</v>
       </c>
@@ -1861,17 +1838,16 @@
       <c r="E37" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="I37" s="21" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="38" s="35" spans="1:9" thickBot="1">
+    </row>
+    <row customHeight="1" ht="15.75" r="38" s="33" spans="1:5" thickBot="1">
       <c r="A38" s="14" t="s">
         <v>122</v>
       </c>
       <c r="B38" s="18" t="n">
-        <v>4487</v>
+        <v>4562</v>
       </c>
       <c r="C38" s="16" t="n">
-        <v>4487</v>
+        <v>4562</v>
       </c>
       <c r="D38" s="3" t="n">
         <v>0</v>
@@ -1879,9 +1855,8 @@
       <c r="E38" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="I38" s="21" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="39" s="35" spans="1:9" thickBot="1">
+    </row>
+    <row customHeight="1" ht="15.75" r="39" s="33" spans="1:5" thickBot="1">
       <c r="A39" s="1" t="s">
         <v>123</v>
       </c>
@@ -1891,11 +1866,14 @@
       <c r="C39" s="5" t="n">
         <v>1215</v>
       </c>
-      <c r="D39" s="3" t="n"/>
-      <c r="E39" s="6" t="n"/>
-      <c r="I39" s="21" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="40" s="35" spans="1:9" thickBot="1">
+      <c r="D39" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.75" r="40" s="33" spans="1:5" thickBot="1">
       <c r="A40" s="1" t="n"/>
       <c r="B40" s="7" t="n"/>
       <c r="C40" s="6" t="n"/>
@@ -1917,17 +1895,17 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -1945,13 +1923,13 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="35" width="20.140625"/>
-    <col bestFit="1" customWidth="1" max="11" min="11" style="35" width="9.7109375"/>
+    <col customWidth="1" max="1" min="1" style="33" width="20.140625"/>
+    <col bestFit="1" customWidth="1" max="11" min="11" style="33" width="9.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -2165,15 +2143,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F190"/>
+  <dimension ref="A1:F204"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="A173" workbookViewId="0">
+      <selection activeCell="A193" sqref="A193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="35" width="10.7109375"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="33" width="10.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2186,7 +2164,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="11">
-        <f>_xll.BDH(E3,B1,$F4,"","cols=2;rows=189")</f>
+        <f>_xll.BDH(E3,B1,$F4,"","cols=2;rows=191")</f>
         <v/>
       </c>
       <c r="B2" t="n">
@@ -3705,6 +3683,58 @@
       <c r="B190" t="n">
         <v>9.210000000000001</v>
       </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191" s="20" t="n">
+        <v>42982</v>
+      </c>
+      <c r="B191" t="n">
+        <v>9.199999999999999</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192" s="20" t="n">
+        <v>42983</v>
+      </c>
+      <c r="B192" t="n">
+        <v>9.07</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193" s="20" t="n"/>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194" s="20" t="n"/>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195" s="20" t="n"/>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196" s="20" t="n"/>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197" s="20" t="n"/>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198" s="20" t="n"/>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199" s="20" t="n"/>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200" s="20" t="n"/>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201" s="20" t="n"/>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202" s="20" t="n"/>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="A203" s="20" t="n"/>
+    </row>
+    <row r="204" spans="1:6">
+      <c r="A204" s="20" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -3720,13 +3750,13 @@
   <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A15"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="35" width="9.140625"/>
-    <col customWidth="1" max="9" min="9" style="35" width="9.140625"/>
+    <col customWidth="1" max="1" min="1" style="33" width="9.140625"/>
+    <col customWidth="1" max="9" min="9" style="33" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -3768,40 +3798,40 @@
       <c r="A2" s="9" t="n">
         <v>43327</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="25" t="s">
         <v>44</v>
       </c>
       <c r="C2" s="10" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="D2" s="23" t="n">
-        <v>0.03999999999999976</v>
-      </c>
-      <c r="E2" s="23" t="n">
-        <v>4.046559801487604</v>
-      </c>
-      <c r="F2" s="23" t="n">
-        <v>-0.009502435846675539</v>
-      </c>
-      <c r="G2" s="23" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="D2" s="21" t="n">
+        <v>-0.009999999999999593</v>
+      </c>
+      <c r="E2" s="21" t="n">
+        <v>3.892371823943463</v>
+      </c>
+      <c r="F2" s="21" t="n">
+        <v>-0.03345670489529606</v>
+      </c>
+      <c r="G2" s="21" t="n">
         <v>0</v>
       </c>
-      <c r="H2" s="23" t="n">
+      <c r="H2" s="21" t="n">
         <v>0</v>
       </c>
-      <c r="I2" s="28" t="n">
-        <v>43986</v>
-      </c>
-      <c r="J2" s="26" t="n">
-        <v>8319.515493093595</v>
+      <c r="I2" s="26" t="n">
+        <v>43987</v>
+      </c>
+      <c r="J2" s="24" t="n">
+        <v>8323.396506376706</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.03876928074922348</v>
+        <v>0.08144721886760298</v>
       </c>
       <c r="L2" t="n">
-        <v>0.08886811367086758</v>
-      </c>
-      <c r="P2" s="27" t="s">
+        <v>0.08603240388500437</v>
+      </c>
+      <c r="P2" s="25" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3809,40 +3839,40 @@
       <c r="A3" s="9" t="n">
         <v>43600</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="25" t="s">
         <v>46</v>
       </c>
       <c r="C3" s="10" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="D3" s="23" t="n">
-        <v>0.01270000000000021</v>
-      </c>
-      <c r="E3" s="23" t="n">
-        <v>4.502935036586564</v>
-      </c>
-      <c r="F3" s="23" t="n">
-        <v>0.01777198053978246</v>
-      </c>
-      <c r="G3" s="23" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="H3" s="23" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="I3" s="28" t="n">
+        <v>3.338</v>
+      </c>
+      <c r="D3" s="21" t="n">
+        <v>-0.004599999999999743</v>
+      </c>
+      <c r="E3" s="21" t="n">
+        <v>4.342828889848627</v>
+      </c>
+      <c r="F3" s="21" t="n">
+        <v>-0.01342946074334161</v>
+      </c>
+      <c r="G3" s="21" t="n">
+        <v>3.338</v>
+      </c>
+      <c r="H3" s="21" t="n">
+        <v>3.338</v>
+      </c>
+      <c r="I3" s="26" t="n">
         <v>44196</v>
       </c>
-      <c r="J3" s="26" t="n">
-        <v>10244.83004307429</v>
+      <c r="J3" s="24" t="n">
+        <v>10271.99435065842</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.008505095244470962</v>
+        <v>0.0903733689978925</v>
       </c>
       <c r="L3" t="n">
-        <v>0.09208305731622317</v>
-      </c>
-      <c r="P3" s="27">
+        <v>0.08909410674705413</v>
+      </c>
+      <c r="P3" s="25">
         <f>"B"&amp;TEXT(O3,"A")</f>
         <v/>
       </c>
@@ -3851,40 +3881,40 @@
       <c r="A4" s="9" t="n">
         <v>44058</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="25" t="s">
         <v>47</v>
       </c>
       <c r="C4" s="10" t="n">
-        <v>4.1141</v>
-      </c>
-      <c r="D4" s="23" t="n">
-        <v>0.01410000000000022</v>
-      </c>
-      <c r="E4" s="23" t="n">
-        <v>4.661902904855619</v>
-      </c>
-      <c r="F4" s="23" t="n">
-        <v>0.01659294007043677</v>
-      </c>
-      <c r="G4" s="23" t="n">
-        <v>4.1141</v>
-      </c>
-      <c r="H4" s="23" t="n">
-        <v>4.661902904855619</v>
-      </c>
-      <c r="I4" s="28" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="D4" s="21" t="n">
+        <v>-0.05000000000000004</v>
+      </c>
+      <c r="E4" s="21" t="n">
+        <v>4.528655032667706</v>
+      </c>
+      <c r="F4" s="21" t="n">
+        <v>0.01379710722320127</v>
+      </c>
+      <c r="G4" s="21" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="H4" s="21" t="n">
+        <v>4.528655032667706</v>
+      </c>
+      <c r="I4" s="26" t="n">
         <v>44578</v>
       </c>
-      <c r="J4" s="26" t="n">
-        <v>13279.5223959777</v>
+      <c r="J4" s="24" t="n">
+        <v>13351.02789607177</v>
       </c>
       <c r="K4" t="n">
-        <v>0.02189101647086245</v>
+        <v>0.09733769124220526</v>
       </c>
       <c r="L4" t="n">
-        <v>0.09618328207909679</v>
-      </c>
-      <c r="P4" s="27">
+        <v>0.09331856594920095</v>
+      </c>
+      <c r="P4" s="25">
         <f>"B"&amp;TEXT(O4,"A")</f>
         <v/>
       </c>
@@ -3893,40 +3923,40 @@
       <c r="A5" s="9" t="n">
         <v>44331</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="25" t="s">
         <v>48</v>
       </c>
       <c r="C5" s="10" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="D5" s="23" t="n">
-        <v>0.01570000000000044</v>
-      </c>
-      <c r="E5" s="23" t="n">
-        <v>4.794395785707772</v>
-      </c>
-      <c r="F5" s="23" t="n">
-        <v>0.005866541177335094</v>
-      </c>
-      <c r="G5" s="23" t="n">
-        <v>5.244547274305034</v>
-      </c>
-      <c r="H5" s="23" t="n">
-        <v>5.425341212262458</v>
-      </c>
-      <c r="I5" s="28" t="n">
-        <v>44756</v>
-      </c>
-      <c r="J5" s="26" t="n">
-        <v>14991.53230755394</v>
+        <v>4.17</v>
+      </c>
+      <c r="D5" s="21" t="n">
+        <v>-0.03429999999999961</v>
+      </c>
+      <c r="E5" s="21" t="n">
+        <v>4.655807466897155</v>
+      </c>
+      <c r="F5" s="21" t="n">
+        <v>-0.006835896871226765</v>
+      </c>
+      <c r="G5" s="21" t="n">
+        <v>5.078584208844261</v>
+      </c>
+      <c r="H5" s="21" t="n">
+        <v>5.262785655024826</v>
+      </c>
+      <c r="I5" s="26" t="n">
+        <v>44757</v>
+      </c>
+      <c r="J5" s="24" t="n">
+        <v>15100.54080963903</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0295670883986715</v>
+        <v>0.09655323054025278</v>
       </c>
       <c r="L5" t="n">
-        <v>0.09755837506371245</v>
-      </c>
-      <c r="P5" s="27">
+        <v>0.09434924802024647</v>
+      </c>
+      <c r="P5" s="25">
         <f>"B"&amp;TEXT(O5,"A")</f>
         <v/>
       </c>
@@ -3935,40 +3965,40 @@
       <c r="A6" s="9" t="n">
         <v>44788</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="25" t="s">
         <v>49</v>
       </c>
       <c r="C6" s="10" t="n">
-        <v>4.62</v>
-      </c>
-      <c r="D6" s="23" t="n">
-        <v>0.006799999999999862</v>
-      </c>
-      <c r="E6" s="23" t="n">
-        <v>4.836284186183515</v>
-      </c>
-      <c r="F6" s="23" t="n">
-        <v>0.01299332965614131</v>
-      </c>
-      <c r="G6" s="23" t="n">
-        <v>5.611744936412322</v>
-      </c>
-      <c r="H6" s="23" t="n">
-        <v>4.969574995157822</v>
-      </c>
-      <c r="I6" s="28" t="n">
-        <v>45111</v>
-      </c>
-      <c r="J6" s="26" t="n">
-        <v>17881.37100336955</v>
+        <v>4.48</v>
+      </c>
+      <c r="D6" s="21" t="n">
+        <v>-0.02999999999999947</v>
+      </c>
+      <c r="E6" s="21" t="n">
+        <v>4.672853014499623</v>
+      </c>
+      <c r="F6" s="21" t="n">
+        <v>-0.01207127862508095</v>
+      </c>
+      <c r="G6" s="21" t="n">
+        <v>5.466968455193966</v>
+      </c>
+      <c r="H6" s="21" t="n">
+        <v>4.726805500807174</v>
+      </c>
+      <c r="I6" s="26" t="n">
+        <v>45112</v>
+      </c>
+      <c r="J6" s="24" t="n">
+        <v>18051.25959605138</v>
       </c>
       <c r="K6" t="n">
-        <v>0.02701063662742531</v>
+        <v>0.08276837529901104</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0992335344475643</v>
-      </c>
-      <c r="P6" s="27">
+        <v>0.09591328945458021</v>
+      </c>
+      <c r="P6" s="25">
         <f>"B"&amp;TEXT(O6,"A")</f>
         <v/>
       </c>
@@ -3977,40 +4007,40 @@
       <c r="A7" s="9" t="n">
         <v>45061</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="25" t="s">
         <v>50</v>
       </c>
       <c r="C7" s="10" t="n">
-        <v>4.74</v>
-      </c>
-      <c r="D7" s="23" t="n">
-        <v>0.01650000000000054</v>
-      </c>
-      <c r="E7" s="23" t="n">
-        <v>4.825514619680371</v>
-      </c>
-      <c r="F7" s="23" t="n">
-        <v>0.004236206621532901</v>
-      </c>
-      <c r="G7" s="23" t="n">
-        <v>5.814377979541074</v>
-      </c>
-      <c r="H7" s="23" t="n">
-        <v>4.729687962125029</v>
-      </c>
-      <c r="I7" s="28" t="n">
-        <v>45587</v>
-      </c>
-      <c r="J7" s="26" t="n">
-        <v>21891.44288274428</v>
+        <v>4.59</v>
+      </c>
+      <c r="D7" s="21" t="n">
+        <v>-0.0446000000000002</v>
+      </c>
+      <c r="E7" s="21" t="n">
+        <v>4.66994399607068</v>
+      </c>
+      <c r="F7" s="21" t="n">
+        <v>-0.004259992708388616</v>
+      </c>
+      <c r="G7" s="21" t="n">
+        <v>5.562828328226255</v>
+      </c>
+      <c r="H7" s="21" t="n">
+        <v>4.644352810479191</v>
+      </c>
+      <c r="I7" s="26" t="n">
+        <v>45590</v>
+      </c>
+      <c r="J7" s="24" t="n">
+        <v>22198.90764833882</v>
       </c>
       <c r="K7" t="n">
-        <v>0.03349477169532766</v>
+        <v>0.07801190041768769</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1014165688824119</v>
-      </c>
-      <c r="P7" s="27">
+        <v>0.09794188732373797</v>
+      </c>
+      <c r="P7" s="25">
         <f>"B"&amp;TEXT(O7,"A")</f>
         <v/>
       </c>
@@ -4019,40 +4049,40 @@
       <c r="A8" s="9" t="n">
         <v>45519</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="25" t="s">
         <v>51</v>
       </c>
       <c r="C8" s="10" t="n">
-        <v>4.7744</v>
-      </c>
-      <c r="D8" s="23" t="n">
-        <v>0.01600000000000004</v>
-      </c>
-      <c r="E8" s="23" t="n">
-        <v>4.980152405321503</v>
-      </c>
-      <c r="F8" s="23" t="n">
-        <v>0.01004468913927692</v>
-      </c>
-      <c r="G8" s="23" t="n">
-        <v>4.946995005241139</v>
-      </c>
-      <c r="H8" s="23" t="n">
-        <v>5.758694545294074</v>
-      </c>
-      <c r="I8" s="28" t="n">
-        <v>46400</v>
-      </c>
-      <c r="J8" s="26" t="n">
-        <v>29010.44291846453</v>
+        <v>4.6234</v>
+      </c>
+      <c r="D8" s="21" t="n">
+        <v>-0.04399999999999959</v>
+      </c>
+      <c r="E8" s="21" t="n">
+        <v>4.807690328936931</v>
+      </c>
+      <c r="F8" s="21" t="n">
+        <v>-0.01530594300578336</v>
+      </c>
+      <c r="G8" s="21" t="n">
+        <v>4.790560058577475</v>
+      </c>
+      <c r="H8" s="21" t="n">
+        <v>5.499145895327362</v>
+      </c>
+      <c r="I8" s="26" t="n">
+        <v>46412</v>
+      </c>
+      <c r="J8" s="24" t="n">
+        <v>29606.72054304952</v>
       </c>
       <c r="K8" t="n">
-        <v>0.03093778284730953</v>
+        <v>0.06447780266274905</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1036272801190787</v>
-      </c>
-      <c r="P8" s="27">
+        <v>0.100253972246511</v>
+      </c>
+      <c r="P8" s="25">
         <f>"B"&amp;TEXT(O8,"A")</f>
         <v/>
       </c>
@@ -4061,40 +4091,40 @@
       <c r="A9" s="9" t="n">
         <v>46249</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="25" t="s">
         <v>52</v>
       </c>
       <c r="C9" s="10" t="n">
-        <v>4.9783</v>
-      </c>
-      <c r="D9" s="23" t="n">
-        <v>0.03829999999999945</v>
-      </c>
-      <c r="E9" s="23" t="n">
-        <v>4.962696439380987</v>
-      </c>
-      <c r="F9" s="23" t="n">
-        <v>-0.01203876803934634</v>
-      </c>
-      <c r="G9" s="23" t="n">
-        <v>5.888569041791425</v>
-      </c>
-      <c r="H9" s="23" t="n">
-        <v>4.885214274129557</v>
-      </c>
-      <c r="I9" s="28" t="n">
-        <v>47126</v>
-      </c>
-      <c r="J9" s="26" t="n">
-        <v>36087.1642688127</v>
+        <v>4.81</v>
+      </c>
+      <c r="D9" s="21" t="n">
+        <v>-0.05740000000000051</v>
+      </c>
+      <c r="E9" s="21" t="n">
+        <v>4.813335925408646</v>
+      </c>
+      <c r="F9" s="21" t="n">
+        <v>-0.01664693749199309</v>
+      </c>
+      <c r="G9" s="21" t="n">
+        <v>5.63591167387778</v>
+      </c>
+      <c r="H9" s="21" t="n">
+        <v>4.838207459996369</v>
+      </c>
+      <c r="I9" s="26" t="n">
+        <v>47149</v>
+      </c>
+      <c r="J9" s="24" t="n">
+        <v>37089.47488243038</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0269385213473583</v>
+        <v>0.05423725913035471</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1041294807299652</v>
-      </c>
-      <c r="P9" s="27">
+        <v>0.1007439094663722</v>
+      </c>
+      <c r="P9" s="25">
         <f>"B"&amp;TEXT(O9,"A")</f>
         <v/>
       </c>
@@ -4103,40 +4133,40 @@
       <c r="A10" s="9" t="n">
         <v>47710</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="25" t="s">
         <v>53</v>
       </c>
       <c r="C10" s="10" t="n">
-        <v>5.1047</v>
-      </c>
-      <c r="D10" s="23" t="n">
-        <v>0.004700000000000537</v>
-      </c>
-      <c r="E10" s="23" t="n">
-        <v>4.969363939541838</v>
-      </c>
-      <c r="F10" s="23" t="n">
-        <v>0.02688485286064246</v>
-      </c>
-      <c r="G10" s="23" t="n">
-        <v>5.510476192999003</v>
-      </c>
-      <c r="H10" s="23" t="n">
-        <v>4.99071710278074</v>
-      </c>
-      <c r="I10" s="28" t="n">
-        <v>47847</v>
-      </c>
-      <c r="J10" s="26" t="n">
-        <v>42133.28938402139</v>
+        <v>4.93</v>
+      </c>
+      <c r="D10" s="21" t="n">
+        <v>-0.05740000000000051</v>
+      </c>
+      <c r="E10" s="21" t="n">
+        <v>4.85932659008359</v>
+      </c>
+      <c r="F10" s="21" t="n">
+        <v>-0.02216108279169404</v>
+      </c>
+      <c r="G10" s="21" t="n">
+        <v>5.311548135310895</v>
+      </c>
+      <c r="H10" s="21" t="n">
+        <v>5.005341894830639</v>
+      </c>
+      <c r="I10" s="26" t="n">
+        <v>47889</v>
+      </c>
+      <c r="J10" s="24" t="n">
+        <v>43571.49118614896</v>
       </c>
       <c r="K10" t="n">
-        <v>0.02446389747001732</v>
+        <v>0.04756039259048994</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1046042130817313</v>
-      </c>
-      <c r="P10" s="27">
+        <v>0.101743909466372</v>
+      </c>
+      <c r="P10" s="25">
         <f>"B"&amp;TEXT(O10,"A")</f>
         <v/>
       </c>
@@ -4145,40 +4175,40 @@
       <c r="A11" s="9" t="n">
         <v>49444</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="25" t="s">
         <v>54</v>
       </c>
       <c r="C11" s="10" t="n">
-        <v>5.1444</v>
-      </c>
-      <c r="D11" s="23" t="n">
-        <v>-0.002999999999999531</v>
-      </c>
-      <c r="E11" s="23" t="n">
-        <v>4.962090538578079</v>
-      </c>
-      <c r="F11" s="23" t="n">
-        <v>0.04496934460194169</v>
-      </c>
-      <c r="G11" s="23" t="n">
-        <v>5.332239438022945</v>
-      </c>
-      <c r="H11" s="23" t="n">
-        <v>4.927720660127077</v>
-      </c>
-      <c r="I11" s="28" t="n">
-        <v>48218</v>
-      </c>
-      <c r="J11" s="26" t="n">
-        <v>45657.40002395361</v>
+        <v>4.9631</v>
+      </c>
+      <c r="D11" s="21" t="n">
+        <v>-0.05219999999999947</v>
+      </c>
+      <c r="E11" s="21" t="n">
+        <v>4.950960661336268</v>
+      </c>
+      <c r="F11" s="21" t="n">
+        <v>-0.02829710846694589</v>
+      </c>
+      <c r="G11" s="21" t="n">
+        <v>5.11715876486547</v>
+      </c>
+      <c r="H11" s="21" t="n">
+        <v>5.378130312192431</v>
+      </c>
+      <c r="I11" s="26" t="n">
+        <v>48277</v>
+      </c>
+      <c r="J11" s="24" t="n">
+        <v>47410.61259050768</v>
       </c>
       <c r="K11" t="n">
-        <v>0.02582271683648774</v>
+        <v>0.04722560457422198</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1046042130817313</v>
-      </c>
-      <c r="P11" s="27">
+        <v>0.102143909466372</v>
+      </c>
+      <c r="P11" s="25">
         <f>"B"&amp;TEXT(O11,"A")</f>
         <v/>
       </c>
@@ -4187,40 +4217,40 @@
       <c r="A12" s="9" t="n">
         <v>51363</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="25" t="s">
         <v>55</v>
       </c>
       <c r="C12" s="10" t="n">
-        <v>5.1952</v>
-      </c>
-      <c r="D12" s="23" t="n">
-        <v>0.002499999999999725</v>
-      </c>
-      <c r="E12" s="23" t="n">
-        <v>4.931494106746537</v>
-      </c>
-      <c r="F12" s="23" t="n">
-        <v>0.04511744082911218</v>
-      </c>
-      <c r="G12" s="23" t="n">
-        <v>5.48657203669396</v>
-      </c>
-      <c r="H12" s="23" t="n">
-        <v>4.756459667293478</v>
-      </c>
-      <c r="I12" s="28" t="n">
-        <v>48703</v>
-      </c>
-      <c r="J12" s="26" t="n">
-        <v>49679.9016828579</v>
+        <v>5.0136</v>
+      </c>
+      <c r="D12" s="21" t="n">
+        <v>-0.0564000000000002</v>
+      </c>
+      <c r="E12" s="21" t="n">
+        <v>4.972019115831872</v>
+      </c>
+      <c r="F12" s="21" t="n">
+        <v>-0.02442455370392782</v>
+      </c>
+      <c r="G12" s="21" t="n">
+        <v>5.297705085495052</v>
+      </c>
+      <c r="H12" s="21" t="n">
+        <v>5.090380807515893</v>
+      </c>
+      <c r="I12" s="26" t="n">
+        <v>48780</v>
+      </c>
+      <c r="J12" s="24" t="n">
+        <v>51885.64678713486</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0232238810665697</v>
+        <v>0.04258963257369741</v>
       </c>
       <c r="L12" t="n">
-        <v>0.104604274412418</v>
-      </c>
-      <c r="P12" s="27">
+        <v>0.102106449606817</v>
+      </c>
+      <c r="P12" s="25">
         <f>"B"&amp;TEXT(O12,"A")</f>
         <v/>
       </c>
@@ -4229,40 +4259,40 @@
       <c r="A13" s="9" t="n">
         <v>53097</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="25" t="s">
         <v>56</v>
       </c>
       <c r="C13" s="10" t="n">
-        <v>5.3058</v>
-      </c>
-      <c r="D13" s="23" t="n">
-        <v>0.001599999999999518</v>
-      </c>
-      <c r="E13" s="23" t="n">
-        <v>4.830971249437988</v>
-      </c>
-      <c r="F13" s="23" t="n">
-        <v>0.05043662973838181</v>
-      </c>
-      <c r="G13" s="23" t="n">
-        <v>6.760799596175127</v>
-      </c>
-      <c r="H13" s="23" t="n">
-        <v>3.527089734383226</v>
-      </c>
-      <c r="I13" s="28" t="n">
-        <v>48936</v>
-      </c>
-      <c r="J13" s="26" t="n">
-        <v>53048.98598611611</v>
+        <v>5.1271</v>
+      </c>
+      <c r="D13" s="21" t="n">
+        <v>-0.055199999999999</v>
+      </c>
+      <c r="E13" s="21" t="n">
+        <v>4.909271586091224</v>
+      </c>
+      <c r="F13" s="21" t="n">
+        <v>-0.02576278826926792</v>
+      </c>
+      <c r="G13" s="21" t="n">
+        <v>6.563974693561869</v>
+      </c>
+      <c r="H13" s="21" t="n">
+        <v>4.123903260774209</v>
+      </c>
+      <c r="I13" s="26" t="n">
+        <v>49037</v>
+      </c>
+      <c r="J13" s="24" t="n">
+        <v>55661.9854386061</v>
       </c>
       <c r="K13" t="n">
-        <v>0.02122845481997149</v>
+        <v>0.03963634782368219</v>
       </c>
       <c r="L13" t="n">
-        <v>0.104604274412418</v>
-      </c>
-      <c r="P13" s="27">
+        <v>0.102106449606817</v>
+      </c>
+      <c r="P13" s="25">
         <f>"B"&amp;TEXT(O13,"A")</f>
         <v/>
       </c>
@@ -4271,40 +4301,40 @@
       <c r="A14" s="9" t="n">
         <v>55015</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="25" t="s">
         <v>57</v>
       </c>
       <c r="C14" s="10" t="n">
-        <v>5.29</v>
-      </c>
-      <c r="D14" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" s="23" t="n">
-        <v>4.855032508914769</v>
-      </c>
-      <c r="F14" s="23" t="n">
-        <v>0.05422976258220302</v>
-      </c>
-      <c r="G14" s="23" t="n">
-        <v>5.119898229615405</v>
-      </c>
-      <c r="H14" s="23" t="n">
-        <v>5.114654020371967</v>
-      </c>
-      <c r="I14" s="28" t="n">
-        <v>48936</v>
-      </c>
-      <c r="J14" s="26" t="n">
-        <v>53048.98598611611</v>
+        <v>5.1067</v>
+      </c>
+      <c r="D14" s="21" t="n">
+        <v>-0.06029999999999994</v>
+      </c>
+      <c r="E14" s="21" t="n">
+        <v>4.958046761009816</v>
+      </c>
+      <c r="F14" s="21" t="n">
+        <v>-0.02060607536156223</v>
+      </c>
+      <c r="G14" s="21" t="n">
+        <v>4.893178838738077</v>
+      </c>
+      <c r="H14" s="21" t="n">
+        <v>5.470497616377545</v>
+      </c>
+      <c r="I14" s="26" t="n">
+        <v>49037</v>
+      </c>
+      <c r="J14" s="24" t="n">
+        <v>55661.9854386061</v>
       </c>
       <c r="K14" t="n">
-        <v>0.02122845481997149</v>
+        <v>0.03963634782368219</v>
       </c>
       <c r="L14" t="n">
-        <v>0.104604274412418</v>
-      </c>
-      <c r="P14" s="27">
+        <v>0.102106449606817</v>
+      </c>
+      <c r="P14" s="25">
         <f>"B"&amp;TEXT(O14,"A")</f>
         <v/>
       </c>
@@ -4313,40 +4343,40 @@
       <c r="A15" s="9" t="n">
         <v>56749</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="25" t="s">
         <v>58</v>
       </c>
       <c r="C15" s="10" t="n">
-        <v>5.2463</v>
-      </c>
-      <c r="D15" s="23" t="n">
-        <v>0.0008999999999995123</v>
-      </c>
-      <c r="E15" s="23" t="n">
-        <v>4.904386187134513</v>
-      </c>
-      <c r="F15" s="23" t="n">
-        <v>0.05408458124287474</v>
-      </c>
-      <c r="G15" s="23" t="n">
-        <v>4.190908593593679</v>
-      </c>
-      <c r="H15" s="23" t="n">
-        <v>6.109737918972136</v>
-      </c>
-      <c r="I15" s="28" t="n">
-        <v>48936</v>
-      </c>
-      <c r="J15" s="26" t="n">
-        <v>53048.98598611611</v>
+        <v>5.06</v>
+      </c>
+      <c r="D15" s="21" t="n">
+        <v>-0.05739999999999981</v>
+      </c>
+      <c r="E15" s="21" t="n">
+        <v>5.017397134085733</v>
+      </c>
+      <c r="F15" s="21" t="n">
+        <v>-0.02363863203618255</v>
+      </c>
+      <c r="G15" s="21" t="n">
+        <v>4.014587588123231</v>
+      </c>
+      <c r="H15" s="21" t="n">
+        <v>6.361859053065322</v>
+      </c>
+      <c r="I15" s="26" t="n">
+        <v>49037</v>
+      </c>
+      <c r="J15" s="24" t="n">
+        <v>55661.9854386061</v>
       </c>
       <c r="K15" t="n">
-        <v>0.02122845481997149</v>
+        <v>0.03963634782368219</v>
       </c>
       <c r="L15" t="n">
-        <v>0.104604274412418</v>
-      </c>
-      <c r="P15" s="27">
+        <v>0.102106449606817</v>
+      </c>
+      <c r="P15" s="25">
         <f>"B"&amp;TEXT(O15,"A")</f>
         <v/>
       </c>
@@ -4371,7 +4401,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="18" min="18" style="35" width="17.5703125"/>
+    <col bestFit="1" customWidth="1" max="18" min="18" style="33" width="17.5703125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -4416,40 +4446,40 @@
       <c r="A2" s="8" t="n">
         <v>43101</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="25" t="s">
         <v>66</v>
       </c>
       <c r="C2" t="n">
-        <v>7.7581</v>
-      </c>
-      <c r="D2" s="23" t="n">
-        <v>-0.01470000000000082</v>
-      </c>
-      <c r="E2" s="24" t="n">
-        <v>-3.189989081103933</v>
-      </c>
-      <c r="F2" s="24" t="n">
-        <v>0.02903334577530892</v>
-      </c>
-      <c r="G2" s="23" t="n">
-        <v>0.9981240658908717</v>
-      </c>
-      <c r="H2" s="25" t="n">
-        <v>8.025279003232022e-05</v>
-      </c>
-      <c r="I2" s="28" t="n">
+        <v>7.6136</v>
+      </c>
+      <c r="D2" s="21" t="n">
+        <v>-0.001700000000000312</v>
+      </c>
+      <c r="E2" s="22" t="n">
+        <v>-4.639375911146132</v>
+      </c>
+      <c r="F2" s="22" t="n">
+        <v>-0.1705347855869572</v>
+      </c>
+      <c r="G2" s="21" t="n">
+        <v>0.9949485463912212</v>
+      </c>
+      <c r="H2" s="23" t="n">
+        <v>-0.00182059812189006</v>
+      </c>
+      <c r="I2" s="26" t="n">
         <v>43102</v>
       </c>
-      <c r="J2" s="26" t="n">
-        <v>1508.704921160398</v>
-      </c>
-      <c r="K2" s="26" t="n">
-        <v>524.5014382610603</v>
+      <c r="J2" s="24" t="n">
+        <v>1437.479004234854</v>
+      </c>
+      <c r="K2" s="24" t="n">
+        <v>524.6587305281588</v>
       </c>
       <c r="L2" t="n">
-        <v>0.07773230994066882</v>
-      </c>
-      <c r="R2" s="27" t="s">
+        <v>0.07653692110022781</v>
+      </c>
+      <c r="R2" s="25" t="s">
         <v>67</v>
       </c>
     </row>
@@ -4457,40 +4487,40 @@
       <c r="A3" s="8" t="n">
         <v>43466</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="25" t="s">
         <v>68</v>
       </c>
       <c r="C3" t="n">
-        <v>7.745</v>
-      </c>
-      <c r="D3" s="23" t="n">
-        <v>0.03999999999999976</v>
-      </c>
-      <c r="E3" s="24" t="n">
-        <v>-5.499934265012079</v>
-      </c>
-      <c r="F3" s="24" t="n">
-        <v>-0.0001653724242265397</v>
-      </c>
-      <c r="G3" s="23" t="n">
-        <v>0.9946085066864554</v>
-      </c>
-      <c r="H3" s="25" t="n">
-        <v>0.0001656420168102413</v>
-      </c>
-      <c r="I3" s="28" t="n">
+        <v>7.565000000000001</v>
+      </c>
+      <c r="D3" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="22" t="n">
+        <v>-5.500040175680926</v>
+      </c>
+      <c r="F3" s="22" t="n">
+        <v>0.0001099346813582258</v>
+      </c>
+      <c r="G3" s="21" t="n">
+        <v>0.99405512144246</v>
+      </c>
+      <c r="H3" s="23" t="n">
+        <v>-0.0002401666806338687</v>
+      </c>
+      <c r="I3" s="26" t="n">
         <v>43440</v>
       </c>
-      <c r="J3" s="26" t="n">
-        <v>6023.23502366664</v>
-      </c>
-      <c r="K3" s="26" t="n">
-        <v>547.0319036352406</v>
+      <c r="J3" s="24" t="n">
+        <v>5975.940501357079</v>
+      </c>
+      <c r="K3" s="24" t="n">
+        <v>546.6707693722298</v>
       </c>
       <c r="L3" t="n">
-        <v>0.07768639773199904</v>
-      </c>
-      <c r="R3" s="27" t="s">
+        <v>0.07592490333268428</v>
+      </c>
+      <c r="R3" s="25" t="s">
         <v>67</v>
       </c>
     </row>
@@ -4498,40 +4528,40 @@
       <c r="A4" s="8" t="n">
         <v>44197</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="25" t="s">
         <v>69</v>
       </c>
       <c r="C4" t="n">
-        <v>9.064399999999999</v>
-      </c>
-      <c r="D4" s="23" t="n">
-        <v>0.03439999999999971</v>
-      </c>
-      <c r="E4" s="24" t="n">
-        <v>-14.56012840799617</v>
-      </c>
-      <c r="F4" s="24" t="n">
-        <v>0.4399882859661126</v>
-      </c>
-      <c r="G4" s="23" t="n">
-        <v>0.9962579238659411</v>
-      </c>
-      <c r="H4" s="25" t="n">
-        <v>0.0004621171637206878</v>
-      </c>
-      <c r="I4" s="28" t="n">
+        <v>8.775</v>
+      </c>
+      <c r="D4" s="21" t="n">
+        <v>-0.03769999999999885</v>
+      </c>
+      <c r="E4" s="22" t="n">
+        <v>-13.49979281122224</v>
+      </c>
+      <c r="F4" s="22" t="n">
+        <v>0.2301878859886646</v>
+      </c>
+      <c r="G4" s="21" t="n">
+        <v>0.996174961245755</v>
+      </c>
+      <c r="H4" s="23" t="n">
+        <v>-9.038200644995165e-05</v>
+      </c>
+      <c r="I4" s="26" t="n">
         <v>44035</v>
       </c>
-      <c r="J4" s="26" t="n">
-        <v>13699.65205996748</v>
-      </c>
-      <c r="K4" s="26" t="n">
-        <v>605.11543213086</v>
+      <c r="J4" s="24" t="n">
+        <v>13792.8175637847</v>
+      </c>
+      <c r="K4" s="24" t="n">
+        <v>604.153561360343</v>
       </c>
       <c r="L4" t="n">
-        <v>0.08981223700768233</v>
-      </c>
-      <c r="R4" s="27" t="s">
+        <v>0.08693718413600462</v>
+      </c>
+      <c r="R4" s="25" t="s">
         <v>67</v>
       </c>
     </row>
@@ -4539,40 +4569,40 @@
       <c r="A5" s="8" t="n">
         <v>44927</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="25" t="s">
         <v>70</v>
       </c>
       <c r="C5" t="n">
-        <v>9.613300000000001</v>
-      </c>
-      <c r="D5" s="23" t="n">
-        <v>0.02510000000000012</v>
-      </c>
-      <c r="E5" s="24" t="n">
-        <v>-22.67006526253348</v>
-      </c>
-      <c r="F5" s="24" t="n">
-        <v>0.5099422223109329</v>
-      </c>
-      <c r="G5" s="23" t="n">
-        <v>0.9942997062541229</v>
-      </c>
-      <c r="H5" s="25" t="n">
-        <v>0.0003904913706479496</v>
-      </c>
-      <c r="I5" s="28" t="n">
-        <v>44525</v>
-      </c>
-      <c r="J5" s="26" t="n">
-        <v>19797.37959449945</v>
-      </c>
-      <c r="K5" s="26" t="n">
-        <v>674.6381244387162</v>
+        <v>9.3087</v>
+      </c>
+      <c r="D5" s="21" t="n">
+        <v>-0.04409999999999969</v>
+      </c>
+      <c r="E5" s="22" t="n">
+        <v>-21.13003870687275</v>
+      </c>
+      <c r="F5" s="22" t="n">
+        <v>0.5898251973870927</v>
+      </c>
+      <c r="G5" s="21" t="n">
+        <v>0.9944367467587139</v>
+      </c>
+      <c r="H5" s="23" t="n">
+        <v>0.0001751350829239939</v>
+      </c>
+      <c r="I5" s="26" t="n">
+        <v>44529</v>
+      </c>
+      <c r="J5" s="24" t="n">
+        <v>20075.33696892217</v>
+      </c>
+      <c r="K5" s="24" t="n">
+        <v>672.7126260290698</v>
       </c>
       <c r="L5" t="n">
-        <v>0.09588726919370599</v>
-      </c>
-      <c r="R5" s="27" t="s">
+        <v>0.09289432761378065</v>
+      </c>
+      <c r="R5" s="25" t="s">
         <v>67</v>
       </c>
     </row>
@@ -4580,40 +4610,40 @@
       <c r="A6" s="8" t="n">
         <v>45658</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="25" t="s">
         <v>71</v>
       </c>
       <c r="C6" t="n">
-        <v>9.859999999999999</v>
-      </c>
-      <c r="D6" s="23" t="n">
-        <v>0.03689999999999943</v>
-      </c>
-      <c r="E6" s="24" t="n">
-        <v>-30.99996636973829</v>
-      </c>
-      <c r="F6" s="24" t="n">
-        <v>0.6899419678722829</v>
-      </c>
-      <c r="G6" s="23" t="n">
-        <v>0.9906862767093164</v>
-      </c>
-      <c r="H6" s="25" t="n">
-        <v>0.0008370630658849354</v>
-      </c>
-      <c r="I6" s="28" t="n">
-        <v>44925</v>
-      </c>
-      <c r="J6" s="26" t="n">
-        <v>24735.89568290357</v>
-      </c>
-      <c r="K6" s="26" t="n">
-        <v>757.1648615797296</v>
+        <v>9.5284</v>
+      </c>
+      <c r="D6" s="21" t="n">
+        <v>-0.06430000000000186</v>
+      </c>
+      <c r="E6" s="22" t="n">
+        <v>-29.16011912964242</v>
+      </c>
+      <c r="F6" s="22" t="n">
+        <v>0.5698843877614799</v>
+      </c>
+      <c r="G6" s="21" t="n">
+        <v>0.9904288577585045</v>
+      </c>
+      <c r="H6" s="23" t="n">
+        <v>-0.0003083580518976614</v>
+      </c>
+      <c r="I6" s="26" t="n">
+        <v>44931</v>
+      </c>
+      <c r="J6" s="24" t="n">
+        <v>25261.25048251671</v>
+      </c>
+      <c r="K6" s="24" t="n">
+        <v>753.6381515239896</v>
       </c>
       <c r="L6" t="n">
-        <v>0.09839382240325362</v>
-      </c>
-      <c r="R6" s="27" t="s">
+        <v>0.09522250959656119</v>
+      </c>
+      <c r="R6" s="25" t="s">
         <v>67</v>
       </c>
     </row>
@@ -4621,40 +4651,40 @@
       <c r="A7" s="8" t="n">
         <v>46388</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="25" t="s">
         <v>72</v>
       </c>
       <c r="C7" t="n">
-        <v>10.015</v>
-      </c>
-      <c r="D7" s="23" t="n">
-        <v>0.03790000000000043</v>
-      </c>
-      <c r="E7" s="24" t="n">
-        <v>-34.49985910966194</v>
-      </c>
-      <c r="F7" s="24" t="n">
-        <v>0.7902308204497928</v>
-      </c>
-      <c r="G7" s="23" t="n">
-        <v>0.9903699133346126</v>
-      </c>
-      <c r="H7" s="25" t="n">
-        <v>0.0009347933085718241</v>
-      </c>
-      <c r="I7" s="28" t="n">
-        <v>45258</v>
-      </c>
-      <c r="J7" s="26" t="n">
-        <v>28693.4224855262</v>
-      </c>
-      <c r="K7" s="26" t="n">
-        <v>851.7373679014563</v>
+        <v>9.705</v>
+      </c>
+      <c r="D7" s="21" t="n">
+        <v>-0.0787999999999997</v>
+      </c>
+      <c r="E7" s="22" t="n">
+        <v>-31.49991970527871</v>
+      </c>
+      <c r="F7" s="22" t="n">
+        <v>1.120132213987684</v>
+      </c>
+      <c r="G7" s="21" t="n">
+        <v>0.9916527669337725</v>
+      </c>
+      <c r="H7" s="23" t="n">
+        <v>-0.0003296485363333268</v>
+      </c>
+      <c r="I7" s="26" t="n">
+        <v>45268</v>
+      </c>
+      <c r="J7" s="24" t="n">
+        <v>29394.90131383393</v>
+      </c>
+      <c r="K7" s="24" t="n">
+        <v>845.4679517289368</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1000917213947563</v>
-      </c>
-      <c r="R7" s="27" t="s">
+        <v>0.09669803574477966</v>
+      </c>
+      <c r="R7" s="25" t="s">
         <v>67</v>
       </c>
     </row>
@@ -4673,7 +4703,7 @@
   <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="C2" sqref="C2:L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -4720,40 +4750,40 @@
       <c r="A2" s="8" t="n">
         <v>43009</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="28" t="s">
         <v>75</v>
       </c>
       <c r="C2" t="n">
-        <v>8.405799999999999</v>
-      </c>
-      <c r="D2" s="23" t="n">
-        <v>-0.03200000000000008</v>
-      </c>
-      <c r="E2" s="24" t="n">
-        <v>3.586571291074592</v>
-      </c>
-      <c r="F2" s="24" t="n">
-        <v>0.009135766646378496</v>
-      </c>
-      <c r="G2" s="23" t="n">
-        <v>1.008795218079044</v>
-      </c>
-      <c r="H2" s="25" t="n">
-        <v>0.0004640627036547329</v>
-      </c>
-      <c r="I2" s="28" t="n">
+        <v>8.180400000000001</v>
+      </c>
+      <c r="D2" s="21" t="n">
+        <v>-0.05529999999999979</v>
+      </c>
+      <c r="E2" s="22" t="n">
+        <v>3.841978396885853</v>
+      </c>
+      <c r="F2" s="22" t="n">
+        <v>0.07542159487422495</v>
+      </c>
+      <c r="G2" s="21" t="n">
+        <v>1.004523007383135</v>
+      </c>
+      <c r="H2" s="23" t="n">
+        <v>0.0005323025229337919</v>
+      </c>
+      <c r="I2" s="26" t="n">
         <v>43010</v>
       </c>
-      <c r="J2" s="26" t="n">
-        <v>327.5561062910128</v>
+      <c r="J2" s="24" t="n">
+        <v>255.6535184739914</v>
       </c>
       <c r="K2" t="n">
         <v>500</v>
       </c>
       <c r="L2" t="n">
-        <v>0.08329555358914775</v>
-      </c>
-      <c r="R2" s="27" t="s">
+        <v>0.08142112231722454</v>
+      </c>
+      <c r="R2" s="34" t="s">
         <v>76</v>
       </c>
     </row>
@@ -4761,40 +4791,40 @@
       <c r="A3" s="8" t="n">
         <v>43101</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="28" t="s">
         <v>77</v>
       </c>
       <c r="C3" t="n">
-        <v>7.7339</v>
-      </c>
-      <c r="D3" s="23" t="n">
-        <v>-0.01499999999999974</v>
-      </c>
-      <c r="E3" s="24" t="n">
-        <v>-5.609989081103856</v>
-      </c>
-      <c r="F3" s="24" t="n">
-        <v>-0.0009666542245829746</v>
-      </c>
-      <c r="G3" s="23" t="n">
-        <v>0.9951233369784717</v>
-      </c>
-      <c r="H3" s="25" t="n">
-        <v>3.706797143043783e-05</v>
-      </c>
-      <c r="I3" s="28" t="n">
+        <v>7.589899999999999</v>
+      </c>
+      <c r="D3" s="21" t="n">
+        <v>-0.001500000000000112</v>
+      </c>
+      <c r="E3" s="22" t="n">
+        <v>-7.009375911146143</v>
+      </c>
+      <c r="F3" s="22" t="n">
+        <v>-0.1505347855869363</v>
+      </c>
+      <c r="G3" s="21" t="n">
+        <v>0.9919615618323225</v>
+      </c>
+      <c r="H3" s="23" t="n">
+        <v>-0.0001795181569426152</v>
+      </c>
+      <c r="I3" s="26" t="n">
         <v>43102</v>
       </c>
-      <c r="J3" s="26" t="n">
-        <v>1421.353031484614</v>
+      <c r="J3" s="24" t="n">
+        <v>1353.329099645634</v>
       </c>
       <c r="K3" t="n">
         <v>500</v>
       </c>
       <c r="L3" t="n">
-        <v>0.07773230994066882</v>
-      </c>
-      <c r="R3" s="27" t="s">
+        <v>0.07653692110022781</v>
+      </c>
+      <c r="R3" s="25" t="s">
         <v>76</v>
       </c>
     </row>
@@ -4802,40 +4832,40 @@
       <c r="A4" s="8" t="n">
         <v>43191</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="28" t="s">
         <v>78</v>
       </c>
       <c r="C4" t="n">
-        <v>7.575</v>
-      </c>
-      <c r="D4" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="24" t="n">
-        <v>1.500662571503192</v>
-      </c>
-      <c r="F4" s="24" t="n">
-        <v>0.001487691325685603</v>
-      </c>
-      <c r="G4" s="23" t="n">
-        <v>1.003338604365187</v>
-      </c>
-      <c r="H4" s="25" t="n">
-        <v>1.196331441954968e-05</v>
-      </c>
-      <c r="I4" s="28" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="D4" s="21" t="n">
+        <v>-0.0450000000000006</v>
+      </c>
+      <c r="E4" s="22" t="n">
+        <v>0.9998539224381764</v>
+      </c>
+      <c r="F4" s="22" t="n">
+        <v>-0.5007519817973316</v>
+      </c>
+      <c r="G4" s="21" t="n">
+        <v>1.002007749109856</v>
+      </c>
+      <c r="H4" s="23" t="n">
+        <v>-0.0005962358015960678</v>
+      </c>
+      <c r="I4" s="26" t="n">
         <v>43192</v>
       </c>
-      <c r="J4" s="26" t="n">
-        <v>2479.526348535728</v>
+      <c r="J4" s="24" t="n">
+        <v>2417.182082212094</v>
       </c>
       <c r="K4" t="n">
         <v>500</v>
       </c>
       <c r="L4" t="n">
-        <v>0.07548869734975505</v>
-      </c>
-      <c r="R4" s="27" t="s">
+        <v>0.07394618669750219</v>
+      </c>
+      <c r="R4" s="25" t="s">
         <v>76</v>
       </c>
     </row>
@@ -4843,40 +4873,40 @@
       <c r="A5" s="8" t="n">
         <v>43282</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="28" t="s">
         <v>79</v>
       </c>
       <c r="C5" t="n">
-        <v>7.568900000000001</v>
-      </c>
-      <c r="D5" s="23" t="n">
-        <v>0.02140000000000059</v>
-      </c>
-      <c r="E5" s="24" t="n">
-        <v>1.389356486983795</v>
-      </c>
-      <c r="F5" s="24" t="n">
-        <v>0.1399308962309054</v>
-      </c>
-      <c r="G5" s="23" t="n">
-        <v>1.002761225523287</v>
-      </c>
-      <c r="H5" s="25" t="n">
-        <v>0.0001641966198360212</v>
-      </c>
-      <c r="I5" s="28" t="n">
+        <v>7.3879</v>
+      </c>
+      <c r="D5" s="21" t="n">
+        <v>-0.05210000000000076</v>
+      </c>
+      <c r="E5" s="22" t="n">
+        <v>0.7903943256157286</v>
+      </c>
+      <c r="F5" s="22" t="n">
+        <v>-0.7097711372840154</v>
+      </c>
+      <c r="G5" s="21" t="n">
+        <v>1.001529944467866</v>
+      </c>
+      <c r="H5" s="23" t="n">
+        <v>-0.0008819431342281803</v>
+      </c>
+      <c r="I5" s="26" t="n">
         <v>43283</v>
       </c>
-      <c r="J5" s="26" t="n">
-        <v>3530.639353499282</v>
+      <c r="J5" s="24" t="n">
+        <v>3475.540024297516</v>
       </c>
       <c r="K5" t="n">
         <v>500</v>
       </c>
       <c r="L5" t="n">
-        <v>0.07547293827600177</v>
-      </c>
-      <c r="R5" s="27" t="s">
+        <v>0.07376209488384222</v>
+      </c>
+      <c r="R5" s="25" t="s">
         <v>76</v>
       </c>
     </row>
@@ -4884,40 +4914,40 @@
       <c r="A6" s="8" t="n">
         <v>43374</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="28" t="s">
         <v>80</v>
       </c>
       <c r="C6" t="n">
-        <v>7.664999999999999</v>
-      </c>
-      <c r="D6" s="23" t="n">
-        <v>0.03999999999999976</v>
-      </c>
-      <c r="E6" s="24" t="n">
-        <v>1.500186029240735</v>
-      </c>
-      <c r="F6" s="24" t="n">
-        <v>-0.0002322603305515702</v>
-      </c>
-      <c r="G6" s="23" t="n">
-        <v>1.002588356130373</v>
-      </c>
-      <c r="H6" s="25" t="n">
-        <v>-3.041966897487924e-05</v>
-      </c>
-      <c r="I6" s="28" t="n">
+        <v>7.470000000000001</v>
+      </c>
+      <c r="D6" s="21" t="n">
+        <v>-0.04499999999999921</v>
+      </c>
+      <c r="E6" s="22" t="n">
+        <v>1.000454708530857</v>
+      </c>
+      <c r="F6" s="22" t="n">
+        <v>-0.5000454511343289</v>
+      </c>
+      <c r="G6" s="21" t="n">
+        <v>1.001626797296712</v>
+      </c>
+      <c r="H6" s="23" t="n">
+        <v>-0.0006138461403153439</v>
+      </c>
+      <c r="I6" s="26" t="n">
         <v>43374</v>
       </c>
-      <c r="J6" s="26" t="n">
-        <v>4565.819021117932</v>
+      <c r="J6" s="24" t="n">
+        <v>4519.693949241628</v>
       </c>
       <c r="K6" t="n">
         <v>500</v>
       </c>
       <c r="L6" t="n">
-        <v>0.07644476697916969</v>
-      </c>
-      <c r="R6" s="27" t="s">
+        <v>0.0745742782429617</v>
+      </c>
+      <c r="R6" s="25" t="s">
         <v>76</v>
       </c>
     </row>
@@ -4925,40 +4955,40 @@
       <c r="A7" s="8" t="n">
         <v>43466</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="28" t="s">
         <v>81</v>
       </c>
       <c r="C7" t="n">
-        <v>7.8083</v>
-      </c>
-      <c r="D7" s="23" t="n">
-        <v>0.03830000000000083</v>
-      </c>
-      <c r="E7" s="24" t="n">
-        <v>0.8300657349878671</v>
-      </c>
-      <c r="F7" s="24" t="n">
-        <v>-0.1701653724241192</v>
-      </c>
-      <c r="G7" s="23" t="n">
-        <v>1.001524582109143</v>
-      </c>
-      <c r="H7" s="25" t="n">
-        <v>-0.0002328894830285755</v>
-      </c>
-      <c r="I7" s="28" t="n">
+        <v>7.6279</v>
+      </c>
+      <c r="D7" s="21" t="n">
+        <v>-0.001500000000000112</v>
+      </c>
+      <c r="E7" s="22" t="n">
+        <v>0.7899598243189809</v>
+      </c>
+      <c r="F7" s="22" t="n">
+        <v>-0.149890065318653</v>
+      </c>
+      <c r="G7" s="21" t="n">
+        <v>1.001201264463147</v>
+      </c>
+      <c r="H7" s="23" t="n">
+        <v>-0.0001890902571155539</v>
+      </c>
+      <c r="I7" s="26" t="n">
         <v>43467</v>
       </c>
-      <c r="J7" s="26" t="n">
-        <v>5488.882198987994</v>
+      <c r="J7" s="24" t="n">
+        <v>5449.479456623521</v>
       </c>
       <c r="K7" t="n">
         <v>500</v>
       </c>
       <c r="L7" t="n">
-        <v>0.07795963840480158</v>
-      </c>
-      <c r="R7" s="27" t="s">
+        <v>0.07618409163949491</v>
+      </c>
+      <c r="R7" s="25" t="s">
         <v>76</v>
       </c>
     </row>
@@ -4966,40 +4996,40 @@
       <c r="A8" s="8" t="n">
         <v>43556</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="28" t="s">
         <v>82</v>
       </c>
       <c r="C8" t="n">
-        <v>7.985</v>
-      </c>
-      <c r="D8" s="23" t="n">
-        <v>0.03999999999999976</v>
-      </c>
-      <c r="E8" s="24" t="n">
-        <v>1.500022561143066</v>
-      </c>
-      <c r="F8" s="24" t="n">
-        <v>0.0003272485464556052</v>
-      </c>
-      <c r="G8" s="23" t="n">
-        <v>1.002172189981834</v>
-      </c>
-      <c r="H8" s="25" t="n">
-        <v>-2.232123949297282e-05</v>
-      </c>
-      <c r="I8" s="28" t="n">
+        <v>7.765</v>
+      </c>
+      <c r="D8" s="21" t="n">
+        <v>-0.02000000000000057</v>
+      </c>
+      <c r="E8" s="22" t="n">
+        <v>1.50003745939653</v>
+      </c>
+      <c r="F8" s="22" t="n">
+        <v>9.674636175516227e-05</v>
+      </c>
+      <c r="G8" s="21" t="n">
+        <v>1.001990545465363</v>
+      </c>
+      <c r="H8" s="23" t="n">
+        <v>1.213202133354407e-05</v>
+      </c>
+      <c r="I8" s="26" t="n">
         <v>43556</v>
       </c>
-      <c r="J8" s="26" t="n">
-        <v>6377.001447479415</v>
+      <c r="J8" s="24" t="n">
+        <v>6352.229523909045</v>
       </c>
       <c r="K8" t="n">
         <v>500</v>
       </c>
       <c r="L8" t="n">
-        <v>0.07967023584233335</v>
-      </c>
-      <c r="R8" s="27" t="s">
+        <v>0.0774899369658415</v>
+      </c>
+      <c r="R8" s="25" t="s">
         <v>76</v>
       </c>
     </row>
@@ -5007,40 +5037,40 @@
       <c r="A9" s="8" t="n">
         <v>43647</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="28" t="s">
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>8.17</v>
-      </c>
-      <c r="D9" s="23" t="n">
-        <v>0.01999999999999919</v>
-      </c>
-      <c r="E9" s="24" t="n">
-        <v>0.9997202244560466</v>
-      </c>
-      <c r="F9" s="24" t="n">
-        <v>-0.0004028841925352022</v>
-      </c>
-      <c r="G9" s="23" t="n">
-        <v>1.001432696874223</v>
-      </c>
-      <c r="H9" s="25" t="n">
-        <v>-8.735706877649463e-06</v>
-      </c>
-      <c r="I9" s="28" t="n">
+        <v>7.9516</v>
+      </c>
+      <c r="D9" s="21" t="n">
+        <v>-0.01839999999999897</v>
+      </c>
+      <c r="E9" s="22" t="n">
+        <v>1.159782752163385</v>
+      </c>
+      <c r="F9" s="22" t="n">
+        <v>0.1597394267680019</v>
+      </c>
+      <c r="G9" s="21" t="n">
+        <v>1.001460460403481</v>
+      </c>
+      <c r="H9" s="23" t="n">
+        <v>0.0002025000488581341</v>
+      </c>
+      <c r="I9" s="26" t="n">
         <v>43647</v>
       </c>
-      <c r="J9" s="26" t="n">
-        <v>7215.22295635441</v>
+      <c r="J9" s="24" t="n">
+        <v>7200.803166368132</v>
       </c>
       <c r="K9" t="n">
         <v>500</v>
       </c>
       <c r="L9" t="n">
-        <v>0.08157849211810775</v>
-      </c>
-      <c r="R9" s="27" t="s">
+        <v>0.07939557156086186</v>
+      </c>
+      <c r="R9" s="25" t="s">
         <v>76</v>
       </c>
     </row>
@@ -5048,40 +5078,40 @@
       <c r="A10" s="8" t="n">
         <v>43739</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="28" t="s">
         <v>84</v>
       </c>
       <c r="C10" t="n">
-        <v>8.41</v>
-      </c>
-      <c r="D10" s="23" t="n">
-        <v>0.008900000000000574</v>
-      </c>
-      <c r="E10" s="24" t="n">
-        <v>2.000002538879442</v>
-      </c>
-      <c r="F10" s="24" t="n">
-        <v>-0.1099724477571229</v>
-      </c>
-      <c r="G10" s="23" t="n">
-        <v>1.002455795732486</v>
-      </c>
-      <c r="H10" s="25" t="n">
-        <v>-0.000131027559342245</v>
-      </c>
-      <c r="I10" s="28" t="n">
+        <v>8.173299999999999</v>
+      </c>
+      <c r="D10" s="21" t="n">
+        <v>-0.04009999999999986</v>
+      </c>
+      <c r="E10" s="22" t="n">
+        <v>2.329768155521772</v>
+      </c>
+      <c r="F10" s="22" t="n">
+        <v>-0.01026328714584501</v>
+      </c>
+      <c r="G10" s="21" t="n">
+        <v>1.002747327637235</v>
+      </c>
+      <c r="H10" s="23" t="n">
+        <v>1.098949239075608e-05</v>
+      </c>
+      <c r="I10" s="26" t="n">
         <v>43739</v>
       </c>
-      <c r="J10" s="26" t="n">
-        <v>8043.430892706965</v>
+      <c r="J10" s="24" t="n">
+        <v>8045.019394554402</v>
       </c>
       <c r="K10" t="n">
         <v>500</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0838855987408833</v>
-      </c>
-      <c r="R10" s="27" t="s">
+        <v>0.08150021741322266</v>
+      </c>
+      <c r="R10" s="25" t="s">
         <v>76</v>
       </c>
     </row>
@@ -5089,40 +5119,40 @@
       <c r="A11" s="8" t="n">
         <v>43831</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="28" t="s">
         <v>85</v>
       </c>
       <c r="C11" t="n">
-        <v>8.59</v>
-      </c>
-      <c r="D11" s="23" t="n">
-        <v>0.02999999999999947</v>
-      </c>
-      <c r="E11" s="24" t="n">
-        <v>0.9998319409412759</v>
-      </c>
-      <c r="F11" s="24" t="n">
-        <v>-3.787165886448562e-05</v>
-      </c>
-      <c r="G11" s="23" t="n">
-        <v>1.001226104230071</v>
-      </c>
-      <c r="H11" s="25" t="n">
-        <v>-1.007425676435858e-05</v>
-      </c>
-      <c r="I11" s="28" t="n">
+        <v>8.32</v>
+      </c>
+      <c r="D11" s="21" t="n">
+        <v>-0.03999999999999976</v>
+      </c>
+      <c r="E11" s="22" t="n">
+        <v>1.000151725079612</v>
+      </c>
+      <c r="F11" s="22" t="n">
+        <v>0.0001939923661986587</v>
+      </c>
+      <c r="G11" s="21" t="n">
+        <v>1.001122868673885</v>
+      </c>
+      <c r="H11" s="23" t="n">
+        <v>1.370765578423416e-05</v>
+      </c>
+      <c r="I11" s="26" t="n">
         <v>43832</v>
       </c>
-      <c r="J11" s="26" t="n">
-        <v>8791.139104901958</v>
+      <c r="J11" s="24" t="n">
+        <v>8814.12354636268</v>
       </c>
       <c r="K11" t="n">
         <v>500</v>
       </c>
       <c r="L11" t="n">
-        <v>0.08579043607325731</v>
-      </c>
-      <c r="R11" s="27" t="s">
+        <v>0.08310292320856738</v>
+      </c>
+      <c r="R11" s="25" t="s">
         <v>76</v>
       </c>
     </row>
@@ -5130,40 +5160,40 @@
       <c r="A12" s="8" t="n">
         <v>44013</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="28" t="s">
         <v>86</v>
       </c>
       <c r="C12" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="D12" s="23" t="n">
-        <v>0.03999999999999976</v>
-      </c>
-      <c r="E12" s="24" t="n">
-        <v>0.9997973998396303</v>
-      </c>
-      <c r="F12" s="24" t="n">
-        <v>-1.467421253953383e-05</v>
-      </c>
-      <c r="G12" s="23" t="n">
-        <v>1.001102311342175</v>
-      </c>
-      <c r="H12" s="25" t="n">
-        <v>-1.121586434127408e-05</v>
-      </c>
-      <c r="I12" s="28" t="n">
+        <v>8.66</v>
+      </c>
+      <c r="D12" s="21" t="n">
+        <v>-0.03999999999999976</v>
+      </c>
+      <c r="E12" s="22" t="n">
+        <v>0.999860395525104</v>
+      </c>
+      <c r="F12" s="22" t="n">
+        <v>-7.515963892923416e-05</v>
+      </c>
+      <c r="G12" s="21" t="n">
+        <v>1.001028505687444</v>
+      </c>
+      <c r="H12" s="23" t="n">
+        <v>1.104107309735092e-05</v>
+      </c>
+      <c r="I12" s="26" t="n">
         <v>44013</v>
       </c>
-      <c r="J12" s="26" t="n">
-        <v>10112.33837749387</v>
+      <c r="J12" s="24" t="n">
+        <v>10170.84429055103</v>
       </c>
       <c r="K12" t="n">
         <v>500</v>
       </c>
       <c r="L12" t="n">
-        <v>0.08939719002835522</v>
-      </c>
-      <c r="R12" s="27" t="s">
+        <v>0.08650729606639285</v>
+      </c>
+      <c r="R12" s="25" t="s">
         <v>76</v>
       </c>
     </row>
@@ -5171,40 +5201,40 @@
       <c r="A13" s="8" t="n">
         <v>44378</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="28" t="s">
         <v>87</v>
       </c>
       <c r="C13" t="n">
-        <v>9.4564</v>
-      </c>
-      <c r="D13" s="23" t="n">
-        <v>0.01990000000000047</v>
-      </c>
-      <c r="E13" s="24" t="n">
-        <v>0.6398123236986408</v>
-      </c>
-      <c r="F13" s="24" t="n">
-        <v>-0.01032805371059542</v>
-      </c>
-      <c r="G13" s="23" t="n">
-        <v>1.000614629868937</v>
-      </c>
-      <c r="H13" s="25" t="n">
-        <v>-1.399243509236925e-05</v>
-      </c>
-      <c r="I13" s="28" t="n">
+        <v>9.160500000000001</v>
+      </c>
+      <c r="D13" s="21" t="n">
+        <v>-0.04829999999999973</v>
+      </c>
+      <c r="E13" s="22" t="n">
+        <v>1.050129212865764</v>
+      </c>
+      <c r="F13" s="22" t="n">
+        <v>0.1699409739021329</v>
+      </c>
+      <c r="G13" s="21" t="n">
+        <v>1.000987467638955</v>
+      </c>
+      <c r="H13" s="23" t="n">
+        <v>0.0001877992989836041</v>
+      </c>
+      <c r="I13" s="26" t="n">
         <v>44378</v>
       </c>
-      <c r="J13" s="26" t="n">
-        <v>12308.84437002169</v>
+      <c r="J13" s="24" t="n">
+        <v>12434.91296011416</v>
       </c>
       <c r="K13" t="n">
         <v>500</v>
       </c>
       <c r="L13" t="n">
-        <v>0.09450326267762077</v>
-      </c>
-      <c r="R13" s="27" t="s">
+        <v>0.09151063456665098</v>
+      </c>
+      <c r="R13" s="25" t="s">
         <v>76</v>
       </c>
     </row>
@@ -5222,8 +5252,8 @@
   </sheetPr>
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -5262,10 +5292,10 @@
         <v>96</v>
       </c>
       <c r="C2" t="n">
-        <v>1898675</v>
+        <v>2211302</v>
       </c>
       <c r="E2" t="n">
-        <v>6148.422040922871</v>
+        <v>7915.990700492034</v>
       </c>
       <c r="F2" t="n">
         <v>5086.04817860171</v>
@@ -5274,7 +5304,7 @@
         <v>5191.96931242336</v>
       </c>
       <c r="H2" t="n">
-        <v>4856.107068302347</v>
+        <v>4883.425365264343</v>
       </c>
       <c r="I2" t="n">
         <v>4928.287555311905</v>
@@ -5285,16 +5315,16 @@
         <v>97</v>
       </c>
       <c r="B3" t="n">
-        <v>8.369999999999999</v>
+        <v>8.141999999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>380935</v>
+        <v>266325</v>
       </c>
       <c r="D3" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E3" t="n">
-        <v>88.27052913378635</v>
+        <v>50.39643017432024</v>
       </c>
       <c r="F3" t="n">
         <v>104.8748845376868</v>
@@ -5314,16 +5344,16 @@
         <v>98</v>
       </c>
       <c r="B4" t="n">
-        <v>8.19</v>
+        <v>8.07</v>
       </c>
       <c r="C4" t="n">
-        <v>23665</v>
+        <v>7260</v>
       </c>
       <c r="D4" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E4" t="n">
-        <v>11.18807957266514</v>
+        <v>3.158675769324221</v>
       </c>
       <c r="F4" t="n">
         <v>1.964883252610876</v>
@@ -5343,16 +5373,16 @@
         <v>99</v>
       </c>
       <c r="B5" t="n">
-        <v>7.95</v>
+        <v>7.835</v>
       </c>
       <c r="C5" t="n">
-        <v>12850</v>
+        <v>102270</v>
       </c>
       <c r="D5" t="n">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E5" t="n">
-        <v>9.007055076825079</v>
+        <v>68.30839091879243</v>
       </c>
       <c r="F5" t="n">
         <v>2.100666683468131</v>
@@ -5372,16 +5402,16 @@
         <v>66</v>
       </c>
       <c r="B6" t="n">
-        <v>7.79</v>
+        <v>7.66</v>
       </c>
       <c r="C6" t="n">
-        <v>420170</v>
+        <v>251850</v>
       </c>
       <c r="D6" t="n">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E6" t="n">
-        <v>389.4703747067159</v>
+        <v>226.3625306564499</v>
       </c>
       <c r="F6" t="n">
         <v>505.7848141641472</v>
@@ -5390,7 +5420,7 @@
         <v>428.3112500464898</v>
       </c>
       <c r="H6" t="n">
-        <v>380.0332644273999</v>
+        <v>377.4442510297766</v>
       </c>
       <c r="I6" t="n">
         <v>467.9650110110565</v>
@@ -5401,16 +5431,16 @@
         <v>100</v>
       </c>
       <c r="B7" t="n">
-        <v>7.68</v>
+        <v>7.527</v>
       </c>
       <c r="C7" t="n">
-        <v>2025</v>
+        <v>1330</v>
       </c>
       <c r="D7" t="n">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E7" t="n">
-        <v>2.374691158168524</v>
+        <v>1.529706275388546</v>
       </c>
       <c r="F7" t="n">
         <v>0.2332537531632742</v>
@@ -5419,7 +5449,7 @@
         <v>2.499232501093198</v>
       </c>
       <c r="H7" t="n">
-        <v>4.219715361703096</v>
+        <v>4.20630290324627</v>
       </c>
       <c r="I7" t="n">
         <v>2.091010925627987</v>
@@ -5430,16 +5460,16 @@
         <v>101</v>
       </c>
       <c r="B8" t="n">
-        <v>7.614</v>
+        <v>7.469</v>
       </c>
       <c r="C8" t="n">
-        <v>4065</v>
+        <v>1230</v>
       </c>
       <c r="D8" t="n">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E8" t="n">
-        <v>5.575573797724956</v>
+        <v>1.664577605367097</v>
       </c>
       <c r="F8" t="n">
         <v>1.462841335374022</v>
@@ -5448,7 +5478,7 @@
         <v>2.041652460863693</v>
       </c>
       <c r="H8" t="n">
-        <v>1.024077245080173</v>
+        <v>0.9619979404395718</v>
       </c>
       <c r="I8" t="n">
         <v>0.4677880368438565</v>
@@ -5459,16 +5489,16 @@
         <v>102</v>
       </c>
       <c r="B9" t="n">
-        <v>7.56</v>
+        <v>7.4</v>
       </c>
       <c r="C9" t="n">
-        <v>58220</v>
+        <v>84457</v>
       </c>
       <c r="D9" t="n">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E9" t="n">
-        <v>93.21574480792397</v>
+        <v>134.1382232582858</v>
       </c>
       <c r="F9" t="n">
         <v>47.32163781121359</v>
@@ -5488,16 +5518,16 @@
         <v>103</v>
       </c>
       <c r="B10" t="n">
-        <v>7.555</v>
+        <v>7.38</v>
       </c>
       <c r="C10" t="n">
-        <v>109320</v>
+        <v>145415</v>
       </c>
       <c r="D10" t="n">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E10" t="n">
-        <v>248.1453420142191</v>
+        <v>330.5501832955226</v>
       </c>
       <c r="F10" t="n">
         <v>157.7256968100318</v>
@@ -5517,16 +5547,16 @@
         <v>104</v>
       </c>
       <c r="B11" t="n">
-        <v>7.65</v>
+        <v>7.46</v>
       </c>
       <c r="C11" t="n">
-        <v>11955</v>
+        <v>31140</v>
       </c>
       <c r="D11" t="n">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E11" t="n">
-        <v>34.89222061249703</v>
+        <v>91.51230616304747</v>
       </c>
       <c r="F11" t="n">
         <v>12.29256872131019</v>
@@ -5546,16 +5576,16 @@
         <v>68</v>
       </c>
       <c r="B12" t="n">
-        <v>7.8</v>
+        <v>7.62</v>
       </c>
       <c r="C12" t="n">
-        <v>290415</v>
+        <v>701075</v>
       </c>
       <c r="D12" t="n">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="E12" t="n">
-        <v>1020.935460902979</v>
+        <v>2489.172121598707</v>
       </c>
       <c r="F12" t="n">
         <v>912.2071308307015</v>
@@ -5575,16 +5605,16 @@
         <v>105</v>
       </c>
       <c r="B13" t="n">
-        <v>7.97</v>
+        <v>7.75</v>
       </c>
       <c r="C13" t="n">
-        <v>4240</v>
+        <v>6580</v>
       </c>
       <c r="D13" t="n">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="E13" t="n">
-        <v>17.26467844655938</v>
+        <v>27.14867597007378</v>
       </c>
       <c r="F13" t="n">
         <v>60.69419523453431</v>
@@ -5604,16 +5634,16 @@
         <v>106</v>
       </c>
       <c r="B14" t="n">
-        <v>8.16</v>
+        <v>7.94</v>
       </c>
       <c r="C14" t="n">
-        <v>41870</v>
+        <v>16120</v>
       </c>
       <c r="D14" t="n">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="E14" t="n">
-        <v>192.8113239299007</v>
+        <v>75.36356950939434</v>
       </c>
       <c r="F14" t="n">
         <v>61.63571112920621</v>
@@ -5633,16 +5663,16 @@
         <v>107</v>
       </c>
       <c r="B15" t="n">
-        <v>8.390000000000001</v>
+        <v>8.15</v>
       </c>
       <c r="C15" t="n">
-        <v>11980</v>
+        <v>18950</v>
       </c>
       <c r="D15" t="n">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="E15" t="n">
-        <v>61.50146676199569</v>
+        <v>98.98734316532871</v>
       </c>
       <c r="F15" t="n">
         <v>3.684319203518196</v>
@@ -5662,16 +5692,16 @@
         <v>108</v>
       </c>
       <c r="B16" t="n">
-        <v>8.58</v>
+        <v>8.31</v>
       </c>
       <c r="C16" t="n">
-        <v>139645</v>
+        <v>217670</v>
       </c>
       <c r="D16" t="n">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="E16" t="n">
-        <v>784.2491743361004</v>
+        <v>1246.768847432263</v>
       </c>
       <c r="F16" t="n">
         <v>524.0706347352395</v>
@@ -5691,16 +5721,16 @@
         <v>109</v>
       </c>
       <c r="B17" t="n">
-        <v>8.755000000000001</v>
+        <v>8.48</v>
       </c>
       <c r="C17" t="n">
-        <v>1140</v>
+        <v>560</v>
       </c>
       <c r="D17" t="n">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="E17" t="n">
-        <v>6.900257825063585</v>
+        <v>3.462075268163916</v>
       </c>
       <c r="F17" t="n">
         <v>4.136283406663354</v>
@@ -5720,16 +5750,16 @@
         <v>110</v>
       </c>
       <c r="B18" t="n">
-        <v>8.94</v>
+        <v>8.65</v>
       </c>
       <c r="C18" t="n">
-        <v>44250</v>
+        <v>19075</v>
       </c>
       <c r="D18" t="n">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="E18" t="n">
-        <v>285.3833189777877</v>
+        <v>125.8633445156115</v>
       </c>
       <c r="F18" t="n">
         <v>218.9021266174602</v>
@@ -5749,16 +5779,16 @@
         <v>111</v>
       </c>
       <c r="B19" t="n">
-        <v>9.095000000000001</v>
+        <v>8.815</v>
       </c>
       <c r="C19" t="n">
-        <v>1525</v>
+        <v>600</v>
       </c>
       <c r="D19" t="n">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="E19" t="n">
-        <v>10.44436288595276</v>
+        <v>4.207566217577601</v>
       </c>
       <c r="F19" t="n">
         <v>0.5224525299891731</v>
@@ -5778,16 +5808,16 @@
         <v>69</v>
       </c>
       <c r="B20" t="n">
-        <v>9.210000000000001</v>
+        <v>8.91</v>
       </c>
       <c r="C20" t="n">
-        <v>171005</v>
+        <v>164795</v>
       </c>
       <c r="D20" t="n">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="E20" t="n">
-        <v>1233.858051541385</v>
+        <v>1219.726871369236</v>
       </c>
       <c r="F20" t="n">
         <v>1190.296562244001</v>
@@ -5807,16 +5837,16 @@
         <v>112</v>
       </c>
       <c r="B21" t="n">
-        <v>9.324999999999999</v>
+        <v>9.025</v>
       </c>
       <c r="C21" t="n">
-        <v>565</v>
+        <v>120</v>
       </c>
       <c r="D21" t="n">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="E21" t="n">
-        <v>4.261693319083611</v>
+        <v>0.9294160804200531</v>
       </c>
       <c r="F21" t="n">
         <v>0.1182697793451248</v>
@@ -5836,16 +5866,16 @@
         <v>113</v>
       </c>
       <c r="B22" t="n">
-        <v>9.449999999999999</v>
+        <v>9.15</v>
       </c>
       <c r="C22" t="n">
-        <v>22930</v>
+        <v>30150</v>
       </c>
       <c r="D22" t="n">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="E22" t="n">
-        <v>179.9227778414783</v>
+        <v>243.1563291541003</v>
       </c>
       <c r="F22" t="n">
         <v>8.570461171192701</v>
@@ -5865,16 +5895,16 @@
         <v>114</v>
       </c>
       <c r="B23" t="n">
-        <v>9.550000000000001</v>
+        <v>9.23</v>
       </c>
       <c r="C23" t="n">
-        <v>45</v>
+        <v>175</v>
       </c>
       <c r="D23" t="n">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="E23" t="n">
-        <v>0.366676322595001</v>
+        <v>1.468417505997387</v>
       </c>
       <c r="F23" t="n">
         <v>0.09292795156538433</v>
@@ -5894,16 +5924,16 @@
         <v>115</v>
       </c>
       <c r="B24" t="n">
-        <v>9.609999999999999</v>
+        <v>9.32</v>
       </c>
       <c r="C24" t="n">
-        <v>4400</v>
+        <v>12675</v>
       </c>
       <c r="D24" t="n">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="E24" t="n">
-        <v>37.09467281821502</v>
+        <v>109.9850319070107</v>
       </c>
       <c r="F24" t="n">
         <v>45.51313681076557</v>
@@ -5923,16 +5953,16 @@
         <v>116</v>
       </c>
       <c r="B25" t="n">
-        <v>9.744999999999999</v>
+        <v>9.425000000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>180</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
-        <v>1210</v>
+        <v>1206</v>
       </c>
       <c r="E25" t="n">
-        <v>1.604636912875215</v>
+        <v>0.04602785639571307</v>
       </c>
       <c r="F25" t="n">
         <v>0.09194657402897673</v>
@@ -5952,16 +5982,16 @@
         <v>70</v>
       </c>
       <c r="B26" t="n">
-        <v>9.84</v>
+        <v>9.52</v>
       </c>
       <c r="C26" t="n">
-        <v>52185</v>
+        <v>63715</v>
       </c>
       <c r="D26" t="n">
-        <v>1337</v>
+        <v>1333</v>
       </c>
       <c r="E26" t="n">
-        <v>487.8360193058793</v>
+        <v>616.1569073938452</v>
       </c>
       <c r="F26" t="n">
         <v>460.9194217210015</v>
@@ -5981,13 +6011,13 @@
         <v>117</v>
       </c>
       <c r="B27" t="n">
-        <v>9.922000000000001</v>
+        <v>9.589</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>1461</v>
+        <v>1457</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -6010,16 +6040,16 @@
         <v>118</v>
       </c>
       <c r="B28" t="n">
-        <v>10.026</v>
+        <v>9.68</v>
       </c>
       <c r="C28" t="n">
-        <v>45</v>
+        <v>475</v>
       </c>
       <c r="D28" t="n">
-        <v>1586</v>
+        <v>1582</v>
       </c>
       <c r="E28" t="n">
-        <v>0.4492393780741463</v>
+        <v>4.930399915243862</v>
       </c>
       <c r="F28" t="n">
         <v>6.809917289472142</v>
@@ -6039,13 +6069,13 @@
         <v>119</v>
       </c>
       <c r="B29" t="n">
-        <v>10.09</v>
+        <v>9.742000000000001</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>1710</v>
+        <v>1706</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -6068,16 +6098,16 @@
         <v>71</v>
       </c>
       <c r="B30" t="n">
-        <v>10.17</v>
+        <v>9.82</v>
       </c>
       <c r="C30" t="n">
-        <v>42760</v>
+        <v>41340</v>
       </c>
       <c r="D30" t="n">
-        <v>1840</v>
+        <v>1836</v>
       </c>
       <c r="E30" t="n">
-        <v>444.9154514639586</v>
+        <v>448.9407608444234</v>
       </c>
       <c r="F30" t="n">
         <v>315.8853773332613</v>
@@ -6097,16 +6127,16 @@
         <v>120</v>
       </c>
       <c r="B31" t="n">
-        <v>10.255</v>
+        <v>9.914999999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>1920</v>
+        <v>1460</v>
       </c>
       <c r="D31" t="n">
-        <v>2093</v>
+        <v>2089</v>
       </c>
       <c r="E31" t="n">
-        <v>20.47129554343645</v>
+        <v>16.28942729039825</v>
       </c>
       <c r="F31" t="n">
         <v>0.7853746341039872</v>
@@ -6126,16 +6156,16 @@
         <v>72</v>
       </c>
       <c r="B32" t="n">
-        <v>10.36</v>
+        <v>10.02</v>
       </c>
       <c r="C32" t="n">
-        <v>44370</v>
+        <v>24170</v>
       </c>
       <c r="D32" t="n">
-        <v>2343</v>
+        <v>2339</v>
       </c>
       <c r="E32" t="n">
-        <v>476.0118715290259</v>
+        <v>272.2241757873098</v>
       </c>
       <c r="F32" t="n">
         <v>263.4994746808906</v>
@@ -6155,13 +6185,13 @@
         <v>121</v>
       </c>
       <c r="B33" t="n">
-        <v>10.396</v>
+        <v>10.056</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>2594</v>
+        <v>2590</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -6184,16 +6214,16 @@
         <v>122</v>
       </c>
       <c r="B34" t="n">
-        <v>10.412</v>
+        <v>10.072</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>315</v>
       </c>
       <c r="D34" t="n">
-        <v>2843</v>
+        <v>2839</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>3.542367594033517</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -6213,13 +6243,13 @@
         <v>123</v>
       </c>
       <c r="B35" t="n">
-        <v>10.45</v>
+        <v>10.11</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>3093</v>
+        <v>3089</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -6288,28 +6318,28 @@
         <v>132</v>
       </c>
       <c r="B2" t="n">
-        <v>6042192</v>
+        <v>5814632</v>
       </c>
       <c r="C2" t="n">
-        <v>27.36</v>
+        <v>26.23</v>
       </c>
       <c r="D2" t="n">
-        <v>37680</v>
+        <v>-325845</v>
       </c>
       <c r="E2" t="n">
-        <v>6772132</v>
+        <v>6900828</v>
       </c>
       <c r="F2" t="n">
-        <v>30.67</v>
+        <v>31.14</v>
       </c>
       <c r="G2" t="n">
-        <v>-173967</v>
+        <v>111941</v>
       </c>
       <c r="H2" t="n">
-        <v>-729940</v>
+        <v>-1086196</v>
       </c>
       <c r="I2" t="n">
-        <v>211647</v>
+        <v>-437786</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -6317,28 +6347,28 @@
         <v>133</v>
       </c>
       <c r="B3" t="n">
-        <v>6031482</v>
+        <v>5803922</v>
       </c>
       <c r="C3" t="n">
-        <v>27.31</v>
+        <v>26.19</v>
       </c>
       <c r="D3" t="n">
-        <v>40190</v>
+        <v>-325845</v>
       </c>
       <c r="E3" t="n">
-        <v>6597317</v>
+        <v>6726378</v>
       </c>
       <c r="F3" t="n">
-        <v>29.87</v>
+        <v>30.35</v>
       </c>
       <c r="G3" t="n">
-        <v>-173312</v>
+        <v>111446</v>
       </c>
       <c r="H3" t="n">
-        <v>-565835</v>
+        <v>-922456</v>
       </c>
       <c r="I3" t="n">
-        <v>213502</v>
+        <v>-437291</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -6361,13 +6391,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>-1920</v>
       </c>
       <c r="I4" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -6381,22 +6411,22 @@
         <v>0.04</v>
       </c>
       <c r="D5" t="n">
-        <v>-2510</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>172895</v>
+        <v>172530</v>
       </c>
       <c r="F5" t="n">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="G5" t="n">
-        <v>-455</v>
+        <v>495</v>
       </c>
       <c r="H5" t="n">
-        <v>-162185</v>
+        <v>-161820</v>
       </c>
       <c r="I5" t="n">
-        <v>-2055</v>
+        <v>-495</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -6404,28 +6434,28 @@
         <v>136</v>
       </c>
       <c r="B6" t="n">
-        <v>11794876</v>
+        <v>11927549</v>
       </c>
       <c r="C6" t="n">
-        <v>53.41</v>
+        <v>53.82</v>
       </c>
       <c r="D6" t="n">
-        <v>-343275</v>
+        <v>185372</v>
       </c>
       <c r="E6" t="n">
-        <v>10573664</v>
+        <v>10468690</v>
       </c>
       <c r="F6" t="n">
-        <v>47.88</v>
+        <v>47.24</v>
       </c>
       <c r="G6" t="n">
-        <v>-45071</v>
+        <v>-168498</v>
       </c>
       <c r="H6" t="n">
-        <v>1221212</v>
+        <v>1458859</v>
       </c>
       <c r="I6" t="n">
-        <v>-298204</v>
+        <v>353870</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -6433,28 +6463,28 @@
         <v>137</v>
       </c>
       <c r="B7" t="n">
-        <v>11794876</v>
+        <v>11927549</v>
       </c>
       <c r="C7" t="n">
-        <v>53.41</v>
+        <v>53.82</v>
       </c>
       <c r="D7" t="n">
-        <v>-343275</v>
+        <v>185372</v>
       </c>
       <c r="E7" t="n">
-        <v>10573664</v>
+        <v>10468690</v>
       </c>
       <c r="F7" t="n">
-        <v>47.88</v>
+        <v>47.24</v>
       </c>
       <c r="G7" t="n">
-        <v>-45071</v>
+        <v>-168498</v>
       </c>
       <c r="H7" t="n">
-        <v>1221212</v>
+        <v>1458859</v>
       </c>
       <c r="I7" t="n">
-        <v>-298204</v>
+        <v>353870</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -6462,28 +6492,28 @@
         <v>138</v>
       </c>
       <c r="B8" t="n">
-        <v>4203823</v>
+        <v>4372051</v>
       </c>
       <c r="C8" t="n">
-        <v>19.03</v>
+        <v>19.72</v>
       </c>
       <c r="D8" t="n">
-        <v>3186</v>
+        <v>149006</v>
       </c>
       <c r="E8" t="n">
-        <v>4711054</v>
+        <v>4763359</v>
       </c>
       <c r="F8" t="n">
-        <v>21.33</v>
+        <v>21.49</v>
       </c>
       <c r="G8" t="n">
-        <v>-81983</v>
+        <v>64929</v>
       </c>
       <c r="H8" t="n">
-        <v>-507231</v>
+        <v>-391308</v>
       </c>
       <c r="I8" t="n">
-        <v>85169</v>
+        <v>84077</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -6491,28 +6521,28 @@
         <v>139</v>
       </c>
       <c r="B9" t="n">
-        <v>20033</v>
+        <v>25626</v>
       </c>
       <c r="C9" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="D9" t="n">
+        <v>573</v>
+      </c>
+      <c r="E9" t="n">
+        <v>20951</v>
+      </c>
+      <c r="F9" t="n">
         <v>0.09</v>
       </c>
-      <c r="D9" t="n">
-        <v>1145</v>
-      </c>
-      <c r="E9" t="n">
-        <v>18449</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.08</v>
-      </c>
       <c r="G9" t="n">
-        <v>-518</v>
+        <v>-66</v>
       </c>
       <c r="H9" t="n">
-        <v>1584</v>
+        <v>4675</v>
       </c>
       <c r="I9" t="n">
-        <v>1663</v>
+        <v>639</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -6520,28 +6550,28 @@
         <v>140</v>
       </c>
       <c r="B10" t="n">
-        <v>19025</v>
+        <v>20500</v>
       </c>
       <c r="C10" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="D10" t="n">
-        <v>-85</v>
+        <v>1275</v>
       </c>
       <c r="E10" t="n">
-        <v>4650</v>
+        <v>6530</v>
       </c>
       <c r="F10" t="n">
         <v>0.02</v>
       </c>
       <c r="G10" t="n">
-        <v>190</v>
+        <v>2075</v>
       </c>
       <c r="H10" t="n">
-        <v>14375</v>
+        <v>13970</v>
       </c>
       <c r="I10" t="n">
-        <v>-275</v>
+        <v>-800</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -6549,22 +6579,22 @@
         <v>141</v>
       </c>
       <c r="B11" t="n">
-        <v>22079949</v>
+        <v>22160358</v>
       </c>
       <c r="C11" t="n">
         <v>100</v>
       </c>
       <c r="D11" t="n">
-        <v>-301349</v>
+        <v>10381</v>
       </c>
       <c r="E11" t="n">
-        <v>22079949</v>
+        <v>22160358</v>
       </c>
       <c r="F11" t="n">
         <v>100</v>
       </c>
       <c r="G11" t="n">
-        <v>-301349</v>
+        <v>10381</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -6584,15 +6614,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="5" min="5" style="35" width="10.140625"/>
+    <col customWidth="1" max="5" min="5" style="33" width="10.140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -6616,8 +6646,8 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="22" t="n">
-        <v>0.4583333333333333</v>
+      <c r="A2" s="35" t="n">
+        <v>0.3333333333333333</v>
       </c>
       <c r="B2" t="s">
         <v>148</v>
@@ -6625,60 +6655,77 @@
       <c r="C2" t="s">
         <v>149</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="35" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="22" t="n"/>
-      <c r="D3" s="22" t="n"/>
-      <c r="E3" s="33" t="n"/>
-      <c r="F3" s="22" t="n"/>
+      <c r="A3" s="35" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="B3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="22" t="n"/>
-      <c r="D4" s="22" t="n"/>
-      <c r="E4" s="34" t="n"/>
-      <c r="F4" s="22" t="n"/>
+      <c r="A4" s="35" t="n"/>
+      <c r="D4" s="35" t="n"/>
+      <c r="E4" s="32" t="n"/>
+      <c r="F4" s="35" t="n"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="22" t="n"/>
-      <c r="D5" s="22" t="n"/>
-      <c r="E5" s="33" t="n"/>
-      <c r="F5" s="22" t="n"/>
+      <c r="A5" s="35" t="n"/>
+      <c r="D5" s="35" t="n"/>
+      <c r="E5" s="32" t="n"/>
+      <c r="F5" s="35" t="n"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="22" t="n"/>
-      <c r="D6" s="22" t="n"/>
-      <c r="E6" s="32" t="n"/>
-      <c r="F6" s="22" t="n"/>
+      <c r="A6" s="35" t="n"/>
+      <c r="D6" s="35" t="n"/>
+      <c r="E6" s="31" t="n"/>
+      <c r="F6" s="35" t="n"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="22" t="n"/>
-      <c r="D7" s="22" t="n"/>
-      <c r="E7" s="32" t="n"/>
-      <c r="F7" s="22" t="n"/>
+      <c r="A7" s="35" t="n"/>
+      <c r="D7" s="35" t="n"/>
+      <c r="E7" s="31" t="n"/>
+      <c r="F7" s="35" t="n"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="22" t="n"/>
-      <c r="D8" s="22" t="n"/>
-      <c r="E8" s="32" t="n"/>
-      <c r="F8" s="22" t="n"/>
+      <c r="A8" s="35" t="n"/>
+      <c r="D8" s="35" t="n"/>
+      <c r="E8" s="30" t="n"/>
+      <c r="F8" s="35" t="n"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="19" t="n"/>
-      <c r="D9" s="19" t="n"/>
-      <c r="E9" s="23" t="n"/>
-      <c r="F9" s="22" t="n"/>
+      <c r="A9" s="35" t="n"/>
+      <c r="D9" s="35" t="n"/>
+      <c r="E9" s="30" t="n"/>
+      <c r="F9" s="35" t="n"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="19" t="n"/>
+      <c r="D10" s="19" t="n"/>
+      <c r="E10" s="21" t="n"/>
+      <c r="F10" s="35" t="n"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="19" t="n"/>
@@ -6691,6 +6738,9 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="19" t="n"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="19" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/data/indicators_input.xlsx
+++ b/data/indicators_input.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="EstaPasta_de_trabalho"/>
   <bookViews>
-    <workbookView activeTab="8"/>
+    <workbookView activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="indicators" sheetId="1" state="visible" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="173">
   <si>
     <t>Index</t>
   </si>
@@ -314,7 +314,7 @@
     <t>DV01 -  126 Bus. Days Average</t>
   </si>
   <si>
-    <t>Markeit</t>
+    <t>Market</t>
   </si>
   <si>
     <t>V17</t>
@@ -473,25 +473,40 @@
     <t>BZ</t>
   </si>
   <si>
-    <t>IGP-M 1F @ 0,345</t>
-  </si>
-  <si>
-    <t>August</t>
-  </si>
-  <si>
-    <t>0,34% mom</t>
+    <t>Services Volume</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>-1,9% YoY</t>
   </si>
   <si>
     <t>Medium</t>
   </si>
   <si>
-    <t>IPC-S @ 0,10%</t>
-  </si>
-  <si>
-    <t>1W Sep</t>
-  </si>
-  <si>
-    <t>0,10% mom</t>
+    <t>US</t>
+  </si>
+  <si>
+    <t>PPI Final Demand</t>
+  </si>
+  <si>
+    <t>Aug</t>
+  </si>
+  <si>
+    <t>0,3% mom</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Monthly Budget</t>
+  </si>
+  <si>
+    <t>USD 119 b</t>
+  </si>
+  <si>
+    <t>Low</t>
   </si>
   <si>
     <t>Contract</t>
@@ -1058,7 +1073,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -1079,10 +1094,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="21" t="n">
-        <v>181.685</v>
+        <v>183.836</v>
       </c>
       <c r="C2" s="27" t="n">
-        <v>0.2079999999999984</v>
+        <v>0.4980000000000189</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1090,10 +1105,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="21" t="n">
-        <v>12437.87</v>
+        <v>12532.54</v>
       </c>
       <c r="C3" s="27" t="n">
-        <v>1.088184473641873</v>
+        <v>0.06203706734735359</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1101,10 +1116,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="21" t="n">
-        <v>2.0913861</v>
+        <v>2.1593438</v>
       </c>
       <c r="C4" s="27" t="n">
-        <v>0.03938609999999976</v>
+        <v>-0.008656200000000336</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1112,10 +1127,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="21" t="n">
-        <v>2474</v>
+        <v>2491.9</v>
       </c>
       <c r="C5" s="27" t="n">
-        <v>0.5282405526208844</v>
+        <v>-0.09221393633227493</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1123,10 +1138,10 @@
         <v>7</v>
       </c>
       <c r="B6" s="21" t="n">
-        <v>1.201</v>
+        <v>1.1976</v>
       </c>
       <c r="C6" s="27" t="n">
-        <v>-0.2160186108341566</v>
+        <v>0.07520681875154978</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1134,10 +1149,10 @@
         <v>8</v>
       </c>
       <c r="B7" s="21" t="n">
-        <v>17.6809</v>
+        <v>17.778</v>
       </c>
       <c r="C7" s="27" t="n">
-        <v>-0.1722054721817634</v>
+        <v>0.2831710646555186</v>
       </c>
       <c r="H7" s="29" t="n"/>
     </row>
@@ -1146,10 +1161,10 @@
         <v>9</v>
       </c>
       <c r="B8" s="21" t="n">
-        <v>47.79</v>
+        <v>48.59</v>
       </c>
       <c r="C8" s="27" t="n">
-        <v>0.6529064869418733</v>
+        <v>0.7464233879328264</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1157,10 +1172,10 @@
         <v>10</v>
       </c>
       <c r="B9" s="21" t="n">
-        <v>530</v>
+        <v>541.5</v>
       </c>
       <c r="C9" s="27" t="n">
-        <v>-2.84142988084326</v>
+        <v>1.026119402985071</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1168,10 +1183,10 @@
         <v>11</v>
       </c>
       <c r="B10" s="21" t="n">
-        <v>963.75</v>
+        <v>955</v>
       </c>
       <c r="C10" s="27" t="n">
-        <v>0.1819126819126771</v>
+        <v>0.4734350341925264</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1179,10 +1194,10 @@
         <v>12</v>
       </c>
       <c r="B11" s="21" t="n">
-        <v>11.13</v>
+        <v>10.76</v>
       </c>
       <c r="C11" s="27" t="n">
-        <v>-0.9899999999999984</v>
+        <v>0.1799999999999997</v>
       </c>
     </row>
   </sheetData>
@@ -1199,7 +1214,7 @@
   <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -1212,19 +1227,19 @@
   <sheetData>
     <row customHeight="1" ht="15.75" r="1" s="33" spans="1:5" thickBot="1">
       <c r="A1" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B1" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C1" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D1" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="E1" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="2" s="33" spans="1:5" thickBot="1">
@@ -1232,16 +1247,16 @@
         <v>97</v>
       </c>
       <c r="B2" s="17" t="n">
-        <v>3283045</v>
+        <v>3187750</v>
       </c>
       <c r="C2" s="15" t="n">
-        <v>3174343</v>
+        <v>3033043</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>-108702</v>
+        <v>-154707</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>26500470.208</v>
+        <v>20209435.036</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="3" s="33" spans="1:5" thickBot="1">
@@ -1249,16 +1264,16 @@
         <v>98</v>
       </c>
       <c r="B3" s="17" t="n">
-        <v>300720</v>
+        <v>314755</v>
       </c>
       <c r="C3" s="15" t="n">
-        <v>307775</v>
+        <v>313285</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>7055</v>
+        <v>-1470</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>717775.2929999999</v>
+        <v>1611546.011</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="4" s="33" spans="1:5" thickBot="1">
@@ -1266,16 +1281,16 @@
         <v>99</v>
       </c>
       <c r="B4" s="17" t="n">
-        <v>263655</v>
+        <v>281270</v>
       </c>
       <c r="C4" s="15" t="n">
-        <v>281130</v>
+        <v>302345</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>17475</v>
+        <v>21075</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>10054122.084</v>
+        <v>3337178.704</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="5" s="33" spans="1:5" thickBot="1">
@@ -1283,16 +1298,16 @@
         <v>66</v>
       </c>
       <c r="B5" s="17" t="n">
-        <v>4213295</v>
+        <v>4252228</v>
       </c>
       <c r="C5" s="15" t="n">
-        <v>4221431</v>
+        <v>4264626</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>8136</v>
+        <v>12398</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>24623767.295</v>
+        <v>32519224.907</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="6" s="33" spans="1:5" thickBot="1">
@@ -1300,16 +1315,16 @@
         <v>100</v>
       </c>
       <c r="B6" s="17" t="n">
-        <v>75650</v>
+        <v>75660</v>
       </c>
       <c r="C6" s="15" t="n">
-        <v>75655</v>
+        <v>75670</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>129265.17</v>
+        <v>972.546</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="7" s="33" spans="1:5" thickBot="1">
@@ -1317,16 +1332,16 @@
         <v>101</v>
       </c>
       <c r="B7" s="17" t="n">
-        <v>63750</v>
+        <v>64670</v>
       </c>
       <c r="C7" s="15" t="n">
-        <v>63765</v>
+        <v>66220</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>15</v>
+        <v>1550</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>118954.882</v>
+        <v>174181.553</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="8" s="33" spans="1:5" thickBot="1">
@@ -1334,38 +1349,38 @@
         <v>102</v>
       </c>
       <c r="B8" s="17" t="n">
-        <v>1245752</v>
+        <v>1348028</v>
       </c>
       <c r="C8" s="15" t="n">
-        <v>1276173</v>
+        <v>1437833</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>30421</v>
+        <v>89805</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>8122139.062</v>
+        <v>12799866.853</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="9" s="33" spans="1:5" thickBot="1">
       <c r="A9" s="14" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B9" s="17" t="n">
-        <v>26330</v>
+        <v>27105</v>
       </c>
       <c r="C9" s="15" t="n">
-        <v>26330</v>
+        <v>27105</v>
       </c>
       <c r="D9" s="3" t="n">
         <v>0</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>2389.889</v>
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="10" s="33" spans="1:5" thickBot="1">
       <c r="A10" s="14" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B10" s="17" t="n">
         <v>36370</v>
@@ -1377,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>57982.836</v>
+        <v>38521.04</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="11" s="33" spans="1:5" thickBot="1">
@@ -1385,38 +1400,38 @@
         <v>103</v>
       </c>
       <c r="B11" s="17" t="n">
-        <v>1478483</v>
+        <v>1502168</v>
       </c>
       <c r="C11" s="15" t="n">
-        <v>1469898</v>
+        <v>1514429</v>
       </c>
       <c r="D11" s="3" t="n">
-        <v>-8585</v>
+        <v>12261</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>13739003.941</v>
+        <v>10267097.326</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="12" s="33" spans="1:5" thickBot="1">
       <c r="A12" s="14" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B12" s="17" t="n">
         <v>5485</v>
       </c>
       <c r="C12" s="15" t="n">
-        <v>5485</v>
+        <v>9255</v>
       </c>
       <c r="D12" s="3" t="n">
-        <v>0</v>
+        <v>3770</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>0</v>
+        <v>452315.514</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="13" s="33" spans="1:5" thickBot="1">
       <c r="A13" s="14" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B13" s="17" t="n">
         <v>4350</v>
@@ -1428,7 +1443,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>0</v>
+        <v>342395.953</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="14" s="33" spans="1:5" thickBot="1">
@@ -1436,16 +1451,16 @@
         <v>104</v>
       </c>
       <c r="B14" s="17" t="n">
-        <v>635697</v>
+        <v>642940</v>
       </c>
       <c r="C14" s="15" t="n">
-        <v>641006</v>
+        <v>638885</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>5309</v>
+        <v>-4055</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>2887557.871</v>
+        <v>1659863.432</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="15" s="33" spans="1:5" thickBot="1">
@@ -1453,16 +1468,16 @@
         <v>68</v>
       </c>
       <c r="B15" s="17" t="n">
-        <v>2322802</v>
+        <v>2147437</v>
       </c>
       <c r="C15" s="15" t="n">
-        <v>2122813</v>
+        <v>2109415</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>-199989</v>
+        <v>-38022</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>63759415.995</v>
+        <v>38376315.35</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="16" s="33" spans="1:5" thickBot="1">
@@ -1470,16 +1485,16 @@
         <v>105</v>
       </c>
       <c r="B16" s="17" t="n">
-        <v>567915</v>
+        <v>576701</v>
       </c>
       <c r="C16" s="15" t="n">
-        <v>568096</v>
+        <v>578975</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>181</v>
+        <v>2274</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>586644.303</v>
+        <v>691925.173</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="17" s="33" spans="1:5" thickBot="1">
@@ -1487,16 +1502,16 @@
         <v>106</v>
       </c>
       <c r="B17" s="17" t="n">
-        <v>578021</v>
+        <v>589021</v>
       </c>
       <c r="C17" s="15" t="n">
-        <v>576951</v>
+        <v>591806</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>-1070</v>
+        <v>2785</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>1406955.5</v>
+        <v>1732793.194</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="18" s="33" spans="1:5" thickBot="1">
@@ -1504,16 +1519,16 @@
         <v>107</v>
       </c>
       <c r="B18" s="17" t="n">
-        <v>260090</v>
+        <v>268734</v>
       </c>
       <c r="C18" s="15" t="n">
-        <v>266755</v>
+        <v>277224</v>
       </c>
       <c r="D18" s="3" t="n">
-        <v>6665</v>
+        <v>8490</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>1614306.312</v>
+        <v>1068127.179</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="19" s="33" spans="1:5" thickBot="1">
@@ -1521,16 +1536,16 @@
         <v>108</v>
       </c>
       <c r="B19" s="17" t="n">
-        <v>1640716</v>
+        <v>1756082</v>
       </c>
       <c r="C19" s="15" t="n">
-        <v>1724560</v>
+        <v>1714233</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>83844</v>
+        <v>-41849</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>18120066.744</v>
+        <v>16352948.381</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="20" s="33" spans="1:5" thickBot="1">
@@ -1538,16 +1553,16 @@
         <v>109</v>
       </c>
       <c r="B20" s="17" t="n">
-        <v>73894</v>
+        <v>74099</v>
       </c>
       <c r="C20" s="15" t="n">
-        <v>74059</v>
+        <v>74149</v>
       </c>
       <c r="D20" s="3" t="n">
-        <v>165</v>
+        <v>50</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>45518.782</v>
+        <v>28397.152</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="21" s="33" spans="1:5" thickBot="1">
@@ -1555,16 +1570,16 @@
         <v>110</v>
       </c>
       <c r="B21" s="17" t="n">
-        <v>1320914</v>
+        <v>1326281</v>
       </c>
       <c r="C21" s="15" t="n">
-        <v>1322156</v>
+        <v>1323902</v>
       </c>
       <c r="D21" s="3" t="n">
-        <v>1242</v>
+        <v>-2379</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>1514029.217</v>
+        <v>2031882.095</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="22" s="33" spans="1:5" thickBot="1">
@@ -1572,16 +1587,16 @@
         <v>111</v>
       </c>
       <c r="B22" s="17" t="n">
-        <v>49642</v>
+        <v>50260</v>
       </c>
       <c r="C22" s="15" t="n">
-        <v>50182</v>
+        <v>49575</v>
       </c>
       <c r="D22" s="3" t="n">
-        <v>540</v>
+        <v>-685</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>46434.494</v>
+        <v>213767.181</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="23" s="33" spans="1:5" thickBot="1">
@@ -1589,16 +1604,16 @@
         <v>69</v>
       </c>
       <c r="B23" s="17" t="n">
-        <v>1459181</v>
+        <v>1454093</v>
       </c>
       <c r="C23" s="15" t="n">
-        <v>1462307</v>
+        <v>1473293</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>3126</v>
+        <v>19200</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>12443911.026</v>
+        <v>16463789.933</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="24" s="33" spans="1:5" thickBot="1">
@@ -1606,16 +1621,16 @@
         <v>112</v>
       </c>
       <c r="B24" s="17" t="n">
-        <v>33895</v>
+        <v>33905</v>
       </c>
       <c r="C24" s="15" t="n">
-        <v>33865</v>
+        <v>34070</v>
       </c>
       <c r="D24" s="3" t="n">
-        <v>-30</v>
+        <v>165</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>8843.678</v>
+        <v>34510.145</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="25" s="33" spans="1:5" thickBot="1">
@@ -1623,16 +1638,16 @@
         <v>113</v>
       </c>
       <c r="B25" s="17" t="n">
-        <v>247984</v>
+        <v>262316</v>
       </c>
       <c r="C25" s="15" t="n">
-        <v>259768</v>
+        <v>263670</v>
       </c>
       <c r="D25" s="3" t="n">
-        <v>11784</v>
+        <v>1354</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>2165597.257</v>
+        <v>2341516.442</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="26" s="33" spans="1:5" thickBot="1">
@@ -1640,16 +1655,16 @@
         <v>114</v>
       </c>
       <c r="B26" s="17" t="n">
-        <v>17057</v>
+        <v>17112</v>
       </c>
       <c r="C26" s="15" t="n">
-        <v>17092</v>
+        <v>17152</v>
       </c>
       <c r="D26" s="3" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>12249.958</v>
+        <v>10110.891</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="27" s="33" spans="1:5" thickBot="1">
@@ -1657,21 +1672,21 @@
         <v>115</v>
       </c>
       <c r="B27" s="17" t="n">
-        <v>109549</v>
+        <v>112619</v>
       </c>
       <c r="C27" s="15" t="n">
-        <v>111379</v>
+        <v>111259</v>
       </c>
       <c r="D27" s="3" t="n">
-        <v>1830</v>
+        <v>-1360</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>865518.6580000001</v>
+        <v>546872.081</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="28" s="33" spans="1:5" thickBot="1">
       <c r="A28" s="14" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B28" s="17" t="n">
         <v>1590</v>
@@ -1691,16 +1706,16 @@
         <v>116</v>
       </c>
       <c r="B29" s="17" t="n">
-        <v>11995</v>
+        <v>12000</v>
       </c>
       <c r="C29" s="15" t="n">
-        <v>12000</v>
+        <v>12005</v>
       </c>
       <c r="D29" s="3" t="n">
         <v>5</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>324.843</v>
+        <v>21666.346</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="30" s="33" spans="1:5" thickBot="1">
@@ -1708,16 +1723,16 @@
         <v>70</v>
       </c>
       <c r="B30" s="17" t="n">
-        <v>761521</v>
+        <v>767716</v>
       </c>
       <c r="C30" s="15" t="n">
-        <v>762546</v>
+        <v>769691</v>
       </c>
       <c r="D30" s="3" t="n">
-        <v>1025</v>
+        <v>1975</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>3941801.081</v>
+        <v>3354057.687</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="31" s="33" spans="1:5" thickBot="1">
@@ -1742,16 +1757,16 @@
         <v>118</v>
       </c>
       <c r="B32" s="17" t="n">
-        <v>57015</v>
+        <v>56990</v>
       </c>
       <c r="C32" s="15" t="n">
-        <v>56990</v>
+        <v>56860</v>
       </c>
       <c r="D32" s="3" t="n">
-        <v>-25</v>
+        <v>-130</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>26613.342</v>
+        <v>8618.853999999999</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="33" s="33" spans="1:5" thickBot="1">
@@ -1776,16 +1791,16 @@
         <v>71</v>
       </c>
       <c r="B34" s="17" t="n">
-        <v>525545</v>
+        <v>520495</v>
       </c>
       <c r="C34" s="15" t="n">
-        <v>524796</v>
+        <v>505384</v>
       </c>
       <c r="D34" s="3" t="n">
-        <v>-749</v>
+        <v>-15111</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>2091885.214</v>
+        <v>2596384.424</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="35" s="33" spans="1:5" thickBot="1">
@@ -1793,16 +1808,16 @@
         <v>120</v>
       </c>
       <c r="B35" s="17" t="n">
-        <v>62683</v>
+        <v>62593</v>
       </c>
       <c r="C35" s="15" t="n">
-        <v>62683</v>
+        <v>62593</v>
       </c>
       <c r="D35" s="3" t="n">
         <v>0</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>66722.49800000001</v>
+        <v>6329.407</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="36" s="33" spans="1:5" thickBot="1">
@@ -1810,16 +1825,16 @@
         <v>72</v>
       </c>
       <c r="B36" s="18" t="n">
-        <v>412545</v>
+        <v>414363</v>
       </c>
       <c r="C36" s="16" t="n">
-        <v>414113</v>
+        <v>413706</v>
       </c>
       <c r="D36" s="3" t="n">
-        <v>1568</v>
+        <v>-657</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>996471.106</v>
+        <v>758345.597</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="37" s="33" spans="1:5" thickBot="1">
@@ -1902,10 +1917,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B1" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -2164,7 +2179,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="11">
-        <f>_xll.BDH(E3,B1,$F4,"","cols=2;rows=191")</f>
+        <f>_xll.BDH(E3,B1,$F4,"","cols=2;rows=195")</f>
         <v/>
       </c>
       <c r="B2" t="n">
@@ -3701,16 +3716,36 @@
       </c>
     </row>
     <row r="193" spans="1:6">
-      <c r="A193" s="20" t="n"/>
+      <c r="A193" s="20" t="n">
+        <v>42984</v>
+      </c>
+      <c r="B193" t="n">
+        <v>8.949999999999999</v>
+      </c>
     </row>
     <row r="194" spans="1:6">
-      <c r="A194" s="20" t="n"/>
+      <c r="A194" s="20" t="n">
+        <v>42986</v>
+      </c>
+      <c r="B194" t="n">
+        <v>8.91</v>
+      </c>
     </row>
     <row r="195" spans="1:6">
-      <c r="A195" s="20" t="n"/>
+      <c r="A195" s="20" t="n">
+        <v>42989</v>
+      </c>
+      <c r="B195" t="n">
+        <v>8.99</v>
+      </c>
     </row>
     <row r="196" spans="1:6">
-      <c r="A196" s="20" t="n"/>
+      <c r="A196" s="20" t="n">
+        <v>42990</v>
+      </c>
+      <c r="B196" t="n">
+        <v>9.02</v>
+      </c>
     </row>
     <row r="197" spans="1:6">
       <c r="A197" s="20" t="n"/>
@@ -3749,8 +3784,8 @@
   </sheetPr>
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -3802,16 +3837,16 @@
         <v>44</v>
       </c>
       <c r="C2" s="10" t="n">
-        <v>3.37</v>
+        <v>3.38</v>
       </c>
       <c r="D2" s="21" t="n">
-        <v>-0.009999999999999593</v>
+        <v>-0.01239999999999991</v>
       </c>
       <c r="E2" s="21" t="n">
-        <v>3.892371823943463</v>
+        <v>3.878422189093444</v>
       </c>
       <c r="F2" s="21" t="n">
-        <v>-0.03345670489529606</v>
+        <v>-0.02698267425063072</v>
       </c>
       <c r="G2" s="21" t="n">
         <v>0</v>
@@ -3820,16 +3855,16 @@
         <v>0</v>
       </c>
       <c r="I2" s="26" t="n">
-        <v>43987</v>
+        <v>43986</v>
       </c>
       <c r="J2" s="24" t="n">
-        <v>8323.396506376706</v>
+        <v>8271.24537405059</v>
       </c>
       <c r="K2" t="n">
-        <v>0.08144721886760298</v>
+        <v>-0.2583132376732938</v>
       </c>
       <c r="L2" t="n">
-        <v>0.08603240388500437</v>
+        <v>0.08711904322483187</v>
       </c>
       <c r="P2" s="25" t="s">
         <v>45</v>
@@ -3843,34 +3878,34 @@
         <v>46</v>
       </c>
       <c r="C3" s="10" t="n">
-        <v>3.338</v>
+        <v>3.376500000000001</v>
       </c>
       <c r="D3" s="21" t="n">
-        <v>-0.004599999999999743</v>
+        <v>-0.006299999999999362</v>
       </c>
       <c r="E3" s="21" t="n">
-        <v>4.342828889848627</v>
+        <v>4.372932561586218</v>
       </c>
       <c r="F3" s="21" t="n">
-        <v>-0.01342946074334161</v>
+        <v>-0.003529669331614471</v>
       </c>
       <c r="G3" s="21" t="n">
-        <v>3.338</v>
+        <v>3.376500000000001</v>
       </c>
       <c r="H3" s="21" t="n">
-        <v>3.338</v>
+        <v>3.376500000000001</v>
       </c>
       <c r="I3" s="26" t="n">
         <v>44196</v>
       </c>
       <c r="J3" s="24" t="n">
-        <v>10271.99435065842</v>
+        <v>10183.8654517294</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0903733689978925</v>
+        <v>-0.1835595770836862</v>
       </c>
       <c r="L3" t="n">
-        <v>0.08909410674705413</v>
+        <v>0.09019450790863072</v>
       </c>
       <c r="P3" s="25">
         <f>"B"&amp;TEXT(O3,"A")</f>
@@ -3885,34 +3920,34 @@
         <v>47</v>
       </c>
       <c r="C4" s="10" t="n">
-        <v>3.98</v>
+        <v>4.04</v>
       </c>
       <c r="D4" s="21" t="n">
-        <v>-0.05000000000000004</v>
+        <v>0.02000000000000057</v>
       </c>
       <c r="E4" s="21" t="n">
-        <v>4.528655032667706</v>
+        <v>4.571012093557392</v>
       </c>
       <c r="F4" s="21" t="n">
-        <v>0.01379710722320127</v>
+        <v>0.005973738316678023</v>
       </c>
       <c r="G4" s="21" t="n">
-        <v>3.98</v>
+        <v>4.04</v>
       </c>
       <c r="H4" s="21" t="n">
-        <v>4.528655032667706</v>
+        <v>4.571012093557392</v>
       </c>
       <c r="I4" s="26" t="n">
         <v>44578</v>
       </c>
       <c r="J4" s="24" t="n">
-        <v>13351.02789607177</v>
+        <v>13227.80792546652</v>
       </c>
       <c r="K4" t="n">
-        <v>0.09733769124220526</v>
+        <v>-0.1112549140729058</v>
       </c>
       <c r="L4" t="n">
-        <v>0.09331856594920095</v>
+        <v>0.09442650770527984</v>
       </c>
       <c r="P4" s="25">
         <f>"B"&amp;TEXT(O4,"A")</f>
@@ -3927,34 +3962,34 @@
         <v>48</v>
       </c>
       <c r="C5" s="10" t="n">
-        <v>4.17</v>
+        <v>4.2868</v>
       </c>
       <c r="D5" s="21" t="n">
-        <v>-0.03429999999999961</v>
+        <v>0.05090000000000025</v>
       </c>
       <c r="E5" s="21" t="n">
-        <v>4.655807466897155</v>
+        <v>4.65187789873418</v>
       </c>
       <c r="F5" s="21" t="n">
-        <v>-0.006835896871226765</v>
+        <v>-0.01183338956780577</v>
       </c>
       <c r="G5" s="21" t="n">
-        <v>5.078584208844261</v>
+        <v>5.455486673715537</v>
       </c>
       <c r="H5" s="21" t="n">
-        <v>5.262785655024826</v>
+        <v>5.033065600870201</v>
       </c>
       <c r="I5" s="26" t="n">
-        <v>44757</v>
+        <v>44756</v>
       </c>
       <c r="J5" s="24" t="n">
-        <v>15100.54080963903</v>
+        <v>14959.08145951937</v>
       </c>
       <c r="K5" t="n">
-        <v>0.09655323054025278</v>
+        <v>-0.09151119570630084</v>
       </c>
       <c r="L5" t="n">
-        <v>0.09434924802024647</v>
+        <v>0.09564993714773896</v>
       </c>
       <c r="P5" s="25">
         <f>"B"&amp;TEXT(O5,"A")</f>
@@ -3969,34 +4004,34 @@
         <v>49</v>
       </c>
       <c r="C6" s="10" t="n">
-        <v>4.48</v>
+        <v>4.5966</v>
       </c>
       <c r="D6" s="21" t="n">
-        <v>-0.02999999999999947</v>
+        <v>0.05659999999999901</v>
       </c>
       <c r="E6" s="21" t="n">
-        <v>4.672853014499623</v>
+        <v>4.678523474759189</v>
       </c>
       <c r="F6" s="21" t="n">
-        <v>-0.01207127862508095</v>
+        <v>-0.01725091620685681</v>
       </c>
       <c r="G6" s="21" t="n">
-        <v>5.466968455193966</v>
+        <v>5.580530237893888</v>
       </c>
       <c r="H6" s="21" t="n">
-        <v>4.726805500807174</v>
+        <v>4.762674443034798</v>
       </c>
       <c r="I6" s="26" t="n">
-        <v>45112</v>
+        <v>45111</v>
       </c>
       <c r="J6" s="24" t="n">
-        <v>18051.25959605138</v>
+        <v>17894.92883600369</v>
       </c>
       <c r="K6" t="n">
-        <v>0.08276837529901104</v>
+        <v>-0.07547567210927641</v>
       </c>
       <c r="L6" t="n">
-        <v>0.09591328945458021</v>
+        <v>0.09710631971942109</v>
       </c>
       <c r="P6" s="25">
         <f>"B"&amp;TEXT(O6,"A")</f>
@@ -4011,34 +4046,34 @@
         <v>50</v>
       </c>
       <c r="C7" s="10" t="n">
-        <v>4.59</v>
+        <v>4.7</v>
       </c>
       <c r="D7" s="21" t="n">
-        <v>-0.0446000000000002</v>
+        <v>0.06309999999999996</v>
       </c>
       <c r="E7" s="21" t="n">
-        <v>4.66994399607068</v>
+        <v>4.675676532031248</v>
       </c>
       <c r="F7" s="21" t="n">
-        <v>-0.004259992708388616</v>
+        <v>-0.02364858767165412</v>
       </c>
       <c r="G7" s="21" t="n">
-        <v>5.562828328226255</v>
+        <v>5.619938608096953</v>
       </c>
       <c r="H7" s="21" t="n">
-        <v>4.644352810479191</v>
+        <v>4.650474050463949</v>
       </c>
       <c r="I7" s="26" t="n">
-        <v>45590</v>
+        <v>45589</v>
       </c>
       <c r="J7" s="24" t="n">
-        <v>22198.90764833882</v>
+        <v>22014.97338326816</v>
       </c>
       <c r="K7" t="n">
-        <v>0.07801190041768769</v>
+        <v>-0.05209824640403649</v>
       </c>
       <c r="L7" t="n">
-        <v>0.09794188732373797</v>
+        <v>0.09938496715512578</v>
       </c>
       <c r="P7" s="25">
         <f>"B"&amp;TEXT(O7,"A")</f>
@@ -4053,34 +4088,34 @@
         <v>51</v>
       </c>
       <c r="C8" s="10" t="n">
-        <v>4.6234</v>
+        <v>4.7109</v>
       </c>
       <c r="D8" s="21" t="n">
-        <v>-0.04399999999999959</v>
+        <v>0.05099999999999966</v>
       </c>
       <c r="E8" s="21" t="n">
-        <v>4.807690328936931</v>
+        <v>4.846030907878029</v>
       </c>
       <c r="F8" s="21" t="n">
-        <v>-0.01530594300578336</v>
+        <v>-0.0005829160014014789</v>
       </c>
       <c r="G8" s="21" t="n">
-        <v>4.790560058577475</v>
+        <v>4.76528237896825</v>
       </c>
       <c r="H8" s="21" t="n">
-        <v>5.499145895327362</v>
+        <v>5.699848456111911</v>
       </c>
       <c r="I8" s="26" t="n">
-        <v>46412</v>
+        <v>46409</v>
       </c>
       <c r="J8" s="24" t="n">
-        <v>29606.72054304952</v>
+        <v>29421.29572322977</v>
       </c>
       <c r="K8" t="n">
-        <v>0.06447780266274905</v>
+        <v>-0.03591698199419124</v>
       </c>
       <c r="L8" t="n">
-        <v>0.100253972246511</v>
+        <v>0.1018534318329673</v>
       </c>
       <c r="P8" s="25">
         <f>"B"&amp;TEXT(O8,"A")</f>
@@ -4095,34 +4130,34 @@
         <v>52</v>
       </c>
       <c r="C9" s="10" t="n">
-        <v>4.81</v>
+        <v>4.88</v>
       </c>
       <c r="D9" s="21" t="n">
-        <v>-0.05740000000000051</v>
+        <v>0.04999999999999935</v>
       </c>
       <c r="E9" s="21" t="n">
-        <v>4.813335925408646</v>
+        <v>4.887098693832281</v>
       </c>
       <c r="F9" s="21" t="n">
-        <v>-0.01664693749199309</v>
+        <v>0.003788036782670368</v>
       </c>
       <c r="G9" s="21" t="n">
-        <v>5.63591167387778</v>
+        <v>5.626569272874615</v>
       </c>
       <c r="H9" s="21" t="n">
-        <v>4.838207459996369</v>
+        <v>5.067814105574775</v>
       </c>
       <c r="I9" s="26" t="n">
-        <v>47149</v>
+        <v>47147</v>
       </c>
       <c r="J9" s="24" t="n">
-        <v>37089.47488243038</v>
+        <v>36887.7834230246</v>
       </c>
       <c r="K9" t="n">
-        <v>0.05423725913035471</v>
+        <v>-0.02884908865234681</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1007439094663722</v>
+        <v>0.1023429561841934</v>
       </c>
       <c r="P9" s="25">
         <f>"B"&amp;TEXT(O9,"A")</f>
@@ -4137,34 +4172,34 @@
         <v>53</v>
       </c>
       <c r="C10" s="10" t="n">
-        <v>4.93</v>
+        <v>4.967</v>
       </c>
       <c r="D10" s="21" t="n">
-        <v>-0.05740000000000051</v>
+        <v>0.02889999999999976</v>
       </c>
       <c r="E10" s="21" t="n">
-        <v>4.85932659008359</v>
+        <v>4.969233432851716</v>
       </c>
       <c r="F10" s="21" t="n">
-        <v>-0.02216108279169404</v>
+        <v>0.025716730485148</v>
       </c>
       <c r="G10" s="21" t="n">
-        <v>5.311548135310895</v>
+        <v>5.24297639490654</v>
       </c>
       <c r="H10" s="21" t="n">
-        <v>5.005341894830639</v>
+        <v>5.229751332428534</v>
       </c>
       <c r="I10" s="26" t="n">
-        <v>47889</v>
+        <v>47883</v>
       </c>
       <c r="J10" s="24" t="n">
-        <v>43571.49118614896</v>
+        <v>43296.79369331716</v>
       </c>
       <c r="K10" t="n">
-        <v>0.04756039259048994</v>
+        <v>-0.02297662990820293</v>
       </c>
       <c r="L10" t="n">
-        <v>0.101743909466372</v>
+        <v>0.105342956184193</v>
       </c>
       <c r="P10" s="25">
         <f>"B"&amp;TEXT(O10,"A")</f>
@@ -4179,34 +4214,34 @@
         <v>54</v>
       </c>
       <c r="C11" s="10" t="n">
-        <v>4.9631</v>
+        <v>4.9875</v>
       </c>
       <c r="D11" s="21" t="n">
-        <v>-0.05219999999999947</v>
+        <v>0.02749999999999975</v>
       </c>
       <c r="E11" s="21" t="n">
-        <v>4.950960661336268</v>
+        <v>5.074490954029187</v>
       </c>
       <c r="F11" s="21" t="n">
-        <v>-0.02829710846694589</v>
+        <v>0.02737206086249611</v>
       </c>
       <c r="G11" s="21" t="n">
-        <v>5.11715876486547</v>
+        <v>5.082948716412217</v>
       </c>
       <c r="H11" s="21" t="n">
-        <v>5.378130312192431</v>
+        <v>5.565693248658565</v>
       </c>
       <c r="I11" s="26" t="n">
-        <v>48277</v>
+        <v>48268</v>
       </c>
       <c r="J11" s="24" t="n">
-        <v>47410.61259050768</v>
+        <v>47012.77123897246</v>
       </c>
       <c r="K11" t="n">
-        <v>0.04722560457422198</v>
+        <v>-0.01799125430738957</v>
       </c>
       <c r="L11" t="n">
-        <v>0.102143909466372</v>
+        <v>0.108342956184193</v>
       </c>
       <c r="P11" s="25">
         <f>"B"&amp;TEXT(O11,"A")</f>
@@ -4221,34 +4256,34 @@
         <v>55</v>
       </c>
       <c r="C12" s="10" t="n">
-        <v>5.0136</v>
+        <v>5.039</v>
       </c>
       <c r="D12" s="21" t="n">
-        <v>-0.0564000000000002</v>
+        <v>0.0232000000000003</v>
       </c>
       <c r="E12" s="21" t="n">
-        <v>4.972019115831872</v>
+        <v>5.089902212293462</v>
       </c>
       <c r="F12" s="21" t="n">
-        <v>-0.02442455370392782</v>
+        <v>0.02680681509119598</v>
       </c>
       <c r="G12" s="21" t="n">
-        <v>5.297705085495052</v>
+        <v>5.329476954511247</v>
       </c>
       <c r="H12" s="21" t="n">
-        <v>5.090380807515893</v>
+        <v>5.176727742450793</v>
       </c>
       <c r="I12" s="26" t="n">
-        <v>48780</v>
+        <v>48771</v>
       </c>
       <c r="J12" s="24" t="n">
-        <v>51885.64678713486</v>
+        <v>51498.56214186413</v>
       </c>
       <c r="K12" t="n">
-        <v>0.04258963257369741</v>
+        <v>-0.01711519637896675</v>
       </c>
       <c r="L12" t="n">
-        <v>0.102106449606817</v>
+        <v>0.103706960661741</v>
       </c>
       <c r="P12" s="25">
         <f>"B"&amp;TEXT(O12,"A")</f>
@@ -4263,34 +4298,34 @@
         <v>56</v>
       </c>
       <c r="C13" s="10" t="n">
-        <v>5.1271</v>
+        <v>5.1597</v>
       </c>
       <c r="D13" s="21" t="n">
-        <v>-0.055199999999999</v>
+        <v>0.02059999999999979</v>
       </c>
       <c r="E13" s="21" t="n">
-        <v>4.909271586091224</v>
+        <v>5.018652245262611</v>
       </c>
       <c r="F13" s="21" t="n">
-        <v>-0.02576278826926792</v>
+        <v>0.0281906112232555</v>
       </c>
       <c r="G13" s="21" t="n">
-        <v>6.563974693561869</v>
+        <v>6.703091609687806</v>
       </c>
       <c r="H13" s="21" t="n">
-        <v>4.123903260774209</v>
+        <v>4.118901677364328</v>
       </c>
       <c r="I13" s="26" t="n">
-        <v>49037</v>
+        <v>49019</v>
       </c>
       <c r="J13" s="24" t="n">
-        <v>55661.9854386061</v>
+        <v>55120.71772629054</v>
       </c>
       <c r="K13" t="n">
-        <v>0.03963634782368219</v>
+        <v>-0.01735878775839528</v>
       </c>
       <c r="L13" t="n">
-        <v>0.102106449606817</v>
+        <v>0.103706960661741</v>
       </c>
       <c r="P13" s="25">
         <f>"B"&amp;TEXT(O13,"A")</f>
@@ -4305,34 +4340,34 @@
         <v>57</v>
       </c>
       <c r="C14" s="10" t="n">
-        <v>5.1067</v>
+        <v>5.1319</v>
       </c>
       <c r="D14" s="21" t="n">
-        <v>-0.06029999999999994</v>
+        <v>0.01539999999999944</v>
       </c>
       <c r="E14" s="21" t="n">
-        <v>4.958046761009816</v>
+        <v>5.077862623636298</v>
       </c>
       <c r="F14" s="21" t="n">
-        <v>-0.02060607536156223</v>
+        <v>0.03626827396880916</v>
       </c>
       <c r="G14" s="21" t="n">
-        <v>4.893178838738077</v>
+        <v>4.841761408244283</v>
       </c>
       <c r="H14" s="21" t="n">
-        <v>5.470497616377545</v>
+        <v>5.698757764262741</v>
       </c>
       <c r="I14" s="26" t="n">
-        <v>49037</v>
+        <v>49019</v>
       </c>
       <c r="J14" s="24" t="n">
-        <v>55661.9854386061</v>
+        <v>55120.71772629054</v>
       </c>
       <c r="K14" t="n">
-        <v>0.03963634782368219</v>
+        <v>-0.01735878775839528</v>
       </c>
       <c r="L14" t="n">
-        <v>0.102106449606817</v>
+        <v>0.103706960661741</v>
       </c>
       <c r="P14" s="25">
         <f>"B"&amp;TEXT(O14,"A")</f>
@@ -4347,34 +4382,34 @@
         <v>58</v>
       </c>
       <c r="C15" s="10" t="n">
-        <v>5.06</v>
+        <v>5.0921</v>
       </c>
       <c r="D15" s="21" t="n">
-        <v>-0.05739999999999981</v>
+        <v>0.01659999999999995</v>
       </c>
       <c r="E15" s="21" t="n">
-        <v>5.017397134085733</v>
+        <v>5.13439877556594</v>
       </c>
       <c r="F15" s="21" t="n">
-        <v>-0.02363863203618255</v>
+        <v>0.03916860229917773</v>
       </c>
       <c r="G15" s="21" t="n">
-        <v>4.014587588123231</v>
+        <v>4.176718879237495</v>
       </c>
       <c r="H15" s="21" t="n">
-        <v>6.361859053065322</v>
+        <v>6.449151068624026</v>
       </c>
       <c r="I15" s="26" t="n">
-        <v>49037</v>
+        <v>49019</v>
       </c>
       <c r="J15" s="24" t="n">
-        <v>55661.9854386061</v>
+        <v>55120.71772629054</v>
       </c>
       <c r="K15" t="n">
-        <v>0.03963634782368219</v>
+        <v>-0.01735878775839528</v>
       </c>
       <c r="L15" t="n">
-        <v>0.102106449606817</v>
+        <v>0.103706960661741</v>
       </c>
       <c r="P15" s="25">
         <f>"B"&amp;TEXT(O15,"A")</f>
@@ -4450,34 +4485,34 @@
         <v>66</v>
       </c>
       <c r="C2" t="n">
-        <v>7.6136</v>
+        <v>7.591100000000001</v>
       </c>
       <c r="D2" s="21" t="n">
-        <v>-0.001700000000000312</v>
+        <v>-0.01899999999999957</v>
       </c>
       <c r="E2" s="22" t="n">
-        <v>-4.639375911146132</v>
+        <v>-5.391259022189954</v>
       </c>
       <c r="F2" s="22" t="n">
-        <v>-0.1705347855869572</v>
+        <v>-0.4019233169691434</v>
       </c>
       <c r="G2" s="21" t="n">
-        <v>0.9949485463912212</v>
+        <v>0.9940353988623793</v>
       </c>
       <c r="H2" s="23" t="n">
-        <v>-0.00182059812189006</v>
+        <v>-0.0004826465322487206</v>
       </c>
       <c r="I2" s="26" t="n">
         <v>43102</v>
       </c>
       <c r="J2" s="24" t="n">
-        <v>1437.479004234854</v>
+        <v>1400.844828042258</v>
       </c>
       <c r="K2" s="24" t="n">
-        <v>524.6587305281588</v>
+        <v>524.7023018582877</v>
       </c>
       <c r="L2" t="n">
-        <v>0.07653692110022781</v>
+        <v>0.07638339110219894</v>
       </c>
       <c r="R2" s="25" t="s">
         <v>67</v>
@@ -4491,34 +4526,34 @@
         <v>68</v>
       </c>
       <c r="C3" t="n">
-        <v>7.565000000000001</v>
+        <v>7.585</v>
       </c>
       <c r="D3" s="21" t="n">
-        <v>0</v>
+        <v>-0.03999999999999976</v>
       </c>
       <c r="E3" s="22" t="n">
-        <v>-5.500040175680926</v>
+        <v>-5.500389164809494</v>
       </c>
       <c r="F3" s="22" t="n">
-        <v>0.0001099346813582258</v>
+        <v>-0.0002072583109304915</v>
       </c>
       <c r="G3" s="21" t="n">
-        <v>0.99405512144246</v>
+        <v>0.99423630387387</v>
       </c>
       <c r="H3" s="23" t="n">
-        <v>-0.0002401666806338687</v>
+        <v>-5.151373364242762e-05</v>
       </c>
       <c r="I3" s="26" t="n">
         <v>43440</v>
       </c>
       <c r="J3" s="24" t="n">
-        <v>5975.940501357079</v>
+        <v>5938.211647715796</v>
       </c>
       <c r="K3" s="24" t="n">
-        <v>546.6707693722298</v>
+        <v>546.4868971523848</v>
       </c>
       <c r="L3" t="n">
-        <v>0.07592490333268428</v>
+        <v>0.07608105459690777</v>
       </c>
       <c r="R3" s="25" t="s">
         <v>67</v>
@@ -4532,34 +4567,34 @@
         <v>69</v>
       </c>
       <c r="C4" t="n">
-        <v>8.775</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="D4" s="21" t="n">
-        <v>-0.03769999999999885</v>
+        <v>0.03000000000000086</v>
       </c>
       <c r="E4" s="22" t="n">
-        <v>-13.49979281122224</v>
+        <v>-12.99980428332653</v>
       </c>
       <c r="F4" s="22" t="n">
-        <v>0.2301878859886646</v>
+        <v>0.0002647973333651521</v>
       </c>
       <c r="G4" s="21" t="n">
-        <v>0.996174961245755</v>
+        <v>0.997298278516109</v>
       </c>
       <c r="H4" s="23" t="n">
-        <v>-9.038200644995165e-05</v>
+        <v>0.0003888095312157835</v>
       </c>
       <c r="I4" s="26" t="n">
         <v>44035</v>
       </c>
       <c r="J4" s="24" t="n">
-        <v>13792.8175637847</v>
+        <v>13703.83804715214</v>
       </c>
       <c r="K4" s="24" t="n">
-        <v>604.153561360343</v>
+        <v>603.908794662628</v>
       </c>
       <c r="L4" t="n">
-        <v>0.08693718413600462</v>
+        <v>0.08803445763233332</v>
       </c>
       <c r="R4" s="25" t="s">
         <v>67</v>
@@ -4573,34 +4608,34 @@
         <v>70</v>
       </c>
       <c r="C5" t="n">
-        <v>9.3087</v>
+        <v>9.44</v>
       </c>
       <c r="D5" s="21" t="n">
-        <v>-0.04409999999999969</v>
+        <v>0.03999999999999976</v>
       </c>
       <c r="E5" s="22" t="n">
-        <v>-21.13003870687275</v>
+        <v>-20.99998166475811</v>
       </c>
       <c r="F5" s="22" t="n">
-        <v>0.5898251973870927</v>
+        <v>-9.321998908973228e-05</v>
       </c>
       <c r="G5" s="21" t="n">
-        <v>0.9944367467587139</v>
+        <v>0.9953198501732357</v>
       </c>
       <c r="H5" s="23" t="n">
-        <v>0.0001751350829239939</v>
+        <v>0.0003229149625154637</v>
       </c>
       <c r="I5" s="26" t="n">
-        <v>44529</v>
+        <v>44526</v>
       </c>
       <c r="J5" s="24" t="n">
-        <v>20075.33696892217</v>
+        <v>19911.31717288264</v>
       </c>
       <c r="K5" s="24" t="n">
-        <v>672.7126260290698</v>
+        <v>672.7328113907733</v>
       </c>
       <c r="L5" t="n">
-        <v>0.09289432761378065</v>
+        <v>0.09397213085225542</v>
       </c>
       <c r="R5" s="25" t="s">
         <v>67</v>
@@ -4614,34 +4649,34 @@
         <v>71</v>
       </c>
       <c r="C6" t="n">
-        <v>9.5284</v>
+        <v>9.685</v>
       </c>
       <c r="D6" s="21" t="n">
-        <v>-0.06430000000000186</v>
+        <v>0.06150000000000044</v>
       </c>
       <c r="E6" s="22" t="n">
-        <v>-29.16011912964242</v>
+        <v>-28.50014455946778</v>
       </c>
       <c r="F6" s="22" t="n">
-        <v>0.5698843877614799</v>
+        <v>0.1498968738020139</v>
       </c>
       <c r="G6" s="21" t="n">
-        <v>0.9904288577585045</v>
+        <v>0.9924283793823255</v>
       </c>
       <c r="H6" s="23" t="n">
-        <v>-0.0003083580518976614</v>
+        <v>0.0009131555728906227</v>
       </c>
       <c r="I6" s="26" t="n">
-        <v>44931</v>
+        <v>44929</v>
       </c>
       <c r="J6" s="24" t="n">
-        <v>25261.25048251671</v>
+        <v>24974.49803704477</v>
       </c>
       <c r="K6" s="24" t="n">
-        <v>753.6381515239896</v>
+        <v>753.8116022540739</v>
       </c>
       <c r="L6" t="n">
-        <v>0.09522250959656119</v>
+        <v>0.09651508115414975</v>
       </c>
       <c r="R6" s="25" t="s">
         <v>67</v>
@@ -4655,34 +4690,34 @@
         <v>72</v>
       </c>
       <c r="C7" t="n">
-        <v>9.705</v>
+        <v>9.865</v>
       </c>
       <c r="D7" s="21" t="n">
-        <v>-0.0787999999999997</v>
+        <v>0.05499999999999949</v>
       </c>
       <c r="E7" s="22" t="n">
-        <v>-31.49991970527871</v>
+        <v>-31.50007236851452</v>
       </c>
       <c r="F7" s="22" t="n">
-        <v>1.120132213987684</v>
+        <v>-0.4999344850636938</v>
       </c>
       <c r="G7" s="21" t="n">
-        <v>0.9916527669337725</v>
+        <v>0.9931440169720368</v>
       </c>
       <c r="H7" s="23" t="n">
-        <v>-0.0003296485363333268</v>
+        <v>0.0001719039541763223</v>
       </c>
       <c r="I7" s="26" t="n">
-        <v>45268</v>
+        <v>45264</v>
       </c>
       <c r="J7" s="24" t="n">
-        <v>29394.90131383393</v>
+        <v>28999.10289797525</v>
       </c>
       <c r="K7" s="24" t="n">
-        <v>845.4679517289368</v>
+        <v>846.7138287216691</v>
       </c>
       <c r="L7" t="n">
-        <v>0.09669803574477966</v>
+        <v>0.09777819991697792</v>
       </c>
       <c r="R7" s="25" t="s">
         <v>67</v>
@@ -4754,34 +4789,34 @@
         <v>75</v>
       </c>
       <c r="C2" t="n">
-        <v>8.180400000000001</v>
+        <v>8.1799</v>
       </c>
       <c r="D2" s="21" t="n">
-        <v>-0.05529999999999979</v>
+        <v>-0.0007000000000007001</v>
       </c>
       <c r="E2" s="22" t="n">
-        <v>3.841978396885853</v>
+        <v>3.881723936936393</v>
       </c>
       <c r="F2" s="22" t="n">
-        <v>0.07542159487422495</v>
+        <v>0.02384490231349723</v>
       </c>
       <c r="G2" s="21" t="n">
-        <v>1.004523007383135</v>
+        <v>1.004576257712433</v>
       </c>
       <c r="H2" s="23" t="n">
-        <v>0.0005323025229337919</v>
+        <v>3.59603776713957e-05</v>
       </c>
       <c r="I2" s="26" t="n">
         <v>43010</v>
       </c>
       <c r="J2" s="24" t="n">
-        <v>255.6535184739914</v>
+        <v>219.2694402110646</v>
       </c>
       <c r="K2" t="n">
         <v>500</v>
       </c>
       <c r="L2" t="n">
-        <v>0.08142112231722454</v>
+        <v>0.08141166050358639</v>
       </c>
       <c r="R2" s="34" t="s">
         <v>76</v>
@@ -4795,34 +4830,34 @@
         <v>77</v>
       </c>
       <c r="C3" t="n">
-        <v>7.589899999999999</v>
+        <v>7.5682</v>
       </c>
       <c r="D3" s="21" t="n">
-        <v>-0.001500000000000112</v>
+        <v>-0.0217999999999996</v>
       </c>
       <c r="E3" s="22" t="n">
-        <v>-7.009375911146143</v>
+        <v>-7.681259022190023</v>
       </c>
       <c r="F3" s="22" t="n">
-        <v>-0.1505347855869363</v>
+        <v>-0.6819233169691454</v>
       </c>
       <c r="G3" s="21" t="n">
-        <v>0.9919615618323225</v>
+        <v>0.9911431302411136</v>
       </c>
       <c r="H3" s="23" t="n">
-        <v>-0.0001795181569426152</v>
+        <v>-0.0008415865399907796</v>
       </c>
       <c r="I3" s="26" t="n">
         <v>43102</v>
       </c>
       <c r="J3" s="24" t="n">
-        <v>1353.329099645634</v>
+        <v>1318.348262364452</v>
       </c>
       <c r="K3" t="n">
         <v>500</v>
       </c>
       <c r="L3" t="n">
-        <v>0.07653692110022781</v>
+        <v>0.07638339110219894</v>
       </c>
       <c r="R3" s="25" t="s">
         <v>76</v>
@@ -4836,34 +4871,34 @@
         <v>78</v>
       </c>
       <c r="C4" t="n">
-        <v>7.41</v>
+        <v>7.380000000000001</v>
       </c>
       <c r="D4" s="21" t="n">
-        <v>-0.0450000000000006</v>
+        <v>-0.03999999999999976</v>
       </c>
       <c r="E4" s="22" t="n">
-        <v>0.9998539224381764</v>
+        <v>0.4995069203608815</v>
       </c>
       <c r="F4" s="22" t="n">
-        <v>-0.5007519817973316</v>
+        <v>-0.5007177399600493</v>
       </c>
       <c r="G4" s="21" t="n">
-        <v>1.002007749109856</v>
+        <v>1.001393999699084</v>
       </c>
       <c r="H4" s="23" t="n">
-        <v>-0.0005962358015960678</v>
+        <v>-0.0006070651845948571</v>
       </c>
       <c r="I4" s="26" t="n">
         <v>43192</v>
       </c>
       <c r="J4" s="24" t="n">
-        <v>2417.182082212094</v>
+        <v>2384.00668945178</v>
       </c>
       <c r="K4" t="n">
         <v>500</v>
       </c>
       <c r="L4" t="n">
-        <v>0.07394618669750219</v>
+        <v>0.07369358539753401</v>
       </c>
       <c r="R4" s="25" t="s">
         <v>76</v>
@@ -4877,34 +4912,34 @@
         <v>79</v>
       </c>
       <c r="C5" t="n">
-        <v>7.3879</v>
+        <v>7.373100000000001</v>
       </c>
       <c r="D5" s="21" t="n">
-        <v>-0.05210000000000076</v>
+        <v>-0.04189999999999888</v>
       </c>
       <c r="E5" s="22" t="n">
-        <v>0.7903943256157286</v>
+        <v>0.8096371577749617</v>
       </c>
       <c r="F5" s="22" t="n">
-        <v>-0.7097711372840154</v>
+        <v>-0.190690484849626</v>
       </c>
       <c r="G5" s="21" t="n">
-        <v>1.001529944467866</v>
+        <v>1.001573300096718</v>
       </c>
       <c r="H5" s="23" t="n">
-        <v>-0.0008819431342281803</v>
+        <v>-0.0002112520841739407</v>
       </c>
       <c r="I5" s="26" t="n">
         <v>43283</v>
       </c>
       <c r="J5" s="24" t="n">
-        <v>3475.540024297516</v>
+        <v>3443.402359167521</v>
       </c>
       <c r="K5" t="n">
         <v>500</v>
       </c>
       <c r="L5" t="n">
-        <v>0.07376209488384222</v>
+        <v>0.07361103635275401</v>
       </c>
       <c r="R5" s="25" t="s">
         <v>76</v>
@@ -4918,34 +4953,34 @@
         <v>80</v>
       </c>
       <c r="C6" t="n">
-        <v>7.470000000000001</v>
+        <v>7.4823</v>
       </c>
       <c r="D6" s="21" t="n">
-        <v>-0.04499999999999921</v>
+        <v>-0.04090000000000066</v>
       </c>
       <c r="E6" s="22" t="n">
-        <v>1.000454708530857</v>
+        <v>1.229617270787353</v>
       </c>
       <c r="F6" s="22" t="n">
-        <v>-0.5000454511343289</v>
+        <v>-0.09080971034372554</v>
       </c>
       <c r="G6" s="21" t="n">
-        <v>1.001626797296712</v>
+        <v>1.001918262684388</v>
       </c>
       <c r="H6" s="23" t="n">
-        <v>-0.0006138461403153439</v>
+        <v>-8.540717626415173e-05</v>
       </c>
       <c r="I6" s="26" t="n">
         <v>43374</v>
       </c>
       <c r="J6" s="24" t="n">
-        <v>4519.693949241628</v>
+        <v>4486.97165887279</v>
       </c>
       <c r="K6" t="n">
         <v>500</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0745742782429617</v>
+        <v>0.07467454558495512</v>
       </c>
       <c r="R6" s="25" t="s">
         <v>76</v>
@@ -4959,34 +4994,34 @@
         <v>81</v>
       </c>
       <c r="C7" t="n">
-        <v>7.6279</v>
+        <v>7.6429</v>
       </c>
       <c r="D7" s="21" t="n">
-        <v>-0.001500000000000112</v>
+        <v>-0.0450000000000006</v>
       </c>
       <c r="E7" s="22" t="n">
-        <v>0.7899598243189809</v>
+        <v>0.289610835190468</v>
       </c>
       <c r="F7" s="22" t="n">
-        <v>-0.149890065318653</v>
+        <v>-0.500207258311014</v>
       </c>
       <c r="G7" s="21" t="n">
-        <v>1.001201264463147</v>
+        <v>1.000559921426735</v>
       </c>
       <c r="H7" s="23" t="n">
-        <v>-0.0001890902571155539</v>
+        <v>-0.0006089658787855612</v>
       </c>
       <c r="I7" s="26" t="n">
         <v>43467</v>
       </c>
       <c r="J7" s="24" t="n">
-        <v>5449.479456623521</v>
+        <v>5417.381931194541</v>
       </c>
       <c r="K7" t="n">
         <v>500</v>
       </c>
       <c r="L7" t="n">
-        <v>0.07618409163949491</v>
+        <v>0.0763846427786965</v>
       </c>
       <c r="R7" s="25" t="s">
         <v>76</v>
@@ -5000,34 +5035,34 @@
         <v>82</v>
       </c>
       <c r="C8" t="n">
-        <v>7.765</v>
+        <v>7.835</v>
       </c>
       <c r="D8" s="21" t="n">
-        <v>-0.02000000000000057</v>
+        <v>-0.01989999999999909</v>
       </c>
       <c r="E8" s="22" t="n">
-        <v>1.50003745939653</v>
+        <v>1.50013720713188</v>
       </c>
       <c r="F8" s="22" t="n">
-        <v>9.674636175516227e-05</v>
+        <v>0.0100216621697069</v>
       </c>
       <c r="G8" s="21" t="n">
-        <v>1.001990545465363</v>
+        <v>1.001950491055315</v>
       </c>
       <c r="H8" s="23" t="n">
-        <v>1.213202133354407e-05</v>
+        <v>2.409332946728959e-05</v>
       </c>
       <c r="I8" s="26" t="n">
         <v>43556</v>
       </c>
       <c r="J8" s="24" t="n">
-        <v>6352.229523909045</v>
+        <v>6312.782829216303</v>
       </c>
       <c r="K8" t="n">
         <v>500</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0774899369658415</v>
+        <v>0.07819168689720368</v>
       </c>
       <c r="R8" s="25" t="s">
         <v>76</v>
@@ -5041,34 +5076,34 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>7.9516</v>
+        <v>8.0212</v>
       </c>
       <c r="D9" s="21" t="n">
-        <v>-0.01839999999999897</v>
+        <v>-0.0001999999999988122</v>
       </c>
       <c r="E9" s="22" t="n">
-        <v>1.159782752163385</v>
+        <v>1.120159509520602</v>
       </c>
       <c r="F9" s="22" t="n">
-        <v>0.1597394267680019</v>
+        <v>-0.01989094090035226</v>
       </c>
       <c r="G9" s="21" t="n">
-        <v>1.001460460403481</v>
+        <v>1.001381045058222</v>
       </c>
       <c r="H9" s="23" t="n">
-        <v>0.0002025000488581341</v>
+        <v>-2.382345379747797e-05</v>
       </c>
       <c r="I9" s="26" t="n">
         <v>43647</v>
       </c>
       <c r="J9" s="24" t="n">
-        <v>7200.803166368132</v>
+        <v>7160.270291860797</v>
       </c>
       <c r="K9" t="n">
         <v>500</v>
       </c>
       <c r="L9" t="n">
-        <v>0.07939557156086186</v>
+        <v>0.08009707748869932</v>
       </c>
       <c r="R9" s="25" t="s">
         <v>76</v>
@@ -5082,34 +5117,34 @@
         <v>84</v>
       </c>
       <c r="C10" t="n">
-        <v>8.173299999999999</v>
+        <v>8.265700000000001</v>
       </c>
       <c r="D10" s="21" t="n">
-        <v>-0.04009999999999986</v>
+        <v>0.0106999999999996</v>
       </c>
       <c r="E10" s="22" t="n">
-        <v>2.329768155521772</v>
+        <v>2.570056096418416</v>
       </c>
       <c r="F10" s="22" t="n">
-        <v>-0.01026328714584501</v>
+        <v>0.07008726685381328</v>
       </c>
       <c r="G10" s="21" t="n">
-        <v>1.002747327637235</v>
+        <v>1.002976003934364</v>
       </c>
       <c r="H10" s="23" t="n">
-        <v>1.098949239075608e-05</v>
+        <v>7.579510623889618e-05</v>
       </c>
       <c r="I10" s="26" t="n">
         <v>43739</v>
       </c>
       <c r="J10" s="24" t="n">
-        <v>8045.019394554402</v>
+        <v>7998.017576130223</v>
       </c>
       <c r="K10" t="n">
         <v>500</v>
       </c>
       <c r="L10" t="n">
-        <v>0.08150021741322266</v>
+        <v>0.08240194459992467</v>
       </c>
       <c r="R10" s="25" t="s">
         <v>76</v>
@@ -5123,34 +5158,34 @@
         <v>85</v>
       </c>
       <c r="C11" t="n">
-        <v>8.32</v>
+        <v>8.4109</v>
       </c>
       <c r="D11" s="21" t="n">
-        <v>-0.03999999999999976</v>
+        <v>0.01000000000000029</v>
       </c>
       <c r="E11" s="22" t="n">
-        <v>1.000151725079612</v>
+        <v>1.089999066368336</v>
       </c>
       <c r="F11" s="22" t="n">
-        <v>0.0001939923661986587</v>
+        <v>-0.0002303153599780838</v>
       </c>
       <c r="G11" s="21" t="n">
-        <v>1.001122868673885</v>
+        <v>1.001195133411328</v>
       </c>
       <c r="H11" s="23" t="n">
-        <v>1.370765578423416e-05</v>
+        <v>-3.821156604244536e-06</v>
       </c>
       <c r="I11" s="26" t="n">
         <v>43832</v>
       </c>
       <c r="J11" s="24" t="n">
-        <v>8814.12354636268</v>
+        <v>8765.006920271844</v>
       </c>
       <c r="K11" t="n">
         <v>500</v>
       </c>
       <c r="L11" t="n">
-        <v>0.08310292320856738</v>
+        <v>0.08400451158138145</v>
       </c>
       <c r="R11" s="25" t="s">
         <v>76</v>
@@ -5164,34 +5199,34 @@
         <v>86</v>
       </c>
       <c r="C12" t="n">
-        <v>8.66</v>
+        <v>8.769399999999999</v>
       </c>
       <c r="D12" s="21" t="n">
-        <v>-0.03999999999999976</v>
+        <v>0.02939999999999887</v>
       </c>
       <c r="E12" s="22" t="n">
-        <v>0.999860395525104</v>
+        <v>0.9402428776966731</v>
       </c>
       <c r="F12" s="22" t="n">
-        <v>-7.515963892923416e-05</v>
+        <v>-0.05960745023375624</v>
       </c>
       <c r="G12" s="21" t="n">
-        <v>1.001028505687444</v>
+        <v>1.000932269549925</v>
       </c>
       <c r="H12" s="23" t="n">
-        <v>1.104107309735092e-05</v>
+        <v>-7.37005570137228e-05</v>
       </c>
       <c r="I12" s="26" t="n">
         <v>44013</v>
       </c>
       <c r="J12" s="24" t="n">
-        <v>10170.84429055103</v>
+        <v>10110.0473704937</v>
       </c>
       <c r="K12" t="n">
         <v>500</v>
       </c>
       <c r="L12" t="n">
-        <v>0.08650729606639285</v>
+        <v>0.08760885819844599</v>
       </c>
       <c r="R12" s="25" t="s">
         <v>76</v>
@@ -5205,34 +5240,34 @@
         <v>87</v>
       </c>
       <c r="C13" t="n">
-        <v>9.160500000000001</v>
+        <v>9.2806</v>
       </c>
       <c r="D13" s="21" t="n">
-        <v>-0.04829999999999973</v>
+        <v>0.04060000000000036</v>
       </c>
       <c r="E13" s="22" t="n">
-        <v>1.050129212865764</v>
+        <v>1.059855523660169</v>
       </c>
       <c r="F13" s="22" t="n">
-        <v>0.1699409739021329</v>
+        <v>0.05988849924074002</v>
       </c>
       <c r="G13" s="21" t="n">
-        <v>1.000987467638955</v>
+        <v>1.000970801410642</v>
       </c>
       <c r="H13" s="23" t="n">
-        <v>0.0001877992989836041</v>
+        <v>5.318220550876163e-05</v>
       </c>
       <c r="I13" s="26" t="n">
         <v>44378</v>
       </c>
       <c r="J13" s="24" t="n">
-        <v>12434.91296011416</v>
+        <v>12352.43902163711</v>
       </c>
       <c r="K13" t="n">
         <v>500</v>
       </c>
       <c r="L13" t="n">
-        <v>0.09151063456665098</v>
+        <v>0.09271195862356785</v>
       </c>
       <c r="R13" s="25" t="s">
         <v>76</v>
@@ -5252,8 +5287,8 @@
   </sheetPr>
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A19" workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -5292,10 +5327,10 @@
         <v>96</v>
       </c>
       <c r="C2" t="n">
-        <v>2211302</v>
+        <v>1920232</v>
       </c>
       <c r="E2" t="n">
-        <v>7915.990700492034</v>
+        <v>7000.152644856699</v>
       </c>
       <c r="F2" t="n">
         <v>5086.04817860171</v>
@@ -5304,7 +5339,7 @@
         <v>5191.96931242336</v>
       </c>
       <c r="H2" t="n">
-        <v>4883.425365264343</v>
+        <v>4869.587370072853</v>
       </c>
       <c r="I2" t="n">
         <v>4928.287555311905</v>
@@ -5315,16 +5350,16 @@
         <v>97</v>
       </c>
       <c r="B3" t="n">
-        <v>8.141999999999999</v>
+        <v>8.141</v>
       </c>
       <c r="C3" t="n">
-        <v>266325</v>
+        <v>202975</v>
       </c>
       <c r="D3" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>50.39643017432024</v>
+        <v>33.21680923375864</v>
       </c>
       <c r="F3" t="n">
         <v>104.8748845376868</v>
@@ -5344,16 +5379,16 @@
         <v>98</v>
       </c>
       <c r="B4" t="n">
-        <v>8.07</v>
+        <v>8.065</v>
       </c>
       <c r="C4" t="n">
-        <v>7260</v>
+        <v>16290</v>
       </c>
       <c r="D4" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E4" t="n">
-        <v>3.158675769324221</v>
+        <v>6.626613686103074</v>
       </c>
       <c r="F4" t="n">
         <v>1.964883252610876</v>
@@ -5373,16 +5408,16 @@
         <v>99</v>
       </c>
       <c r="B5" t="n">
-        <v>7.835</v>
+        <v>7.822</v>
       </c>
       <c r="C5" t="n">
-        <v>102270</v>
+        <v>33925</v>
       </c>
       <c r="D5" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E5" t="n">
-        <v>68.30839091879243</v>
+        <v>21.61238567543034</v>
       </c>
       <c r="F5" t="n">
         <v>2.100666683468131</v>
@@ -5402,16 +5437,16 @@
         <v>66</v>
       </c>
       <c r="B6" t="n">
-        <v>7.66</v>
+        <v>7.645</v>
       </c>
       <c r="C6" t="n">
-        <v>251850</v>
+        <v>332395</v>
       </c>
       <c r="D6" t="n">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E6" t="n">
-        <v>226.3625306564499</v>
+        <v>287.6510500663834</v>
       </c>
       <c r="F6" t="n">
         <v>505.7848141641472</v>
@@ -5420,7 +5455,7 @@
         <v>428.3112500464898</v>
       </c>
       <c r="H6" t="n">
-        <v>377.4442510297766</v>
+        <v>378.4170846712041</v>
       </c>
       <c r="I6" t="n">
         <v>467.9650110110565</v>
@@ -5431,16 +5466,16 @@
         <v>100</v>
       </c>
       <c r="B7" t="n">
-        <v>7.527</v>
+        <v>7.513</v>
       </c>
       <c r="C7" t="n">
-        <v>1330</v>
+        <v>10</v>
       </c>
       <c r="D7" t="n">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E7" t="n">
-        <v>1.529706275388546</v>
+        <v>0.01113952920329402</v>
       </c>
       <c r="F7" t="n">
         <v>0.2332537531632742</v>
@@ -5449,7 +5484,7 @@
         <v>2.499232501093198</v>
       </c>
       <c r="H7" t="n">
-        <v>4.20630290324627</v>
+        <v>4.182198669179837</v>
       </c>
       <c r="I7" t="n">
         <v>2.091010925627987</v>
@@ -5460,16 +5495,16 @@
         <v>101</v>
       </c>
       <c r="B8" t="n">
-        <v>7.469</v>
+        <v>7.453</v>
       </c>
       <c r="C8" t="n">
-        <v>1230</v>
+        <v>1800</v>
       </c>
       <c r="D8" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E8" t="n">
-        <v>1.664577605367097</v>
+        <v>2.366853106595121</v>
       </c>
       <c r="F8" t="n">
         <v>1.462841335374022</v>
@@ -5478,7 +5513,7 @@
         <v>2.041652460863693</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9619979404395718</v>
+        <v>0.9731451706177944</v>
       </c>
       <c r="I8" t="n">
         <v>0.4677880368438565</v>
@@ -5489,16 +5524,16 @@
         <v>102</v>
       </c>
       <c r="B9" t="n">
-        <v>7.4</v>
+        <v>7.375</v>
       </c>
       <c r="C9" t="n">
-        <v>84457</v>
+        <v>133012</v>
       </c>
       <c r="D9" t="n">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E9" t="n">
-        <v>134.1382232582858</v>
+        <v>205.8328624555441</v>
       </c>
       <c r="F9" t="n">
         <v>47.32163781121359</v>
@@ -5518,16 +5553,16 @@
         <v>103</v>
       </c>
       <c r="B10" t="n">
-        <v>7.38</v>
+        <v>7.365</v>
       </c>
       <c r="C10" t="n">
-        <v>145415</v>
+        <v>108600</v>
       </c>
       <c r="D10" t="n">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E10" t="n">
-        <v>330.5501832955226</v>
+        <v>241.6097631403986</v>
       </c>
       <c r="F10" t="n">
         <v>157.7256968100318</v>
@@ -5547,16 +5582,16 @@
         <v>104</v>
       </c>
       <c r="B11" t="n">
-        <v>7.46</v>
+        <v>7.47</v>
       </c>
       <c r="C11" t="n">
-        <v>31140</v>
+        <v>17895</v>
       </c>
       <c r="D11" t="n">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E11" t="n">
-        <v>91.51230616304747</v>
+        <v>51.5719205718574</v>
       </c>
       <c r="F11" t="n">
         <v>12.29256872131019</v>
@@ -5576,16 +5611,16 @@
         <v>68</v>
       </c>
       <c r="B12" t="n">
-        <v>7.62</v>
+        <v>7.64</v>
       </c>
       <c r="C12" t="n">
-        <v>701075</v>
+        <v>421995</v>
       </c>
       <c r="D12" t="n">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E12" t="n">
-        <v>2489.172121598707</v>
+        <v>1471.116729534294</v>
       </c>
       <c r="F12" t="n">
         <v>912.2071308307015</v>
@@ -5605,16 +5640,16 @@
         <v>105</v>
       </c>
       <c r="B13" t="n">
-        <v>7.75</v>
+        <v>7.82</v>
       </c>
       <c r="C13" t="n">
-        <v>6580</v>
+        <v>7765</v>
       </c>
       <c r="D13" t="n">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E13" t="n">
-        <v>27.14867597007378</v>
+        <v>31.44911573002377</v>
       </c>
       <c r="F13" t="n">
         <v>60.69419523453431</v>
@@ -5634,16 +5669,16 @@
         <v>106</v>
       </c>
       <c r="B14" t="n">
-        <v>7.94</v>
+        <v>8.01</v>
       </c>
       <c r="C14" t="n">
-        <v>16120</v>
+        <v>19870</v>
       </c>
       <c r="D14" t="n">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E14" t="n">
-        <v>75.36356950939434</v>
+        <v>91.24025435153715</v>
       </c>
       <c r="F14" t="n">
         <v>61.63571112920621</v>
@@ -5663,16 +5698,16 @@
         <v>107</v>
       </c>
       <c r="B15" t="n">
-        <v>8.15</v>
+        <v>8.24</v>
       </c>
       <c r="C15" t="n">
-        <v>18950</v>
+        <v>12550</v>
       </c>
       <c r="D15" t="n">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E15" t="n">
-        <v>98.98734316532871</v>
+        <v>64.37910992543478</v>
       </c>
       <c r="F15" t="n">
         <v>3.684319203518196</v>
@@ -5692,16 +5727,16 @@
         <v>108</v>
       </c>
       <c r="B16" t="n">
-        <v>8.31</v>
+        <v>8.4</v>
       </c>
       <c r="C16" t="n">
-        <v>217670</v>
+        <v>196740</v>
       </c>
       <c r="D16" t="n">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E16" t="n">
-        <v>1246.768847432263</v>
+        <v>1106.910104781081</v>
       </c>
       <c r="F16" t="n">
         <v>524.0706347352395</v>
@@ -5721,16 +5756,16 @@
         <v>109</v>
       </c>
       <c r="B17" t="n">
-        <v>8.48</v>
+        <v>8.59</v>
       </c>
       <c r="C17" t="n">
-        <v>560</v>
+        <v>350</v>
       </c>
       <c r="D17" t="n">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="E17" t="n">
-        <v>3.462075268163916</v>
+        <v>2.12436648798841</v>
       </c>
       <c r="F17" t="n">
         <v>4.136283406663354</v>
@@ -5750,16 +5785,16 @@
         <v>110</v>
       </c>
       <c r="B18" t="n">
-        <v>8.65</v>
+        <v>8.76</v>
       </c>
       <c r="C18" t="n">
-        <v>19075</v>
+        <v>25660</v>
       </c>
       <c r="D18" t="n">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E18" t="n">
-        <v>125.8633445156115</v>
+        <v>166.2353927421254</v>
       </c>
       <c r="F18" t="n">
         <v>218.9021266174602</v>
@@ -5779,16 +5814,16 @@
         <v>111</v>
       </c>
       <c r="B19" t="n">
-        <v>8.815</v>
+        <v>8.925000000000001</v>
       </c>
       <c r="C19" t="n">
-        <v>600</v>
+        <v>2770</v>
       </c>
       <c r="D19" t="n">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="E19" t="n">
-        <v>4.207566217577601</v>
+        <v>19.07177091545996</v>
       </c>
       <c r="F19" t="n">
         <v>0.5224525299891731</v>
@@ -5808,16 +5843,16 @@
         <v>69</v>
       </c>
       <c r="B20" t="n">
-        <v>8.91</v>
+        <v>9.02</v>
       </c>
       <c r="C20" t="n">
-        <v>164795</v>
+        <v>218690</v>
       </c>
       <c r="D20" t="n">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="E20" t="n">
-        <v>1219.726871369236</v>
+        <v>1589.131858552956</v>
       </c>
       <c r="F20" t="n">
         <v>1190.296562244001</v>
@@ -5837,16 +5872,16 @@
         <v>112</v>
       </c>
       <c r="B21" t="n">
-        <v>9.025</v>
+        <v>9.145</v>
       </c>
       <c r="C21" t="n">
-        <v>120</v>
+        <v>470</v>
       </c>
       <c r="D21" t="n">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9294160804200531</v>
+        <v>3.572153938594631</v>
       </c>
       <c r="F21" t="n">
         <v>0.1182697793451248</v>
@@ -5866,16 +5901,16 @@
         <v>113</v>
       </c>
       <c r="B22" t="n">
-        <v>9.15</v>
+        <v>9.27</v>
       </c>
       <c r="C22" t="n">
-        <v>30150</v>
+        <v>32705</v>
       </c>
       <c r="D22" t="n">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="E22" t="n">
-        <v>243.1563291541003</v>
+        <v>258.802358223518</v>
       </c>
       <c r="F22" t="n">
         <v>8.570461171192701</v>
@@ -5895,16 +5930,16 @@
         <v>114</v>
       </c>
       <c r="B23" t="n">
-        <v>9.23</v>
+        <v>9.345000000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="D23" t="n">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="E23" t="n">
-        <v>1.468417505997387</v>
+        <v>1.193918588537249</v>
       </c>
       <c r="F23" t="n">
         <v>0.09292795156538433</v>
@@ -5924,16 +5959,16 @@
         <v>115</v>
       </c>
       <c r="B24" t="n">
-        <v>9.32</v>
+        <v>9.43</v>
       </c>
       <c r="C24" t="n">
-        <v>12675</v>
+        <v>8045</v>
       </c>
       <c r="D24" t="n">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="E24" t="n">
-        <v>109.9850319070107</v>
+        <v>68.50969917549187</v>
       </c>
       <c r="F24" t="n">
         <v>45.51313681076557</v>
@@ -5953,16 +5988,16 @@
         <v>116</v>
       </c>
       <c r="B25" t="n">
-        <v>9.425000000000001</v>
+        <v>9.555</v>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>335</v>
       </c>
       <c r="D25" t="n">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="E25" t="n">
-        <v>0.04602785639571307</v>
+        <v>3.02239565121441</v>
       </c>
       <c r="F25" t="n">
         <v>0.09194657402897673</v>
@@ -5982,16 +6017,16 @@
         <v>70</v>
       </c>
       <c r="B26" t="n">
-        <v>9.52</v>
+        <v>9.65</v>
       </c>
       <c r="C26" t="n">
-        <v>63715</v>
+        <v>54540</v>
       </c>
       <c r="D26" t="n">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="E26" t="n">
-        <v>616.1569073938452</v>
+        <v>516.6961042644416</v>
       </c>
       <c r="F26" t="n">
         <v>460.9194217210015</v>
@@ -6011,13 +6046,13 @@
         <v>117</v>
       </c>
       <c r="B27" t="n">
-        <v>9.589</v>
+        <v>9.709</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -6040,16 +6075,16 @@
         <v>118</v>
       </c>
       <c r="B28" t="n">
-        <v>9.68</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>475</v>
+        <v>155</v>
       </c>
       <c r="D28" t="n">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="E28" t="n">
-        <v>4.930399915243862</v>
+        <v>1.576775536254019</v>
       </c>
       <c r="F28" t="n">
         <v>6.809917289472142</v>
@@ -6069,13 +6104,13 @@
         <v>119</v>
       </c>
       <c r="B29" t="n">
-        <v>9.742000000000001</v>
+        <v>9.872</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -6098,16 +6133,16 @@
         <v>71</v>
       </c>
       <c r="B30" t="n">
-        <v>9.82</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>41340</v>
+        <v>51800</v>
       </c>
       <c r="D30" t="n">
-        <v>1836</v>
+        <v>1834</v>
       </c>
       <c r="E30" t="n">
-        <v>448.9407608444234</v>
+        <v>549.2073428741895</v>
       </c>
       <c r="F30" t="n">
         <v>315.8853773332613</v>
@@ -6127,16 +6162,16 @@
         <v>120</v>
       </c>
       <c r="B31" t="n">
-        <v>9.914999999999999</v>
+        <v>10.07</v>
       </c>
       <c r="C31" t="n">
-        <v>1460</v>
+        <v>140</v>
       </c>
       <c r="D31" t="n">
-        <v>2089</v>
+        <v>2087</v>
       </c>
       <c r="E31" t="n">
-        <v>16.28942729039825</v>
+        <v>1.52249487197515</v>
       </c>
       <c r="F31" t="n">
         <v>0.7853746341039872</v>
@@ -6156,16 +6191,16 @@
         <v>72</v>
       </c>
       <c r="B32" t="n">
-        <v>10.02</v>
+        <v>10.18</v>
       </c>
       <c r="C32" t="n">
-        <v>24170</v>
+        <v>18605</v>
       </c>
       <c r="D32" t="n">
-        <v>2339</v>
+        <v>2337</v>
       </c>
       <c r="E32" t="n">
-        <v>272.2241757873098</v>
+        <v>203.8913012463062</v>
       </c>
       <c r="F32" t="n">
         <v>263.4994746808906</v>
@@ -6185,13 +6220,13 @@
         <v>121</v>
       </c>
       <c r="B33" t="n">
-        <v>10.056</v>
+        <v>10.216</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>2590</v>
+        <v>2588</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -6214,16 +6249,16 @@
         <v>122</v>
       </c>
       <c r="B34" t="n">
-        <v>10.072</v>
+        <v>10.232</v>
       </c>
       <c r="C34" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>2839</v>
+        <v>2837</v>
       </c>
       <c r="E34" t="n">
-        <v>3.542367594033517</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -6243,13 +6278,13 @@
         <v>123</v>
       </c>
       <c r="B35" t="n">
-        <v>10.11</v>
+        <v>10.27</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>3089</v>
+        <v>3087</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -6318,28 +6353,28 @@
         <v>132</v>
       </c>
       <c r="B2" t="n">
-        <v>5814632</v>
+        <v>5943939</v>
       </c>
       <c r="C2" t="n">
-        <v>26.23</v>
+        <v>26.8</v>
       </c>
       <c r="D2" t="n">
-        <v>-325845</v>
+        <v>-15650</v>
       </c>
       <c r="E2" t="n">
-        <v>6900828</v>
+        <v>6922605</v>
       </c>
       <c r="F2" t="n">
-        <v>31.14</v>
+        <v>31.21</v>
       </c>
       <c r="G2" t="n">
-        <v>111941</v>
+        <v>-16010</v>
       </c>
       <c r="H2" t="n">
-        <v>-1086196</v>
+        <v>-978666</v>
       </c>
       <c r="I2" t="n">
-        <v>-437786</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -6347,28 +6382,28 @@
         <v>133</v>
       </c>
       <c r="B3" t="n">
-        <v>5803922</v>
+        <v>5933229</v>
       </c>
       <c r="C3" t="n">
-        <v>26.19</v>
+        <v>26.75</v>
       </c>
       <c r="D3" t="n">
-        <v>-325845</v>
+        <v>-15595</v>
       </c>
       <c r="E3" t="n">
-        <v>6726378</v>
+        <v>6747255</v>
       </c>
       <c r="F3" t="n">
-        <v>30.35</v>
+        <v>30.42</v>
       </c>
       <c r="G3" t="n">
-        <v>111446</v>
+        <v>-15595</v>
       </c>
       <c r="H3" t="n">
-        <v>-922456</v>
+        <v>-814026</v>
       </c>
       <c r="I3" t="n">
-        <v>-437291</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -6382,7 +6417,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-55</v>
       </c>
       <c r="E4" t="n">
         <v>1920</v>
@@ -6391,13 +6426,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="H4" t="n">
         <v>-1920</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>945</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -6414,19 +6449,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>172530</v>
+        <v>173430</v>
       </c>
       <c r="F5" t="n">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="G5" t="n">
-        <v>495</v>
+        <v>585</v>
       </c>
       <c r="H5" t="n">
-        <v>-161820</v>
+        <v>-162720</v>
       </c>
       <c r="I5" t="n">
-        <v>-495</v>
+        <v>-585</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -6434,28 +6469,28 @@
         <v>136</v>
       </c>
       <c r="B6" t="n">
-        <v>11927549</v>
+        <v>11579064</v>
       </c>
       <c r="C6" t="n">
-        <v>53.82</v>
+        <v>52.21</v>
       </c>
       <c r="D6" t="n">
-        <v>185372</v>
+        <v>-96152</v>
       </c>
       <c r="E6" t="n">
-        <v>10468690</v>
+        <v>10346288</v>
       </c>
       <c r="F6" t="n">
-        <v>47.24</v>
+        <v>46.65</v>
       </c>
       <c r="G6" t="n">
-        <v>-168498</v>
+        <v>33012</v>
       </c>
       <c r="H6" t="n">
-        <v>1458859</v>
+        <v>1232776</v>
       </c>
       <c r="I6" t="n">
-        <v>353870</v>
+        <v>-129164</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -6463,28 +6498,28 @@
         <v>137</v>
       </c>
       <c r="B7" t="n">
-        <v>11927549</v>
+        <v>11579064</v>
       </c>
       <c r="C7" t="n">
-        <v>53.82</v>
+        <v>52.21</v>
       </c>
       <c r="D7" t="n">
-        <v>185372</v>
+        <v>-96152</v>
       </c>
       <c r="E7" t="n">
-        <v>10468690</v>
+        <v>10346288</v>
       </c>
       <c r="F7" t="n">
-        <v>47.24</v>
+        <v>46.65</v>
       </c>
       <c r="G7" t="n">
-        <v>-168498</v>
+        <v>33012</v>
       </c>
       <c r="H7" t="n">
-        <v>1458859</v>
+        <v>1232776</v>
       </c>
       <c r="I7" t="n">
-        <v>353870</v>
+        <v>-129164</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -6492,28 +6527,28 @@
         <v>138</v>
       </c>
       <c r="B8" t="n">
-        <v>4372051</v>
+        <v>4606836</v>
       </c>
       <c r="C8" t="n">
-        <v>19.72</v>
+        <v>20.77</v>
       </c>
       <c r="D8" t="n">
-        <v>149006</v>
+        <v>30454</v>
       </c>
       <c r="E8" t="n">
-        <v>4763359</v>
+        <v>4879084</v>
       </c>
       <c r="F8" t="n">
-        <v>21.49</v>
+        <v>22</v>
       </c>
       <c r="G8" t="n">
-        <v>64929</v>
+        <v>-100185</v>
       </c>
       <c r="H8" t="n">
-        <v>-391308</v>
+        <v>-272248</v>
       </c>
       <c r="I8" t="n">
-        <v>84077</v>
+        <v>130639</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -6527,22 +6562,22 @@
         <v>0.11</v>
       </c>
       <c r="D9" t="n">
-        <v>573</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>20951</v>
+        <v>23093</v>
       </c>
       <c r="F9" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="G9" t="n">
-        <v>-66</v>
+        <v>2190</v>
       </c>
       <c r="H9" t="n">
-        <v>4675</v>
+        <v>2533</v>
       </c>
       <c r="I9" t="n">
-        <v>639</v>
+        <v>-2190</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -6550,28 +6585,28 @@
         <v>140</v>
       </c>
       <c r="B10" t="n">
-        <v>20500</v>
+        <v>21725</v>
       </c>
       <c r="C10" t="n">
         <v>0.09</v>
       </c>
       <c r="D10" t="n">
-        <v>1275</v>
+        <v>-1870</v>
       </c>
       <c r="E10" t="n">
-        <v>6530</v>
+        <v>6120</v>
       </c>
       <c r="F10" t="n">
         <v>0.02</v>
       </c>
       <c r="G10" t="n">
-        <v>2075</v>
+        <v>-2225</v>
       </c>
       <c r="H10" t="n">
-        <v>13970</v>
+        <v>15605</v>
       </c>
       <c r="I10" t="n">
-        <v>-800</v>
+        <v>355</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -6579,22 +6614,22 @@
         <v>141</v>
       </c>
       <c r="B11" t="n">
-        <v>22160358</v>
+        <v>22177190</v>
       </c>
       <c r="C11" t="n">
         <v>100</v>
       </c>
       <c r="D11" t="n">
-        <v>10381</v>
+        <v>-83218</v>
       </c>
       <c r="E11" t="n">
-        <v>22160358</v>
+        <v>22177190</v>
       </c>
       <c r="F11" t="n">
         <v>100</v>
       </c>
       <c r="G11" t="n">
-        <v>10381</v>
+        <v>-83218</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -6616,8 +6651,8 @@
   </sheetPr>
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -6647,7 +6682,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="35" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.375</v>
       </c>
       <c r="B2" t="s">
         <v>148</v>
@@ -6667,29 +6702,43 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="35" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.3958333333333333</v>
       </c>
       <c r="B3" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="35" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="B4" t="s">
         <v>153</v>
       </c>
-      <c r="D3" s="35" t="s">
-        <v>154</v>
-      </c>
-      <c r="E3" s="31" t="s">
+      <c r="C4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D4" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="F3" s="35" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="35" t="n"/>
-      <c r="D4" s="35" t="n"/>
-      <c r="E4" s="32" t="n"/>
-      <c r="F4" s="35" t="n"/>
+      <c r="E4" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="35" t="n"/>

--- a/data/indicators_input.xlsx
+++ b/data/indicators_input.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="EstaPasta_de_trabalho"/>
   <bookViews>
-    <workbookView activeTab="3"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="indicators" sheetId="1" state="visible" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="178">
   <si>
     <t>Index</t>
   </si>
@@ -473,40 +473,55 @@
     <t>BZ</t>
   </si>
   <si>
-    <t>Services Volume</t>
-  </si>
-  <si>
-    <t>July</t>
-  </si>
-  <si>
-    <t>-1,9% YoY</t>
+    <t>Inflation Report</t>
+  </si>
+  <si>
+    <t>Sep</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>IPC-15</t>
+  </si>
+  <si>
+    <t>0,13% mom</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>Initial Jobless Claims</t>
+  </si>
+  <si>
+    <t>Sep 16</t>
+  </si>
+  <si>
+    <t>302 k</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Leading index</t>
+  </si>
+  <si>
+    <t>Aug</t>
+  </si>
+  <si>
+    <t>0,3% mom</t>
+  </si>
+  <si>
+    <t>Jobs Creation</t>
+  </si>
+  <si>
+    <t>60 k</t>
   </si>
   <si>
     <t>Medium</t>
-  </si>
-  <si>
-    <t>US</t>
-  </si>
-  <si>
-    <t>PPI Final Demand</t>
-  </si>
-  <si>
-    <t>Aug</t>
-  </si>
-  <si>
-    <t>0,3% mom</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>Monthly Budget</t>
-  </si>
-  <si>
-    <t>USD 119 b</t>
-  </si>
-  <si>
-    <t>Low</t>
   </si>
   <si>
     <t>Contract</t>
@@ -1072,8 +1087,8 @@
   </sheetPr>
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -1093,66 +1108,78 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="21" t="n">
-        <v>183.836</v>
-      </c>
-      <c r="C2" s="27" t="n">
-        <v>0.4980000000000189</v>
+      <c r="B2" s="21">
+        <f>bloomberg!B2</f>
+        <v/>
+      </c>
+      <c r="C2" s="27">
+        <f>bloomberg!D2</f>
+        <v/>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="21" t="n">
-        <v>12532.54</v>
-      </c>
-      <c r="C3" s="27" t="n">
-        <v>0.06203706734735359</v>
+      <c r="B3" s="21">
+        <f>bloomberg!B3</f>
+        <v/>
+      </c>
+      <c r="C3" s="27">
+        <f>bloomberg!D3</f>
+        <v/>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="21" t="n">
-        <v>2.1593438</v>
-      </c>
-      <c r="C4" s="27" t="n">
-        <v>-0.008656200000000336</v>
+      <c r="B4" s="21">
+        <f>bloomberg!B4</f>
+        <v/>
+      </c>
+      <c r="C4" s="27">
+        <f>bloomberg!D4</f>
+        <v/>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="21" t="n">
-        <v>2491.9</v>
-      </c>
-      <c r="C5" s="27" t="n">
-        <v>-0.09221393633227493</v>
+      <c r="B5" s="21">
+        <f>bloomberg!B5</f>
+        <v/>
+      </c>
+      <c r="C5" s="27">
+        <f>bloomberg!D5</f>
+        <v/>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="21" t="n">
-        <v>1.1976</v>
-      </c>
-      <c r="C6" s="27" t="n">
-        <v>0.07520681875154978</v>
+      <c r="B6" s="21">
+        <f>bloomberg!B6</f>
+        <v/>
+      </c>
+      <c r="C6" s="27">
+        <f>bloomberg!D6</f>
+        <v/>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="21" t="n">
-        <v>17.778</v>
-      </c>
-      <c r="C7" s="27" t="n">
-        <v>0.2831710646555186</v>
+      <c r="B7" s="21">
+        <f>bloomberg!B7</f>
+        <v/>
+      </c>
+      <c r="C7" s="27">
+        <f>bloomberg!D7</f>
+        <v/>
       </c>
       <c r="H7" s="29" t="n"/>
     </row>
@@ -1160,44 +1187,52 @@
       <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="21" t="n">
-        <v>48.59</v>
-      </c>
-      <c r="C8" s="27" t="n">
-        <v>0.7464233879328264</v>
+      <c r="B8" s="21">
+        <f>bloomberg!B8</f>
+        <v/>
+      </c>
+      <c r="C8" s="27">
+        <f>bloomberg!D8</f>
+        <v/>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="21" t="n">
-        <v>541.5</v>
-      </c>
-      <c r="C9" s="27" t="n">
-        <v>1.026119402985071</v>
+      <c r="B9" s="21">
+        <f>bloomberg!B9</f>
+        <v/>
+      </c>
+      <c r="C9" s="27">
+        <f>bloomberg!D9</f>
+        <v/>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="21" t="n">
-        <v>955</v>
-      </c>
-      <c r="C10" s="27" t="n">
-        <v>0.4734350341925264</v>
+      <c r="B10" s="21">
+        <f>bloomberg!B10</f>
+        <v/>
+      </c>
+      <c r="C10" s="27">
+        <f>bloomberg!D10</f>
+        <v/>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="21" t="n">
-        <v>10.76</v>
-      </c>
-      <c r="C11" s="27" t="n">
-        <v>0.1799999999999997</v>
+      <c r="B11" s="21">
+        <f>bloomberg!B11</f>
+        <v/>
+      </c>
+      <c r="C11" s="27">
+        <f>bloomberg!D11</f>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -1214,7 +1249,7 @@
   <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -1227,19 +1262,19 @@
   <sheetData>
     <row customHeight="1" ht="15.75" r="1" s="33" spans="1:5" thickBot="1">
       <c r="A1" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B1" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C1" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="D1" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E1" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="2" s="33" spans="1:5" thickBot="1">
@@ -1247,16 +1282,16 @@
         <v>97</v>
       </c>
       <c r="B2" s="17" t="n">
-        <v>3187750</v>
+        <v>2587704</v>
       </c>
       <c r="C2" s="15" t="n">
-        <v>3033043</v>
+        <v>2602435</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>-154707</v>
+        <v>14731</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>20209435.036</v>
+        <v>5440465.432</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="3" s="33" spans="1:5" thickBot="1">
@@ -1264,16 +1299,16 @@
         <v>98</v>
       </c>
       <c r="B3" s="17" t="n">
-        <v>314755</v>
+        <v>329079</v>
       </c>
       <c r="C3" s="15" t="n">
-        <v>313285</v>
+        <v>352786</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>-1470</v>
+        <v>23707</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>1611546.011</v>
+        <v>4629633.623</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="4" s="33" spans="1:5" thickBot="1">
@@ -1281,16 +1316,16 @@
         <v>99</v>
       </c>
       <c r="B4" s="17" t="n">
-        <v>281270</v>
+        <v>313460</v>
       </c>
       <c r="C4" s="15" t="n">
-        <v>302345</v>
+        <v>318460</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>21075</v>
+        <v>5000</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>3337178.704</v>
+        <v>3705065.489</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="5" s="33" spans="1:5" thickBot="1">
@@ -1298,16 +1333,16 @@
         <v>66</v>
       </c>
       <c r="B5" s="17" t="n">
-        <v>4252228</v>
+        <v>4494712</v>
       </c>
       <c r="C5" s="15" t="n">
-        <v>4264626</v>
+        <v>4655542</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>12398</v>
+        <v>160830</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>32519224.907</v>
+        <v>36073711.188</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="6" s="33" spans="1:5" thickBot="1">
@@ -1315,16 +1350,16 @@
         <v>100</v>
       </c>
       <c r="B6" s="17" t="n">
-        <v>75660</v>
+        <v>78070</v>
       </c>
       <c r="C6" s="15" t="n">
-        <v>75670</v>
+        <v>78435</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>10</v>
+        <v>365</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>972.546</v>
+        <v>35564.318</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="7" s="33" spans="1:5" thickBot="1">
@@ -1332,16 +1367,16 @@
         <v>101</v>
       </c>
       <c r="B7" s="17" t="n">
-        <v>64670</v>
+        <v>67000</v>
       </c>
       <c r="C7" s="15" t="n">
-        <v>66220</v>
+        <v>71675</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>1550</v>
+        <v>4675</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>174181.553</v>
+        <v>960001.375</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="8" s="33" spans="1:5" thickBot="1">
@@ -1349,21 +1384,21 @@
         <v>102</v>
       </c>
       <c r="B8" s="17" t="n">
-        <v>1348028</v>
+        <v>1521796</v>
       </c>
       <c r="C8" s="15" t="n">
-        <v>1437833</v>
+        <v>1579854</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>89805</v>
+        <v>58058</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>12799866.853</v>
+        <v>17248337.811</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="9" s="33" spans="1:5" thickBot="1">
       <c r="A9" s="14" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B9" s="17" t="n">
         <v>27105</v>
@@ -1375,24 +1410,24 @@
         <v>0</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>0</v>
+        <v>175016.578</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="10" s="33" spans="1:5" thickBot="1">
       <c r="A10" s="14" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B10" s="17" t="n">
-        <v>36370</v>
+        <v>36470</v>
       </c>
       <c r="C10" s="15" t="n">
-        <v>36370</v>
+        <v>39585</v>
       </c>
       <c r="D10" s="3" t="n">
-        <v>0</v>
+        <v>3115</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>38521.04</v>
+        <v>344701.989</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="11" s="33" spans="1:5" thickBot="1">
@@ -1400,38 +1435,38 @@
         <v>103</v>
       </c>
       <c r="B11" s="17" t="n">
-        <v>1502168</v>
+        <v>1512649</v>
       </c>
       <c r="C11" s="15" t="n">
-        <v>1514429</v>
+        <v>1527504</v>
       </c>
       <c r="D11" s="3" t="n">
-        <v>12261</v>
+        <v>14855</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>10267097.326</v>
+        <v>12260497.708</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="12" s="33" spans="1:5" thickBot="1">
       <c r="A12" s="14" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B12" s="17" t="n">
-        <v>5485</v>
+        <v>9255</v>
       </c>
       <c r="C12" s="15" t="n">
         <v>9255</v>
       </c>
       <c r="D12" s="3" t="n">
-        <v>3770</v>
+        <v>0</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>452315.514</v>
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="13" s="33" spans="1:5" thickBot="1">
       <c r="A13" s="14" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B13" s="17" t="n">
         <v>4350</v>
@@ -1443,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>342395.953</v>
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="14" s="33" spans="1:5" thickBot="1">
@@ -1451,16 +1486,16 @@
         <v>104</v>
       </c>
       <c r="B14" s="17" t="n">
-        <v>642940</v>
+        <v>630623</v>
       </c>
       <c r="C14" s="15" t="n">
-        <v>638885</v>
+        <v>632003</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>-4055</v>
+        <v>1380</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>1659863.432</v>
+        <v>1550223.965</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="15" s="33" spans="1:5" thickBot="1">
@@ -1468,16 +1503,16 @@
         <v>68</v>
       </c>
       <c r="B15" s="17" t="n">
-        <v>2147437</v>
+        <v>2066511</v>
       </c>
       <c r="C15" s="15" t="n">
-        <v>2109415</v>
+        <v>2058721</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>-38022</v>
+        <v>-7790</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>38376315.35</v>
+        <v>42109060.587</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="16" s="33" spans="1:5" thickBot="1">
@@ -1485,16 +1520,16 @@
         <v>105</v>
       </c>
       <c r="B16" s="17" t="n">
-        <v>576701</v>
+        <v>560787</v>
       </c>
       <c r="C16" s="15" t="n">
-        <v>578975</v>
+        <v>540860</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>2274</v>
+        <v>-19927</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>691925.173</v>
+        <v>5933543.96</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="17" s="33" spans="1:5" thickBot="1">
@@ -1502,16 +1537,16 @@
         <v>106</v>
       </c>
       <c r="B17" s="17" t="n">
-        <v>589021</v>
+        <v>586307</v>
       </c>
       <c r="C17" s="15" t="n">
-        <v>591806</v>
+        <v>585021</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>2785</v>
+        <v>-1286</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>1732793.194</v>
+        <v>3420918.589</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="18" s="33" spans="1:5" thickBot="1">
@@ -1519,16 +1554,16 @@
         <v>107</v>
       </c>
       <c r="B18" s="17" t="n">
-        <v>268734</v>
+        <v>275398</v>
       </c>
       <c r="C18" s="15" t="n">
-        <v>277224</v>
+        <v>276953</v>
       </c>
       <c r="D18" s="3" t="n">
-        <v>8490</v>
+        <v>1555</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>1068127.179</v>
+        <v>1211796.01</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="19" s="33" spans="1:5" thickBot="1">
@@ -1536,16 +1571,16 @@
         <v>108</v>
       </c>
       <c r="B19" s="17" t="n">
-        <v>1756082</v>
+        <v>1729585</v>
       </c>
       <c r="C19" s="15" t="n">
-        <v>1714233</v>
+        <v>1747528</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>-41849</v>
+        <v>17943</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>16352948.381</v>
+        <v>26627222.121</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="20" s="33" spans="1:5" thickBot="1">
@@ -1553,16 +1588,16 @@
         <v>109</v>
       </c>
       <c r="B20" s="17" t="n">
-        <v>74099</v>
+        <v>74644</v>
       </c>
       <c r="C20" s="15" t="n">
-        <v>74149</v>
+        <v>74634</v>
       </c>
       <c r="D20" s="3" t="n">
-        <v>50</v>
+        <v>-10</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>28397.152</v>
+        <v>35509.537</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="21" s="33" spans="1:5" thickBot="1">
@@ -1570,16 +1605,16 @@
         <v>110</v>
       </c>
       <c r="B21" s="17" t="n">
-        <v>1326281</v>
+        <v>1322165</v>
       </c>
       <c r="C21" s="15" t="n">
-        <v>1323902</v>
+        <v>1325280</v>
       </c>
       <c r="D21" s="3" t="n">
-        <v>-2379</v>
+        <v>3115</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>2031882.095</v>
+        <v>3336625.561</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="22" s="33" spans="1:5" thickBot="1">
@@ -1587,16 +1622,16 @@
         <v>111</v>
       </c>
       <c r="B22" s="17" t="n">
-        <v>50260</v>
+        <v>49523</v>
       </c>
       <c r="C22" s="15" t="n">
-        <v>49575</v>
+        <v>49808</v>
       </c>
       <c r="D22" s="3" t="n">
-        <v>-685</v>
+        <v>285</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>213767.181</v>
+        <v>64913.898</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="23" s="33" spans="1:5" thickBot="1">
@@ -1604,16 +1639,16 @@
         <v>69</v>
       </c>
       <c r="B23" s="17" t="n">
-        <v>1454093</v>
+        <v>1460763</v>
       </c>
       <c r="C23" s="15" t="n">
-        <v>1473293</v>
+        <v>1476081</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>19200</v>
+        <v>15318</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>16463789.933</v>
+        <v>17916082.555</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="24" s="33" spans="1:5" thickBot="1">
@@ -1621,16 +1656,16 @@
         <v>112</v>
       </c>
       <c r="B24" s="17" t="n">
-        <v>33905</v>
+        <v>33843</v>
       </c>
       <c r="C24" s="15" t="n">
-        <v>34070</v>
+        <v>35188</v>
       </c>
       <c r="D24" s="3" t="n">
-        <v>165</v>
+        <v>1345</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>34510.145</v>
+        <v>116504.037</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="25" s="33" spans="1:5" thickBot="1">
@@ -1638,16 +1673,16 @@
         <v>113</v>
       </c>
       <c r="B25" s="17" t="n">
-        <v>262316</v>
+        <v>258180</v>
       </c>
       <c r="C25" s="15" t="n">
-        <v>263670</v>
+        <v>259170</v>
       </c>
       <c r="D25" s="3" t="n">
-        <v>1354</v>
+        <v>990</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>2341516.442</v>
+        <v>506435.259</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="26" s="33" spans="1:5" thickBot="1">
@@ -1655,16 +1690,16 @@
         <v>114</v>
       </c>
       <c r="B26" s="17" t="n">
-        <v>17112</v>
+        <v>17310</v>
       </c>
       <c r="C26" s="15" t="n">
-        <v>17152</v>
+        <v>17400</v>
       </c>
       <c r="D26" s="3" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>10110.891</v>
+        <v>9495.68</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="27" s="33" spans="1:5" thickBot="1">
@@ -1672,21 +1707,21 @@
         <v>115</v>
       </c>
       <c r="B27" s="17" t="n">
-        <v>112619</v>
+        <v>111482</v>
       </c>
       <c r="C27" s="15" t="n">
-        <v>111259</v>
+        <v>109887</v>
       </c>
       <c r="D27" s="3" t="n">
-        <v>-1360</v>
+        <v>-1595</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>546872.081</v>
+        <v>653753.612</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="28" s="33" spans="1:5" thickBot="1">
       <c r="A28" s="14" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B28" s="17" t="n">
         <v>1590</v>
@@ -1706,16 +1741,16 @@
         <v>116</v>
       </c>
       <c r="B29" s="17" t="n">
-        <v>12000</v>
+        <v>12025</v>
       </c>
       <c r="C29" s="15" t="n">
-        <v>12005</v>
+        <v>12025</v>
       </c>
       <c r="D29" s="3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>21666.346</v>
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="30" s="33" spans="1:5" thickBot="1">
@@ -1723,16 +1758,16 @@
         <v>70</v>
       </c>
       <c r="B30" s="17" t="n">
-        <v>767716</v>
+        <v>777894</v>
       </c>
       <c r="C30" s="15" t="n">
-        <v>769691</v>
+        <v>772014</v>
       </c>
       <c r="D30" s="3" t="n">
-        <v>1975</v>
+        <v>-5880</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>3354057.687</v>
+        <v>3674693.779</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="31" s="33" spans="1:5" thickBot="1">
@@ -1757,16 +1792,16 @@
         <v>118</v>
       </c>
       <c r="B32" s="17" t="n">
-        <v>56990</v>
+        <v>56855</v>
       </c>
       <c r="C32" s="15" t="n">
-        <v>56860</v>
+        <v>56755</v>
       </c>
       <c r="D32" s="3" t="n">
-        <v>-130</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>8618.853999999999</v>
+        <v>7306.278</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="33" s="33" spans="1:5" thickBot="1">
@@ -1791,16 +1826,16 @@
         <v>71</v>
       </c>
       <c r="B34" s="17" t="n">
-        <v>520495</v>
+        <v>488916</v>
       </c>
       <c r="C34" s="15" t="n">
-        <v>505384</v>
+        <v>479980</v>
       </c>
       <c r="D34" s="3" t="n">
-        <v>-15111</v>
+        <v>-8936</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>2596384.424</v>
+        <v>2280021.076</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="35" s="33" spans="1:5" thickBot="1">
@@ -1808,16 +1843,16 @@
         <v>120</v>
       </c>
       <c r="B35" s="17" t="n">
-        <v>62593</v>
+        <v>62563</v>
       </c>
       <c r="C35" s="15" t="n">
-        <v>62593</v>
+        <v>62568</v>
       </c>
       <c r="D35" s="3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>6329.407</v>
+        <v>2518.052</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="36" s="33" spans="1:5" thickBot="1">
@@ -1825,16 +1860,16 @@
         <v>72</v>
       </c>
       <c r="B36" s="18" t="n">
-        <v>414363</v>
+        <v>420281</v>
       </c>
       <c r="C36" s="16" t="n">
-        <v>413706</v>
+        <v>422854</v>
       </c>
       <c r="D36" s="3" t="n">
-        <v>-657</v>
+        <v>2573</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>758345.597</v>
+        <v>1317233.67</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="37" s="33" spans="1:5" thickBot="1">
@@ -1862,13 +1897,13 @@
         <v>4562</v>
       </c>
       <c r="C38" s="16" t="n">
-        <v>4562</v>
+        <v>4607</v>
       </c>
       <c r="D38" s="3" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>0</v>
+        <v>1516.75</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="39" s="33" spans="1:5" thickBot="1">
@@ -1910,17 +1945,17 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B1" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -1938,7 +1973,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -1965,17 +2000,14 @@
       <c r="A2" t="s">
         <v>16</v>
       </c>
-      <c r="B2">
-        <f>_xll.BDP($A2,$J$5)</f>
-        <v/>
-      </c>
-      <c r="C2">
-        <f>_xll.BDH($A2,$J$5,$K$2,$K$2)</f>
-        <v/>
-      </c>
-      <c r="D2">
-        <f>IF(AND(ISNUMBER(B2),ISNUMBER(C2)),B2-C2, 0)</f>
-        <v/>
+      <c r="B2" t="n">
+        <v>203.068</v>
+      </c>
+      <c r="C2" t="n">
+        <v>202.068</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
       </c>
       <c r="J2" t="s">
         <v>17</v>
@@ -1989,17 +2021,14 @@
       <c r="A3" t="s">
         <v>18</v>
       </c>
-      <c r="B3">
-        <f>_xll.BDP($A3,$J$5)</f>
-        <v/>
-      </c>
-      <c r="C3">
-        <f>_xll.BDH($A3,$J$5,$K$2,$K$2)</f>
-        <v/>
-      </c>
-      <c r="D3">
-        <f>IF(AND(ISNUMBER(B3),ISNUMBER(C3)),(B3/C3-1)*100, 0)</f>
-        <v/>
+      <c r="B3" t="n">
+        <v>12609.18</v>
+      </c>
+      <c r="C3" t="n">
+        <v>12569.17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3183185524581189</v>
       </c>
       <c r="J3" t="s">
         <v>19</v>
@@ -2009,34 +2038,28 @@
       <c r="A4" t="s">
         <v>20</v>
       </c>
-      <c r="B4">
-        <f>_xll.BDP($A4,$J$6)</f>
-        <v/>
-      </c>
-      <c r="C4">
-        <f>_xll.BDH($A4,$J$5,$K$2,$K$2)</f>
-        <v/>
-      </c>
-      <c r="D4">
-        <f>IF(AND(ISNUMBER(B4),ISNUMBER(C4)),B4-C4, 0)</f>
-        <v/>
+      <c r="B4" t="n">
+        <v>2.2755784</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.268</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.007578400000000318</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="B5">
-        <f>_xll.BDP($A5,$J$5)</f>
-        <v/>
-      </c>
-      <c r="C5">
-        <f>_xll.BDH($A5,$J$5,$K$2,$K$2)</f>
-        <v/>
-      </c>
-      <c r="D5">
-        <f>IF(AND(ISNUMBER(B5),ISNUMBER(C5)),(B5/C5-1)*100, 0)</f>
-        <v/>
+      <c r="B5" t="n">
+        <v>2503.7</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2505.2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-0.05987545904518887</v>
       </c>
       <c r="J5" t="s">
         <v>14</v>
@@ -2046,17 +2069,14 @@
       <c r="A6" t="s">
         <v>22</v>
       </c>
-      <c r="B6">
-        <f>_xll.BDP($A6,$J$5)</f>
-        <v/>
-      </c>
-      <c r="C6">
-        <f>_xll.BDH($A6,$J$5,$K$2,$K$2)</f>
-        <v/>
-      </c>
-      <c r="D6">
-        <f>IF(AND(ISNUMBER(B6),ISNUMBER(C6)),(B6/C6-1)*100, 0)</f>
-        <v/>
+      <c r="B6" t="n">
+        <v>1.1914</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.1892</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.184998318197116</v>
       </c>
       <c r="J6" t="s">
         <v>23</v>
@@ -2066,85 +2086,70 @@
       <c r="A7" t="s">
         <v>24</v>
       </c>
-      <c r="B7">
-        <f>_xll.BDP($A7,$J$5)</f>
-        <v/>
-      </c>
-      <c r="C7">
-        <f>_xll.BDH($A7,$J$5,$K$2,$K$2)</f>
-        <v/>
-      </c>
-      <c r="D7">
-        <f>IF(AND(ISNUMBER(B7),ISNUMBER(C7)),(B7/C7-1)*100, 0)</f>
-        <v/>
+      <c r="B7" t="n">
+        <v>17.8336</v>
+      </c>
+      <c r="C7" t="n">
+        <v>17.7688</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3646841655035926</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>25</v>
       </c>
-      <c r="B8">
-        <f>_xll.BDP($A8,$J$5)</f>
-        <v/>
-      </c>
-      <c r="C8">
-        <f>_xll.BDH($A8,$J$5,$K$2,$K$2)</f>
-        <v/>
-      </c>
-      <c r="D8">
-        <f>IF(AND(ISNUMBER(B8),ISNUMBER(C8)),(B8/C8-1)*100, 0)</f>
-        <v/>
+      <c r="B8" t="n">
+        <v>50.49</v>
+      </c>
+      <c r="C8" t="n">
+        <v>50.69</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-0.3945551390806767</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>26</v>
       </c>
-      <c r="B9">
-        <f>_xll.BDP($A9,$J$5)</f>
-        <v/>
-      </c>
-      <c r="C9">
-        <f>_xll.BDH($A9,$J$5,$K$2,$K$2)</f>
-        <v/>
-      </c>
-      <c r="D9">
-        <f>IF(AND(ISNUMBER(B9),ISNUMBER(C9)),(B9/C9-1)*100, 0)</f>
-        <v/>
+      <c r="B9" t="n">
+        <v>485.5</v>
+      </c>
+      <c r="C9" t="n">
+        <v>495.5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-2.018163471241174</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>27</v>
       </c>
-      <c r="B10">
-        <f>_xll.BDP($A10,$J$5)</f>
-        <v/>
-      </c>
-      <c r="C10">
-        <f>_xll.BDH($A10,$J$5,$K$2,$K$2)</f>
-        <v/>
-      </c>
-      <c r="D10">
-        <f>IF(AND(ISNUMBER(B10),ISNUMBER(C10)),(B10/C10-1)*100, 0)</f>
-        <v/>
+      <c r="B10" t="n">
+        <v>963.25</v>
+      </c>
+      <c r="C10" t="n">
+        <v>970</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-0.6958762886597913</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>28</v>
       </c>
-      <c r="B11">
-        <f>_xll.BDP($A11,$J$5)</f>
-        <v/>
-      </c>
-      <c r="C11">
-        <f>_xll.BDH($A11,$J$5,$K$2,$K$2)</f>
-        <v/>
-      </c>
-      <c r="D11">
-        <f>IF(AND(ISNUMBER(B11),ISNUMBER(C11)),B11-C11, 0)</f>
-        <v/>
+      <c r="B11" t="n">
+        <v>9.710000000000001</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9.779999999999999</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-0.06999999999999851</v>
       </c>
     </row>
   </sheetData>
@@ -2161,7 +2166,7 @@
   <dimension ref="A1:F204"/>
   <sheetViews>
     <sheetView topLeftCell="A173" workbookViewId="0">
-      <selection activeCell="A193" sqref="A193"/>
+      <selection activeCell="E198" sqref="E198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -2179,7 +2184,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="11">
-        <f>_xll.BDH(E3,B1,$F4,"","cols=2;rows=195")</f>
+        <f>_xll.BDH(E3,B1,$F4,"","cols=2;rows=201")</f>
         <v/>
       </c>
       <c r="B2" t="n">
@@ -3748,22 +3753,52 @@
       </c>
     </row>
     <row r="197" spans="1:6">
-      <c r="A197" s="20" t="n"/>
+      <c r="A197" s="20" t="n">
+        <v>42991</v>
+      </c>
+      <c r="B197" t="n">
+        <v>9.01</v>
+      </c>
     </row>
     <row r="198" spans="1:6">
-      <c r="A198" s="20" t="n"/>
+      <c r="A198" s="20" t="n">
+        <v>42992</v>
+      </c>
+      <c r="B198" t="n">
+        <v>8.93</v>
+      </c>
     </row>
     <row r="199" spans="1:6">
-      <c r="A199" s="20" t="n"/>
+      <c r="A199" s="20" t="n">
+        <v>42993</v>
+      </c>
+      <c r="B199" t="n">
+        <v>8.970000000000001</v>
+      </c>
     </row>
     <row r="200" spans="1:6">
-      <c r="A200" s="20" t="n"/>
+      <c r="A200" s="20" t="n">
+        <v>42996</v>
+      </c>
+      <c r="B200" t="n">
+        <v>8.94</v>
+      </c>
     </row>
     <row r="201" spans="1:6">
-      <c r="A201" s="20" t="n"/>
+      <c r="A201" s="20" t="n">
+        <v>42997</v>
+      </c>
+      <c r="B201" t="n">
+        <v>8.880000000000001</v>
+      </c>
     </row>
     <row r="202" spans="1:6">
-      <c r="A202" s="20" t="n"/>
+      <c r="A202" s="20" t="n">
+        <v>42998</v>
+      </c>
+      <c r="B202" t="n">
+        <v>8.82</v>
+      </c>
     </row>
     <row r="203" spans="1:6">
       <c r="A203" s="20" t="n"/>
@@ -3784,8 +3819,8 @@
   </sheetPr>
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -3837,34 +3872,34 @@
         <v>44</v>
       </c>
       <c r="C2" s="10" t="n">
-        <v>3.38</v>
+        <v>3.374400000000001</v>
       </c>
       <c r="D2" s="21" t="n">
-        <v>-0.01239999999999991</v>
+        <v>-0.03979999999999956</v>
       </c>
       <c r="E2" s="21" t="n">
-        <v>3.878422189093444</v>
+        <v>3.71250619101815</v>
       </c>
       <c r="F2" s="21" t="n">
-        <v>-0.02698267425063072</v>
+        <v>0.02974035509974993</v>
       </c>
       <c r="G2" s="21" t="n">
-        <v>0</v>
+        <v>3.374400000000001</v>
       </c>
       <c r="H2" s="21" t="n">
-        <v>0</v>
+        <v>3.71250619101815</v>
       </c>
       <c r="I2" s="26" t="n">
-        <v>43986</v>
+        <v>43321</v>
       </c>
       <c r="J2" s="24" t="n">
-        <v>8271.24537405059</v>
+        <v>2617.834413185809</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.2583132376732938</v>
+        <v>-0.7016742855926045</v>
       </c>
       <c r="L2" t="n">
-        <v>0.08711904322483187</v>
+        <v>0.08489842106765239</v>
       </c>
       <c r="P2" s="25" t="s">
         <v>45</v>
@@ -3878,34 +3913,34 @@
         <v>46</v>
       </c>
       <c r="C3" s="10" t="n">
-        <v>3.376500000000001</v>
+        <v>3.342</v>
       </c>
       <c r="D3" s="21" t="n">
-        <v>-0.006299999999999362</v>
+        <v>-0.02800000000000025</v>
       </c>
       <c r="E3" s="21" t="n">
-        <v>4.372932561586218</v>
+        <v>4.157562806234871</v>
       </c>
       <c r="F3" s="21" t="n">
-        <v>-0.003529669331614471</v>
+        <v>0.004775046769811553</v>
       </c>
       <c r="G3" s="21" t="n">
-        <v>3.376500000000001</v>
+        <v>3.299837698814412</v>
       </c>
       <c r="H3" s="21" t="n">
-        <v>3.376500000000001</v>
+        <v>4.739789013673779</v>
       </c>
       <c r="I3" s="26" t="n">
-        <v>44196</v>
+        <v>43570</v>
       </c>
       <c r="J3" s="24" t="n">
-        <v>10183.8654517294</v>
+        <v>4769.904091632866</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.1835595770836862</v>
+        <v>-0.4042787202717529</v>
       </c>
       <c r="L3" t="n">
-        <v>0.09019450790863072</v>
+        <v>0.08819123508168437</v>
       </c>
       <c r="P3" s="25">
         <f>"B"&amp;TEXT(O3,"A")</f>
@@ -3920,34 +3955,34 @@
         <v>47</v>
       </c>
       <c r="C4" s="10" t="n">
-        <v>4.04</v>
+        <v>3.97</v>
       </c>
       <c r="D4" s="21" t="n">
-        <v>0.02000000000000057</v>
+        <v>-0.02049999999999969</v>
       </c>
       <c r="E4" s="21" t="n">
-        <v>4.571012093557392</v>
+        <v>4.426746974297724</v>
       </c>
       <c r="F4" s="21" t="n">
-        <v>0.005973738316678023</v>
+        <v>-0.03493339916449401</v>
       </c>
       <c r="G4" s="21" t="n">
-        <v>4.04</v>
+        <v>4.824298919248959</v>
       </c>
       <c r="H4" s="21" t="n">
-        <v>4.571012093557392</v>
+        <v>4.791437281164446</v>
       </c>
       <c r="I4" s="26" t="n">
-        <v>44578</v>
+        <v>43987</v>
       </c>
       <c r="J4" s="24" t="n">
-        <v>13227.80792546652</v>
+        <v>8232.675715832436</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.1112549140729058</v>
+        <v>-0.1402742396965084</v>
       </c>
       <c r="L4" t="n">
-        <v>0.09442650770527984</v>
+        <v>0.09242786509388942</v>
       </c>
       <c r="P4" s="25">
         <f>"B"&amp;TEXT(O4,"A")</f>
@@ -3962,34 +3997,34 @@
         <v>48</v>
       </c>
       <c r="C5" s="10" t="n">
-        <v>4.2868</v>
+        <v>4.2164</v>
       </c>
       <c r="D5" s="21" t="n">
-        <v>0.05090000000000025</v>
+        <v>-0.02360000000000001</v>
       </c>
       <c r="E5" s="21" t="n">
-        <v>4.65187789873418</v>
+        <v>4.520487249807936</v>
       </c>
       <c r="F5" s="21" t="n">
-        <v>-0.01183338956780577</v>
+        <v>-0.03231205711804463</v>
       </c>
       <c r="G5" s="21" t="n">
-        <v>5.455486673715537</v>
+        <v>5.382671329368982</v>
       </c>
       <c r="H5" s="21" t="n">
-        <v>5.033065600870201</v>
+        <v>4.962325751563967</v>
       </c>
       <c r="I5" s="26" t="n">
-        <v>44756</v>
+        <v>44196</v>
       </c>
       <c r="J5" s="24" t="n">
-        <v>14959.08145951937</v>
+        <v>10157.5179656072</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.09151119570630084</v>
+        <v>-0.08583084286993559</v>
       </c>
       <c r="L5" t="n">
-        <v>0.09564993714773896</v>
+        <v>0.09371578590913372</v>
       </c>
       <c r="P5" s="25">
         <f>"B"&amp;TEXT(O5,"A")</f>
@@ -4004,34 +4039,34 @@
         <v>49</v>
       </c>
       <c r="C6" s="10" t="n">
-        <v>4.5966</v>
+        <v>4.5342</v>
       </c>
       <c r="D6" s="21" t="n">
-        <v>0.05659999999999901</v>
+        <v>-0.03580000000000041</v>
       </c>
       <c r="E6" s="21" t="n">
-        <v>4.678523474759189</v>
+        <v>4.555561444491296</v>
       </c>
       <c r="F6" s="21" t="n">
-        <v>-0.01725091620685681</v>
+        <v>-0.01191259119937005</v>
       </c>
       <c r="G6" s="21" t="n">
-        <v>5.580530237893888</v>
+        <v>5.536344224138401</v>
       </c>
       <c r="H6" s="21" t="n">
-        <v>4.762674443034798</v>
+        <v>4.665545758494938</v>
       </c>
       <c r="I6" s="26" t="n">
-        <v>45111</v>
+        <v>44578</v>
       </c>
       <c r="J6" s="24" t="n">
-        <v>17894.92883600369</v>
+        <v>13222.10142807197</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.07547567210927641</v>
+        <v>-0.03582969654310209</v>
       </c>
       <c r="L6" t="n">
-        <v>0.09710631971942109</v>
+        <v>0.09552575660152796</v>
       </c>
       <c r="P6" s="25">
         <f>"B"&amp;TEXT(O6,"A")</f>
@@ -4046,34 +4081,34 @@
         <v>50</v>
       </c>
       <c r="C7" s="10" t="n">
-        <v>4.7</v>
+        <v>4.65</v>
       </c>
       <c r="D7" s="21" t="n">
-        <v>0.06309999999999996</v>
+        <v>-0.02919999999999937</v>
       </c>
       <c r="E7" s="21" t="n">
-        <v>4.675676532031248</v>
+        <v>4.562097576945945</v>
       </c>
       <c r="F7" s="21" t="n">
-        <v>-0.02364858767165412</v>
+        <v>-0.01192063771520147</v>
       </c>
       <c r="G7" s="21" t="n">
-        <v>5.619938608096953</v>
+        <v>5.666850678201163</v>
       </c>
       <c r="H7" s="21" t="n">
-        <v>4.650474050463949</v>
+        <v>4.6192006855162</v>
       </c>
       <c r="I7" s="26" t="n">
-        <v>45589</v>
+        <v>44757</v>
       </c>
       <c r="J7" s="24" t="n">
-        <v>22014.97338326816</v>
+        <v>14956.08616560139</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.05209824640403649</v>
+        <v>-0.02257404889259573</v>
       </c>
       <c r="L7" t="n">
-        <v>0.09938496715512578</v>
+        <v>0.09781395923594266</v>
       </c>
       <c r="P7" s="25">
         <f>"B"&amp;TEXT(O7,"A")</f>
@@ -4088,34 +4123,34 @@
         <v>51</v>
       </c>
       <c r="C8" s="10" t="n">
-        <v>4.7109</v>
+        <v>4.6834</v>
       </c>
       <c r="D8" s="21" t="n">
-        <v>0.05099999999999966</v>
+        <v>-0.02479999999999982</v>
       </c>
       <c r="E8" s="21" t="n">
-        <v>4.846030907878029</v>
+        <v>4.72510863840756</v>
       </c>
       <c r="F8" s="21" t="n">
-        <v>-0.0005829160014014789</v>
+        <v>-0.009669324939665103</v>
       </c>
       <c r="G8" s="21" t="n">
-        <v>4.76528237896825</v>
+        <v>4.849458452507061</v>
       </c>
       <c r="H8" s="21" t="n">
-        <v>5.699848456111911</v>
+        <v>5.538571205848553</v>
       </c>
       <c r="I8" s="26" t="n">
-        <v>46409</v>
+        <v>45112</v>
       </c>
       <c r="J8" s="24" t="n">
-        <v>29421.29572322977</v>
+        <v>17887.17492708591</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.03591698199419124</v>
+        <v>-0.01648893682884567</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1018534318329673</v>
+        <v>0.100566583229436</v>
       </c>
       <c r="P8" s="25">
         <f>"B"&amp;TEXT(O8,"A")</f>
@@ -4130,34 +4165,34 @@
         <v>52</v>
       </c>
       <c r="C9" s="10" t="n">
-        <v>4.88</v>
+        <v>4.86</v>
       </c>
       <c r="D9" s="21" t="n">
-        <v>0.04999999999999935</v>
+        <v>-0.009999999999999593</v>
       </c>
       <c r="E9" s="21" t="n">
-        <v>4.887098693832281</v>
+        <v>4.770836359054575</v>
       </c>
       <c r="F9" s="21" t="n">
-        <v>0.003788036782670368</v>
+        <v>-0.02715850491439298</v>
       </c>
       <c r="G9" s="21" t="n">
-        <v>5.626569272874615</v>
+        <v>5.63950692136439</v>
       </c>
       <c r="H9" s="21" t="n">
-        <v>5.067814105574775</v>
+        <v>4.97199792201326</v>
       </c>
       <c r="I9" s="26" t="n">
-        <v>47147</v>
+        <v>45589</v>
       </c>
       <c r="J9" s="24" t="n">
-        <v>36887.7834230246</v>
+        <v>22018.56129279627</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.02884908865234681</v>
+        <v>-0.003517653677509447</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1023429561841934</v>
+        <v>0.1015353316013669</v>
       </c>
       <c r="P9" s="25">
         <f>"B"&amp;TEXT(O9,"A")</f>
@@ -4172,34 +4207,34 @@
         <v>53</v>
       </c>
       <c r="C10" s="10" t="n">
-        <v>4.967</v>
+        <v>4.9421</v>
       </c>
       <c r="D10" s="21" t="n">
-        <v>0.02889999999999976</v>
+        <v>-0.0116999999999999</v>
       </c>
       <c r="E10" s="21" t="n">
-        <v>4.969233432851716</v>
+        <v>4.863052011404712</v>
       </c>
       <c r="F10" s="21" t="n">
-        <v>0.025716730485148</v>
+        <v>0.009288936330942299</v>
       </c>
       <c r="G10" s="21" t="n">
-        <v>5.24297639490654</v>
+        <v>5.201171817890571</v>
       </c>
       <c r="H10" s="21" t="n">
-        <v>5.229751332428534</v>
+        <v>5.154103100495266</v>
       </c>
       <c r="I10" s="26" t="n">
-        <v>47883</v>
+        <v>46412</v>
       </c>
       <c r="J10" s="24" t="n">
-        <v>43296.79369331716</v>
+        <v>29485.35163525075</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.02297662990820293</v>
+        <v>0.0008320847626891448</v>
       </c>
       <c r="L10" t="n">
-        <v>0.105342956184193</v>
+        <v>0.102535331601367</v>
       </c>
       <c r="P10" s="25">
         <f>"B"&amp;TEXT(O10,"A")</f>
@@ -4214,34 +4249,34 @@
         <v>54</v>
       </c>
       <c r="C11" s="10" t="n">
-        <v>4.9875</v>
+        <v>5</v>
       </c>
       <c r="D11" s="21" t="n">
-        <v>0.02749999999999975</v>
+        <v>-0.009999999999999593</v>
       </c>
       <c r="E11" s="21" t="n">
-        <v>5.074490954029187</v>
+        <v>4.820414908041548</v>
       </c>
       <c r="F11" s="21" t="n">
-        <v>0.02737206086249611</v>
+        <v>0.01156536345039427</v>
       </c>
       <c r="G11" s="21" t="n">
-        <v>5.082948716412217</v>
+        <v>5.270353318543175</v>
       </c>
       <c r="H11" s="21" t="n">
-        <v>5.565693248658565</v>
+        <v>4.62186823914934</v>
       </c>
       <c r="I11" s="26" t="n">
-        <v>48268</v>
+        <v>47144</v>
       </c>
       <c r="J11" s="24" t="n">
-        <v>47012.77123897246</v>
+        <v>36807.6125589251</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.01799125430738957</v>
+        <v>0.002719733292327886</v>
       </c>
       <c r="L11" t="n">
-        <v>0.108342956184193</v>
+        <v>0.102935331601367</v>
       </c>
       <c r="P11" s="25">
         <f>"B"&amp;TEXT(O11,"A")</f>
@@ -4256,34 +4291,34 @@
         <v>55</v>
       </c>
       <c r="C12" s="10" t="n">
-        <v>5.039</v>
+        <v>5.025</v>
       </c>
       <c r="D12" s="21" t="n">
-        <v>0.0232000000000003</v>
+        <v>-0.009799999999999393</v>
       </c>
       <c r="E12" s="21" t="n">
-        <v>5.089902212293462</v>
+        <v>4.819647041398478</v>
       </c>
       <c r="F12" s="21" t="n">
-        <v>0.02680681509119598</v>
+        <v>0.01145662281329951</v>
       </c>
       <c r="G12" s="21" t="n">
-        <v>5.329476954511247</v>
+        <v>5.164717314131662</v>
       </c>
       <c r="H12" s="21" t="n">
-        <v>5.176727742450793</v>
+        <v>4.815359136576292</v>
       </c>
       <c r="I12" s="26" t="n">
-        <v>48771</v>
+        <v>47885</v>
       </c>
       <c r="J12" s="24" t="n">
-        <v>51498.56214186413</v>
+        <v>43409.58694627797</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.01711519637896675</v>
+        <v>0.003051898228717542</v>
       </c>
       <c r="L12" t="n">
-        <v>0.103706960661741</v>
+        <v>0.1018866985741411</v>
       </c>
       <c r="P12" s="25">
         <f>"B"&amp;TEXT(O12,"A")</f>
@@ -4298,34 +4333,34 @@
         <v>56</v>
       </c>
       <c r="C13" s="10" t="n">
-        <v>5.1597</v>
+        <v>5.1338</v>
       </c>
       <c r="D13" s="21" t="n">
-        <v>0.02059999999999979</v>
+        <v>-0.006700000000000456</v>
       </c>
       <c r="E13" s="21" t="n">
-        <v>5.018652245262611</v>
+        <v>4.724065808571254</v>
       </c>
       <c r="F13" s="21" t="n">
-        <v>0.0281906112232555</v>
+        <v>0.008201432538346154</v>
       </c>
       <c r="G13" s="21" t="n">
-        <v>6.703091609687806</v>
+        <v>6.506639655676993</v>
       </c>
       <c r="H13" s="21" t="n">
-        <v>4.118901677364328</v>
+        <v>3.533809136192367</v>
       </c>
       <c r="I13" s="26" t="n">
-        <v>49019</v>
+        <v>48275</v>
       </c>
       <c r="J13" s="24" t="n">
-        <v>55120.71772629054</v>
+        <v>47276.93391188097</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.01735878775839528</v>
+        <v>0.005832130703861682</v>
       </c>
       <c r="L13" t="n">
-        <v>0.103706960661741</v>
+        <v>0.1018866985741411</v>
       </c>
       <c r="P13" s="25">
         <f>"B"&amp;TEXT(O13,"A")</f>
@@ -4340,34 +4375,34 @@
         <v>57</v>
       </c>
       <c r="C14" s="10" t="n">
-        <v>5.1319</v>
+        <v>5.1154</v>
       </c>
       <c r="D14" s="21" t="n">
-        <v>0.01539999999999944</v>
+        <v>0.005399999999999849</v>
       </c>
       <c r="E14" s="21" t="n">
-        <v>5.077862623636298</v>
+        <v>4.749846106719291</v>
       </c>
       <c r="F14" s="21" t="n">
-        <v>0.03626827396880916</v>
+        <v>-0.003549408859226943</v>
       </c>
       <c r="G14" s="21" t="n">
-        <v>4.841761408244283</v>
+        <v>4.923320489609484</v>
       </c>
       <c r="H14" s="21" t="n">
-        <v>5.698757764262741</v>
+        <v>5.01961902565049</v>
       </c>
       <c r="I14" s="26" t="n">
-        <v>49019</v>
+        <v>48778</v>
       </c>
       <c r="J14" s="24" t="n">
-        <v>55120.71772629054</v>
+        <v>51715.66558540906</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.01735878775839528</v>
+        <v>0.00485849278281103</v>
       </c>
       <c r="L14" t="n">
-        <v>0.103706960661741</v>
+        <v>0.1018866985741411</v>
       </c>
       <c r="P14" s="25">
         <f>"B"&amp;TEXT(O14,"A")</f>
@@ -4382,34 +4417,34 @@
         <v>58</v>
       </c>
       <c r="C15" s="10" t="n">
-        <v>5.0921</v>
+        <v>5.076</v>
       </c>
       <c r="D15" s="21" t="n">
-        <v>0.01659999999999995</v>
+        <v>0.002900000000000125</v>
       </c>
       <c r="E15" s="21" t="n">
-        <v>5.13439877556594</v>
+        <v>4.792418548832345</v>
       </c>
       <c r="F15" s="21" t="n">
-        <v>0.03916860229917773</v>
+        <v>-0.0003956286579898105</v>
       </c>
       <c r="G15" s="21" t="n">
-        <v>4.176718879237495</v>
+        <v>4.175219324535839</v>
       </c>
       <c r="H15" s="21" t="n">
-        <v>6.449151068624026</v>
+        <v>5.774883757369254</v>
       </c>
       <c r="I15" s="26" t="n">
-        <v>49019</v>
+        <v>49027</v>
       </c>
       <c r="J15" s="24" t="n">
-        <v>55120.71772629054</v>
+        <v>55369.70820328689</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.01735878775839528</v>
+        <v>0.003703603549676249</v>
       </c>
       <c r="L15" t="n">
-        <v>0.103706960661741</v>
+        <v>0.1018866985741411</v>
       </c>
       <c r="P15" s="25">
         <f>"B"&amp;TEXT(O15,"A")</f>
@@ -4431,7 +4466,7 @@
   <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:L7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -4485,34 +4520,34 @@
         <v>66</v>
       </c>
       <c r="C2" t="n">
-        <v>7.591100000000001</v>
+        <v>7.4835</v>
       </c>
       <c r="D2" s="21" t="n">
-        <v>-0.01899999999999957</v>
+        <v>-0.00340000000000007</v>
       </c>
       <c r="E2" s="22" t="n">
-        <v>-5.391259022189954</v>
+        <v>-9.650494198594068</v>
       </c>
       <c r="F2" s="22" t="n">
-        <v>-0.4019233169691434</v>
+        <v>-0.3421713406362432</v>
       </c>
       <c r="G2" s="21" t="n">
-        <v>0.9940353988623793</v>
+        <v>0.9887485700156572</v>
       </c>
       <c r="H2" s="23" t="n">
-        <v>-0.0004826465322487206</v>
+        <v>-0.0004212050689491598</v>
       </c>
       <c r="I2" s="26" t="n">
         <v>43102</v>
       </c>
       <c r="J2" s="24" t="n">
-        <v>1400.844828042258</v>
+        <v>1291.146761639439</v>
       </c>
       <c r="K2" s="24" t="n">
-        <v>524.7023018582877</v>
+        <v>524.9514919505466</v>
       </c>
       <c r="L2" t="n">
-        <v>0.07638339110219894</v>
+        <v>0.07571791393752392</v>
       </c>
       <c r="R2" s="25" t="s">
         <v>67</v>
@@ -4526,34 +4561,34 @@
         <v>68</v>
       </c>
       <c r="C3" t="n">
-        <v>7.585</v>
+        <v>7.3024</v>
       </c>
       <c r="D3" s="21" t="n">
-        <v>-0.03999999999999976</v>
+        <v>-0.02080000000000126</v>
       </c>
       <c r="E3" s="22" t="n">
-        <v>-5.500389164809494</v>
+        <v>-6.760243494512292</v>
       </c>
       <c r="F3" s="22" t="n">
-        <v>-0.0002072583109304915</v>
+        <v>-0.08022111230882079</v>
       </c>
       <c r="G3" s="21" t="n">
-        <v>0.99423630387387</v>
+        <v>0.9918471846492257</v>
       </c>
       <c r="H3" s="23" t="n">
-        <v>-5.151373364242762e-05</v>
+        <v>-0.0001616996345059629</v>
       </c>
       <c r="I3" s="26" t="n">
         <v>43440</v>
       </c>
       <c r="J3" s="24" t="n">
-        <v>5938.211647715796</v>
+        <v>5866.754760053273</v>
       </c>
       <c r="K3" s="24" t="n">
-        <v>546.4868971523848</v>
+        <v>546.0137724205774</v>
       </c>
       <c r="L3" t="n">
-        <v>0.07608105459690777</v>
+        <v>0.07343942220102602</v>
       </c>
       <c r="R3" s="25" t="s">
         <v>67</v>
@@ -4567,34 +4602,34 @@
         <v>69</v>
       </c>
       <c r="C4" t="n">
-        <v>8.890000000000001</v>
+        <v>8.68</v>
       </c>
       <c r="D4" s="21" t="n">
-        <v>0.03000000000000086</v>
+        <v>-0.06189999999999962</v>
       </c>
       <c r="E4" s="22" t="n">
-        <v>-12.99980428332653</v>
+        <v>-13.99992616628362</v>
       </c>
       <c r="F4" s="22" t="n">
-        <v>0.0002647973333651521</v>
+        <v>-0.1899445103877024</v>
       </c>
       <c r="G4" s="21" t="n">
-        <v>0.997298278516109</v>
+        <v>0.9963405711972863</v>
       </c>
       <c r="H4" s="23" t="n">
-        <v>0.0003888095312157835</v>
+        <v>-0.0005288584335734203</v>
       </c>
       <c r="I4" s="26" t="n">
         <v>44035</v>
       </c>
       <c r="J4" s="24" t="n">
-        <v>13703.83804715214</v>
+        <v>13724.67349511353</v>
       </c>
       <c r="K4" s="24" t="n">
-        <v>603.908794662628</v>
+        <v>603.2452468159115</v>
       </c>
       <c r="L4" t="n">
-        <v>0.08803445763233332</v>
+        <v>0.0858288693497529</v>
       </c>
       <c r="R4" s="25" t="s">
         <v>67</v>
@@ -4608,34 +4643,34 @@
         <v>70</v>
       </c>
       <c r="C5" t="n">
-        <v>9.44</v>
+        <v>9.2509</v>
       </c>
       <c r="D5" s="21" t="n">
-        <v>0.03999999999999976</v>
+        <v>-0.04899999999999949</v>
       </c>
       <c r="E5" s="22" t="n">
-        <v>-20.99998166475811</v>
+        <v>-21.90987135881353</v>
       </c>
       <c r="F5" s="22" t="n">
-        <v>-9.321998908973228e-05</v>
+        <v>0.1002749606159021</v>
       </c>
       <c r="G5" s="21" t="n">
-        <v>0.9953198501732357</v>
+        <v>0.994688567577089</v>
       </c>
       <c r="H5" s="23" t="n">
-        <v>0.0003229149625154637</v>
+        <v>2.093278032799795e-06</v>
       </c>
       <c r="I5" s="26" t="n">
-        <v>44526</v>
+        <v>44529</v>
       </c>
       <c r="J5" s="24" t="n">
-        <v>19911.31717288264</v>
+        <v>20041.20549347066</v>
       </c>
       <c r="K5" s="24" t="n">
-        <v>672.7328113907733</v>
+        <v>671.7564337782073</v>
       </c>
       <c r="L5" t="n">
-        <v>0.09397213085225542</v>
+        <v>0.09199191554242535</v>
       </c>
       <c r="R5" s="25" t="s">
         <v>67</v>
@@ -4649,34 +4684,34 @@
         <v>71</v>
       </c>
       <c r="C6" t="n">
-        <v>9.685</v>
+        <v>9.491199999999999</v>
       </c>
       <c r="D6" s="21" t="n">
-        <v>0.06150000000000044</v>
+        <v>-0.04380000000000095</v>
       </c>
       <c r="E6" s="22" t="n">
-        <v>-28.50014455946778</v>
+        <v>-31.88009475602161</v>
       </c>
       <c r="F6" s="22" t="n">
-        <v>0.1498968738020139</v>
+        <v>-0.3802043226792975</v>
       </c>
       <c r="G6" s="21" t="n">
-        <v>0.9924283793823255</v>
+        <v>0.9893437139742338</v>
       </c>
       <c r="H6" s="23" t="n">
-        <v>0.0009131555728906227</v>
+        <v>-0.000390427055636744</v>
       </c>
       <c r="I6" s="26" t="n">
-        <v>44929</v>
+        <v>44932</v>
       </c>
       <c r="J6" s="24" t="n">
-        <v>24974.49803704477</v>
+        <v>25246.22521196673</v>
       </c>
       <c r="K6" s="24" t="n">
-        <v>753.8116022540739</v>
+        <v>753.6749651937972</v>
       </c>
       <c r="L6" t="n">
-        <v>0.09651508115414975</v>
+        <v>0.09472830952157295</v>
       </c>
       <c r="R6" s="25" t="s">
         <v>67</v>
@@ -4690,34 +4725,34 @@
         <v>72</v>
       </c>
       <c r="C7" t="n">
-        <v>9.865</v>
+        <v>9.695</v>
       </c>
       <c r="D7" s="21" t="n">
-        <v>0.05499999999999949</v>
+        <v>-0.03999999999999915</v>
       </c>
       <c r="E7" s="22" t="n">
-        <v>-31.50007236851452</v>
+        <v>-35.49985850955423</v>
       </c>
       <c r="F7" s="22" t="n">
-        <v>-0.4999344850636938</v>
+        <v>0.0002420908115610132</v>
       </c>
       <c r="G7" s="21" t="n">
-        <v>0.9931440169720368</v>
+        <v>0.9903109564711966</v>
       </c>
       <c r="H7" s="23" t="n">
-        <v>0.0001719039541763223</v>
+        <v>-6.149671320243577e-05</v>
       </c>
       <c r="I7" s="26" t="n">
-        <v>45264</v>
+        <v>45268</v>
       </c>
       <c r="J7" s="24" t="n">
-        <v>28999.10289797525</v>
+        <v>29354.66812272192</v>
       </c>
       <c r="K7" s="24" t="n">
-        <v>846.7138287216691</v>
+        <v>847.0090406151589</v>
       </c>
       <c r="L7" t="n">
-        <v>0.09777819991697792</v>
+        <v>0.0964765921638208</v>
       </c>
       <c r="R7" s="25" t="s">
         <v>67</v>
@@ -4738,7 +4773,7 @@
   <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:L13"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -4789,34 +4824,34 @@
         <v>75</v>
       </c>
       <c r="C2" t="n">
-        <v>8.1799</v>
+        <v>8.172000000000001</v>
       </c>
       <c r="D2" s="21" t="n">
-        <v>-0.0007000000000007001</v>
+        <v>0.0009000000000014552</v>
       </c>
       <c r="E2" s="22" t="n">
-        <v>3.881723936936393</v>
+        <v>3.114582081902157</v>
       </c>
       <c r="F2" s="22" t="n">
-        <v>0.02384490231349723</v>
+        <v>0.0128105650940018</v>
       </c>
       <c r="G2" s="21" t="n">
-        <v>1.004576257712433</v>
+        <v>1.003665553192175</v>
       </c>
       <c r="H2" s="23" t="n">
-        <v>3.59603776713957e-05</v>
+        <v>1.520901310447798e-06</v>
       </c>
       <c r="I2" s="26" t="n">
         <v>43010</v>
       </c>
       <c r="J2" s="24" t="n">
-        <v>219.2694402110646</v>
+        <v>109.8483649984701</v>
       </c>
       <c r="K2" t="n">
         <v>500</v>
       </c>
       <c r="L2" t="n">
-        <v>0.08141166050358639</v>
+        <v>0.0814097620532892</v>
       </c>
       <c r="R2" s="34" t="s">
         <v>76</v>
@@ -4830,34 +4865,34 @@
         <v>77</v>
       </c>
       <c r="C3" t="n">
-        <v>7.5682</v>
+        <v>7.4352</v>
       </c>
       <c r="D3" s="21" t="n">
-        <v>-0.0217999999999996</v>
+        <v>-0.00140000000000029</v>
       </c>
       <c r="E3" s="22" t="n">
-        <v>-7.681259022190023</v>
+        <v>-14.48049419859404</v>
       </c>
       <c r="F3" s="22" t="n">
-        <v>-0.6819233169691454</v>
+        <v>-0.1421713406361835</v>
       </c>
       <c r="G3" s="21" t="n">
-        <v>0.9911431302411136</v>
+        <v>0.9825895674092048</v>
       </c>
       <c r="H3" s="23" t="n">
-        <v>-0.0008415865399907796</v>
+        <v>-0.000166417036572275</v>
       </c>
       <c r="I3" s="26" t="n">
         <v>43102</v>
       </c>
       <c r="J3" s="24" t="n">
-        <v>1318.348262364452</v>
+        <v>1213.994255831494</v>
       </c>
       <c r="K3" t="n">
         <v>500</v>
       </c>
       <c r="L3" t="n">
-        <v>0.07638339110219894</v>
+        <v>0.07571791393752392</v>
       </c>
       <c r="R3" s="25" t="s">
         <v>76</v>
@@ -4871,34 +4906,34 @@
         <v>78</v>
       </c>
       <c r="C4" t="n">
-        <v>7.380000000000001</v>
+        <v>7.237699999999999</v>
       </c>
       <c r="D4" s="21" t="n">
-        <v>-0.03999999999999976</v>
+        <v>-0.000300000000000189</v>
       </c>
       <c r="E4" s="22" t="n">
-        <v>0.4995069203608815</v>
+        <v>-4.729417642207745</v>
       </c>
       <c r="F4" s="22" t="n">
-        <v>-0.5007177399600493</v>
+        <v>-0.5301118881065321</v>
       </c>
       <c r="G4" s="21" t="n">
-        <v>1.001393999699084</v>
+        <v>0.9945992162411385</v>
       </c>
       <c r="H4" s="23" t="n">
-        <v>-0.0006070651845948571</v>
+        <v>-0.0006986813109238765</v>
       </c>
       <c r="I4" s="26" t="n">
         <v>43192</v>
       </c>
       <c r="J4" s="24" t="n">
-        <v>2384.00668945178</v>
+        <v>2285.69009495186</v>
       </c>
       <c r="K4" t="n">
         <v>500</v>
       </c>
       <c r="L4" t="n">
-        <v>0.07369358539753401</v>
+        <v>0.07278392698597402</v>
       </c>
       <c r="R4" s="25" t="s">
         <v>76</v>
@@ -4912,34 +4947,34 @@
         <v>79</v>
       </c>
       <c r="C5" t="n">
-        <v>7.373100000000001</v>
+        <v>7.142699999999999</v>
       </c>
       <c r="D5" s="21" t="n">
-        <v>-0.04189999999999888</v>
+        <v>-0.02340000000000142</v>
       </c>
       <c r="E5" s="22" t="n">
-        <v>0.8096371577749617</v>
+        <v>-4.729400371747127</v>
       </c>
       <c r="F5" s="22" t="n">
-        <v>-0.190690484849626</v>
+        <v>-0.8390060325152988</v>
       </c>
       <c r="G5" s="21" t="n">
-        <v>1.001573300096718</v>
+        <v>0.9943013496381915</v>
       </c>
       <c r="H5" s="23" t="n">
-        <v>-0.0002112520841739407</v>
+        <v>-0.001124808132347388</v>
       </c>
       <c r="I5" s="26" t="n">
         <v>43283</v>
       </c>
       <c r="J5" s="24" t="n">
-        <v>3443.402359167521</v>
+        <v>3356.838977790176</v>
       </c>
       <c r="K5" t="n">
         <v>500</v>
       </c>
       <c r="L5" t="n">
-        <v>0.07361103635275401</v>
+        <v>0.07185067966710745</v>
       </c>
       <c r="R5" s="25" t="s">
         <v>76</v>
@@ -4953,34 +4988,34 @@
         <v>80</v>
       </c>
       <c r="C6" t="n">
-        <v>7.4823</v>
+        <v>7.214999999999999</v>
       </c>
       <c r="D6" s="21" t="n">
-        <v>-0.04090000000000066</v>
+        <v>-0.01340000000000074</v>
       </c>
       <c r="E6" s="22" t="n">
-        <v>1.229617270787353</v>
+        <v>-2.50020676556495</v>
       </c>
       <c r="F6" s="22" t="n">
-        <v>-0.09080971034372554</v>
+        <v>-0.3402721180394144</v>
       </c>
       <c r="G6" s="21" t="n">
-        <v>1.001918262684388</v>
+        <v>0.9971295221571438</v>
       </c>
       <c r="H6" s="23" t="n">
-        <v>-8.540717626415173e-05</v>
+        <v>-0.0004508156586831014</v>
       </c>
       <c r="I6" s="26" t="n">
         <v>43374</v>
       </c>
       <c r="J6" s="24" t="n">
-        <v>4486.97165887279</v>
+        <v>4413.855244089063</v>
       </c>
       <c r="K6" t="n">
         <v>500</v>
       </c>
       <c r="L6" t="n">
-        <v>0.07467454558495512</v>
+        <v>0.07236501178038002</v>
       </c>
       <c r="R6" s="25" t="s">
         <v>76</v>
@@ -4994,34 +5029,34 @@
         <v>81</v>
       </c>
       <c r="C7" t="n">
-        <v>7.6429</v>
+        <v>7.35</v>
       </c>
       <c r="D7" s="21" t="n">
-        <v>-0.0450000000000006</v>
+        <v>-0.01860000000000017</v>
       </c>
       <c r="E7" s="22" t="n">
-        <v>0.289610835190468</v>
+        <v>-2.000243494512249</v>
       </c>
       <c r="F7" s="22" t="n">
-        <v>-0.500207258311014</v>
+        <v>0.1397788876912611</v>
       </c>
       <c r="G7" s="21" t="n">
-        <v>1.000559921426735</v>
+        <v>0.9976949242549801</v>
       </c>
       <c r="H7" s="23" t="n">
-        <v>-0.0006089658787855612</v>
+        <v>0.0001853278476214859</v>
       </c>
       <c r="I7" s="26" t="n">
         <v>43467</v>
       </c>
       <c r="J7" s="24" t="n">
-        <v>5417.381931194541</v>
+        <v>5358.949443940219</v>
       </c>
       <c r="K7" t="n">
         <v>500</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0763846427786965</v>
+        <v>0.07367589727151325</v>
       </c>
       <c r="R7" s="25" t="s">
         <v>76</v>
@@ -5035,34 +5070,34 @@
         <v>82</v>
       </c>
       <c r="C8" t="n">
-        <v>7.835</v>
+        <v>7.539999999999999</v>
       </c>
       <c r="D8" s="21" t="n">
-        <v>-0.01989999999999909</v>
+        <v>-0.02830000000000066</v>
       </c>
       <c r="E8" s="22" t="n">
-        <v>1.50013720713188</v>
+        <v>-0.9999553466313871</v>
       </c>
       <c r="F8" s="22" t="n">
-        <v>0.0100216621697069</v>
+        <v>0.1698188141177615</v>
       </c>
       <c r="G8" s="21" t="n">
-        <v>1.001950491055315</v>
+        <v>0.9989204992836495</v>
       </c>
       <c r="H8" s="23" t="n">
-        <v>2.409332946728959e-05</v>
+        <v>0.000222221172441972</v>
       </c>
       <c r="I8" s="26" t="n">
         <v>43556</v>
       </c>
       <c r="J8" s="24" t="n">
-        <v>6312.782829216303</v>
+        <v>6268.423365265335</v>
       </c>
       <c r="K8" t="n">
         <v>500</v>
       </c>
       <c r="L8" t="n">
-        <v>0.07819168689720368</v>
+        <v>0.07548447089680899</v>
       </c>
       <c r="R8" s="25" t="s">
         <v>76</v>
@@ -5076,34 +5111,34 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>8.0212</v>
+        <v>7.7575</v>
       </c>
       <c r="D9" s="21" t="n">
-        <v>-0.0001999999999988122</v>
+        <v>-0.02059999999999995</v>
       </c>
       <c r="E9" s="22" t="n">
-        <v>1.120159509520602</v>
+        <v>-0.2497021602659855</v>
       </c>
       <c r="F9" s="22" t="n">
-        <v>-0.01989094090035226</v>
+        <v>-0.05947209465631542</v>
       </c>
       <c r="G9" s="21" t="n">
-        <v>1.001381045058222</v>
+        <v>0.9997966993611187</v>
       </c>
       <c r="H9" s="23" t="n">
-        <v>-2.382345379747797e-05</v>
+        <v>-6.838299567590855e-05</v>
       </c>
       <c r="I9" s="26" t="n">
         <v>43647</v>
       </c>
       <c r="J9" s="24" t="n">
-        <v>7160.270291860797</v>
+        <v>7124.877715574257</v>
       </c>
       <c r="K9" t="n">
         <v>500</v>
       </c>
       <c r="L9" t="n">
-        <v>0.08009707748869932</v>
+        <v>0.07759136856030113</v>
       </c>
       <c r="R9" s="25" t="s">
         <v>76</v>
@@ -5117,34 +5152,34 @@
         <v>84</v>
       </c>
       <c r="C10" t="n">
-        <v>8.265700000000001</v>
+        <v>8.0121</v>
       </c>
       <c r="D10" s="21" t="n">
-        <v>0.0106999999999996</v>
+        <v>-0.04129999999999967</v>
       </c>
       <c r="E10" s="22" t="n">
-        <v>2.570056096418416</v>
+        <v>1.209803748117855</v>
       </c>
       <c r="F10" s="22" t="n">
-        <v>0.07008726685381328</v>
+        <v>-0.130012539154567</v>
       </c>
       <c r="G10" s="21" t="n">
-        <v>1.002976003934364</v>
+        <v>1.001488922086473</v>
       </c>
       <c r="H10" s="23" t="n">
-        <v>7.579510623889618e-05</v>
+        <v>-0.0001384498135765799</v>
       </c>
       <c r="I10" s="26" t="n">
         <v>43739</v>
       </c>
       <c r="J10" s="24" t="n">
-        <v>7998.017576130223</v>
+        <v>7975.569792972237</v>
       </c>
       <c r="K10" t="n">
         <v>500</v>
       </c>
       <c r="L10" t="n">
-        <v>0.08240194459992467</v>
+        <v>0.07999726011436192</v>
       </c>
       <c r="R10" s="25" t="s">
         <v>76</v>
@@ -5158,34 +5193,34 @@
         <v>85</v>
       </c>
       <c r="C11" t="n">
-        <v>8.4109</v>
+        <v>8.1671</v>
       </c>
       <c r="D11" s="21" t="n">
-        <v>0.01000000000000029</v>
+        <v>-0.05080000000000062</v>
       </c>
       <c r="E11" s="22" t="n">
-        <v>1.089999066368336</v>
+        <v>-0.2901035009178488</v>
       </c>
       <c r="F11" s="22" t="n">
-        <v>-0.0002303153599780838</v>
+        <v>-0.08004214813228661</v>
       </c>
       <c r="G11" s="21" t="n">
-        <v>1.001195133411328</v>
+        <v>0.9996522589128635</v>
       </c>
       <c r="H11" s="23" t="n">
-        <v>-3.821156604244536e-06</v>
+        <v>-8.561981007837449e-05</v>
       </c>
       <c r="I11" s="26" t="n">
         <v>43832</v>
       </c>
       <c r="J11" s="24" t="n">
-        <v>8765.006920271844</v>
+        <v>8754.454248064576</v>
       </c>
       <c r="K11" t="n">
         <v>500</v>
       </c>
       <c r="L11" t="n">
-        <v>0.08400451158138145</v>
+        <v>0.08170053583526626</v>
       </c>
       <c r="R11" s="25" t="s">
         <v>76</v>
@@ -5199,34 +5234,34 @@
         <v>86</v>
       </c>
       <c r="C12" t="n">
-        <v>8.769399999999999</v>
+        <v>8.539899999999999</v>
       </c>
       <c r="D12" s="21" t="n">
-        <v>0.02939999999999887</v>
+        <v>-0.07230000000000025</v>
       </c>
       <c r="E12" s="22" t="n">
-        <v>0.9402428776966731</v>
+        <v>-0.01015749018687395</v>
       </c>
       <c r="F12" s="22" t="n">
-        <v>-0.05960745023375624</v>
+        <v>-0.2303995440586237</v>
       </c>
       <c r="G12" s="21" t="n">
-        <v>1.000932269549925</v>
+        <v>0.9999236537469622</v>
       </c>
       <c r="H12" s="23" t="n">
-        <v>-7.37005570137228e-05</v>
+        <v>-0.0002463275863422432</v>
       </c>
       <c r="I12" s="26" t="n">
         <v>44013</v>
       </c>
       <c r="J12" s="24" t="n">
-        <v>10110.0473704937</v>
+        <v>10123.42344331773</v>
       </c>
       <c r="K12" t="n">
         <v>500</v>
       </c>
       <c r="L12" t="n">
-        <v>0.08760885819844599</v>
+        <v>0.08540579012247695</v>
       </c>
       <c r="R12" s="25" t="s">
         <v>76</v>
@@ -5240,34 +5275,34 @@
         <v>87</v>
       </c>
       <c r="C13" t="n">
-        <v>9.2806</v>
+        <v>9.068899999999999</v>
       </c>
       <c r="D13" s="21" t="n">
-        <v>0.04060000000000036</v>
+        <v>-0.06040000000000134</v>
       </c>
       <c r="E13" s="22" t="n">
-        <v>1.059855523660169</v>
+        <v>-0.1100509729726196</v>
       </c>
       <c r="F13" s="22" t="n">
-        <v>0.05988849924074002</v>
+        <v>-0.03989172447010914</v>
       </c>
       <c r="G13" s="21" t="n">
-        <v>1.000970801410642</v>
+        <v>0.9997793948022629</v>
       </c>
       <c r="H13" s="23" t="n">
-        <v>5.318220550876163e-05</v>
+        <v>-3.675008298664739e-05</v>
       </c>
       <c r="I13" s="26" t="n">
         <v>44378</v>
       </c>
       <c r="J13" s="24" t="n">
-        <v>12352.43902163711</v>
+        <v>12414.28913997879</v>
       </c>
       <c r="K13" t="n">
         <v>500</v>
       </c>
       <c r="L13" t="n">
-        <v>0.09271195862356785</v>
+        <v>0.09070988861384688</v>
       </c>
       <c r="R13" s="25" t="s">
         <v>76</v>
@@ -5287,8 +5322,8 @@
   </sheetPr>
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -5327,10 +5362,10 @@
         <v>96</v>
       </c>
       <c r="C2" t="n">
-        <v>1920232</v>
+        <v>2174230</v>
       </c>
       <c r="E2" t="n">
-        <v>7000.152644856699</v>
+        <v>8364.815763300428</v>
       </c>
       <c r="F2" t="n">
         <v>5086.04817860171</v>
@@ -5339,7 +5374,7 @@
         <v>5191.96931242336</v>
       </c>
       <c r="H2" t="n">
-        <v>4869.587370072853</v>
+        <v>4890.944651507521</v>
       </c>
       <c r="I2" t="n">
         <v>4928.287555311905</v>
@@ -5353,13 +5388,13 @@
         <v>8.141</v>
       </c>
       <c r="C3" t="n">
-        <v>202975</v>
+        <v>54540</v>
       </c>
       <c r="D3" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E3" t="n">
-        <v>33.21680923375864</v>
+        <v>5.094615918904922</v>
       </c>
       <c r="F3" t="n">
         <v>104.8748845376868</v>
@@ -5379,16 +5414,16 @@
         <v>98</v>
       </c>
       <c r="B4" t="n">
-        <v>8.065</v>
+        <v>8.035</v>
       </c>
       <c r="C4" t="n">
-        <v>16290</v>
+        <v>46710</v>
       </c>
       <c r="D4" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E4" t="n">
-        <v>6.626613686103074</v>
+        <v>15.73100898554582</v>
       </c>
       <c r="F4" t="n">
         <v>1.964883252610876</v>
@@ -5408,16 +5443,16 @@
         <v>99</v>
       </c>
       <c r="B5" t="n">
-        <v>7.822</v>
+        <v>7.785</v>
       </c>
       <c r="C5" t="n">
-        <v>33925</v>
+        <v>37595</v>
       </c>
       <c r="D5" t="n">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E5" t="n">
-        <v>21.61238567543034</v>
+        <v>21.32125805354811</v>
       </c>
       <c r="F5" t="n">
         <v>2.100666683468131</v>
@@ -5437,16 +5472,16 @@
         <v>66</v>
       </c>
       <c r="B6" t="n">
-        <v>7.645</v>
+        <v>7.58</v>
       </c>
       <c r="C6" t="n">
-        <v>332395</v>
+        <v>368025</v>
       </c>
       <c r="D6" t="n">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="E6" t="n">
-        <v>287.6510500663834</v>
+        <v>292.8749608148945</v>
       </c>
       <c r="F6" t="n">
         <v>505.7848141641472</v>
@@ -5455,7 +5490,7 @@
         <v>428.3112500464898</v>
       </c>
       <c r="H6" t="n">
-        <v>378.4170846712041</v>
+        <v>378.5000038894345</v>
       </c>
       <c r="I6" t="n">
         <v>467.9650110110565</v>
@@ -5466,16 +5501,16 @@
         <v>100</v>
       </c>
       <c r="B7" t="n">
-        <v>7.513</v>
+        <v>7.437</v>
       </c>
       <c r="C7" t="n">
-        <v>10</v>
+        <v>365</v>
       </c>
       <c r="D7" t="n">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E7" t="n">
-        <v>0.01113952920329402</v>
+        <v>0.381334539685746</v>
       </c>
       <c r="F7" t="n">
         <v>0.2332537531632742</v>
@@ -5484,7 +5519,7 @@
         <v>2.499232501093198</v>
       </c>
       <c r="H7" t="n">
-        <v>4.182198669179837</v>
+        <v>4.188074780457336</v>
       </c>
       <c r="I7" t="n">
         <v>2.091010925627987</v>
@@ -5495,16 +5530,16 @@
         <v>101</v>
       </c>
       <c r="B8" t="n">
-        <v>7.453</v>
+        <v>7.363</v>
       </c>
       <c r="C8" t="n">
-        <v>1800</v>
+        <v>9900</v>
       </c>
       <c r="D8" t="n">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E8" t="n">
-        <v>2.366853106595121</v>
+        <v>12.33777847824764</v>
       </c>
       <c r="F8" t="n">
         <v>1.462841335374022</v>
@@ -5513,7 +5548,7 @@
         <v>2.041652460863693</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9731451706177944</v>
+        <v>1.131413827310692</v>
       </c>
       <c r="I8" t="n">
         <v>0.4677880368438565</v>
@@ -5524,16 +5559,16 @@
         <v>102</v>
       </c>
       <c r="B9" t="n">
-        <v>7.375</v>
+        <v>7.285</v>
       </c>
       <c r="C9" t="n">
-        <v>133012</v>
+        <v>178850</v>
       </c>
       <c r="D9" t="n">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E9" t="n">
-        <v>205.8328624555441</v>
+        <v>264.5542922561372</v>
       </c>
       <c r="F9" t="n">
         <v>47.32163781121359</v>
@@ -5553,16 +5588,16 @@
         <v>103</v>
       </c>
       <c r="B10" t="n">
-        <v>7.365</v>
+        <v>7.19</v>
       </c>
       <c r="C10" t="n">
-        <v>108600</v>
+        <v>129299</v>
       </c>
       <c r="D10" t="n">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E10" t="n">
-        <v>241.6097631403986</v>
+        <v>279.4342474609724</v>
       </c>
       <c r="F10" t="n">
         <v>157.7256968100318</v>
@@ -5582,16 +5617,16 @@
         <v>104</v>
       </c>
       <c r="B11" t="n">
-        <v>7.47</v>
+        <v>7.24</v>
       </c>
       <c r="C11" t="n">
-        <v>17895</v>
+        <v>16645</v>
       </c>
       <c r="D11" t="n">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="E11" t="n">
-        <v>51.5719205718574</v>
+        <v>47.01936567037911</v>
       </c>
       <c r="F11" t="n">
         <v>12.29256872131019</v>
@@ -5611,16 +5646,16 @@
         <v>68</v>
       </c>
       <c r="B12" t="n">
-        <v>7.64</v>
+        <v>7.37</v>
       </c>
       <c r="C12" t="n">
-        <v>421995</v>
+        <v>460730</v>
       </c>
       <c r="D12" t="n">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="E12" t="n">
-        <v>1471.116729534294</v>
+        <v>1583.565738083872</v>
       </c>
       <c r="F12" t="n">
         <v>912.2071308307015</v>
@@ -5640,16 +5675,16 @@
         <v>105</v>
       </c>
       <c r="B13" t="n">
-        <v>7.82</v>
+        <v>7.55</v>
       </c>
       <c r="C13" t="n">
-        <v>7765</v>
+        <v>66225</v>
       </c>
       <c r="D13" t="n">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="E13" t="n">
-        <v>31.44911573002377</v>
+        <v>265.4021418212475</v>
       </c>
       <c r="F13" t="n">
         <v>60.69419523453431</v>
@@ -5669,16 +5704,16 @@
         <v>106</v>
       </c>
       <c r="B14" t="n">
-        <v>8.01</v>
+        <v>7.76</v>
       </c>
       <c r="C14" t="n">
-        <v>19870</v>
+        <v>39000</v>
       </c>
       <c r="D14" t="n">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="E14" t="n">
-        <v>91.24025435153715</v>
+        <v>177.6133058827442</v>
       </c>
       <c r="F14" t="n">
         <v>61.63571112920621</v>
@@ -5698,16 +5733,16 @@
         <v>107</v>
       </c>
       <c r="B15" t="n">
-        <v>8.24</v>
+        <v>8</v>
       </c>
       <c r="C15" t="n">
-        <v>12550</v>
+        <v>14149</v>
       </c>
       <c r="D15" t="n">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="E15" t="n">
-        <v>64.37910992543478</v>
+        <v>72.13788937463956</v>
       </c>
       <c r="F15" t="n">
         <v>3.684319203518196</v>
@@ -5727,16 +5762,16 @@
         <v>108</v>
       </c>
       <c r="B16" t="n">
-        <v>8.4</v>
+        <v>8.17</v>
       </c>
       <c r="C16" t="n">
-        <v>196740</v>
+        <v>318285</v>
       </c>
       <c r="D16" t="n">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="E16" t="n">
-        <v>1106.910104781081</v>
+        <v>1782.641683012174</v>
       </c>
       <c r="F16" t="n">
         <v>524.0706347352395</v>
@@ -5756,16 +5791,16 @@
         <v>109</v>
       </c>
       <c r="B17" t="n">
-        <v>8.59</v>
+        <v>8.35</v>
       </c>
       <c r="C17" t="n">
-        <v>350</v>
+        <v>435</v>
       </c>
       <c r="D17" t="n">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="E17" t="n">
-        <v>2.12436648798841</v>
+        <v>2.633299442942516</v>
       </c>
       <c r="F17" t="n">
         <v>4.136283406663354</v>
@@ -5785,16 +5820,16 @@
         <v>110</v>
       </c>
       <c r="B18" t="n">
-        <v>8.76</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>25660</v>
+        <v>41835</v>
       </c>
       <c r="D18" t="n">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="E18" t="n">
-        <v>166.2353927421254</v>
+        <v>270.4930324562451</v>
       </c>
       <c r="F18" t="n">
         <v>218.9021266174602</v>
@@ -5814,16 +5849,16 @@
         <v>111</v>
       </c>
       <c r="B19" t="n">
-        <v>8.925000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>2770</v>
+        <v>835</v>
       </c>
       <c r="D19" t="n">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="E19" t="n">
-        <v>19.07177091545996</v>
+        <v>5.746224625709924</v>
       </c>
       <c r="F19" t="n">
         <v>0.5224525299891731</v>
@@ -5843,16 +5878,16 @@
         <v>69</v>
       </c>
       <c r="B20" t="n">
-        <v>9.02</v>
+        <v>8.82</v>
       </c>
       <c r="C20" t="n">
-        <v>218690</v>
+        <v>236225</v>
       </c>
       <c r="D20" t="n">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="E20" t="n">
-        <v>1589.131858552956</v>
+        <v>1715.958297841138</v>
       </c>
       <c r="F20" t="n">
         <v>1190.296562244001</v>
@@ -5872,16 +5907,16 @@
         <v>112</v>
       </c>
       <c r="B21" t="n">
-        <v>9.145</v>
+        <v>8.93</v>
       </c>
       <c r="C21" t="n">
-        <v>470</v>
+        <v>1575</v>
       </c>
       <c r="D21" t="n">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="E21" t="n">
-        <v>3.572153938594631</v>
+        <v>11.98533059600195</v>
       </c>
       <c r="F21" t="n">
         <v>0.1182697793451248</v>
@@ -5901,16 +5936,16 @@
         <v>113</v>
       </c>
       <c r="B22" t="n">
-        <v>9.27</v>
+        <v>9.07</v>
       </c>
       <c r="C22" t="n">
-        <v>32705</v>
+        <v>7020</v>
       </c>
       <c r="D22" t="n">
-        <v>952</v>
+        <v>946</v>
       </c>
       <c r="E22" t="n">
-        <v>258.802358223518</v>
+        <v>55.63577868818689</v>
       </c>
       <c r="F22" t="n">
         <v>8.570461171192701</v>
@@ -5930,16 +5965,16 @@
         <v>114</v>
       </c>
       <c r="B23" t="n">
-        <v>9.345000000000001</v>
+        <v>9.145</v>
       </c>
       <c r="C23" t="n">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="D23" t="n">
-        <v>1017</v>
+        <v>1011</v>
       </c>
       <c r="E23" t="n">
-        <v>1.193918588537249</v>
+        <v>1.114266456913184</v>
       </c>
       <c r="F23" t="n">
         <v>0.09292795156538433</v>
@@ -5959,16 +5994,16 @@
         <v>115</v>
       </c>
       <c r="B24" t="n">
-        <v>9.43</v>
+        <v>9.23</v>
       </c>
       <c r="C24" t="n">
-        <v>8045</v>
+        <v>9530</v>
       </c>
       <c r="D24" t="n">
-        <v>1080</v>
+        <v>1074</v>
       </c>
       <c r="E24" t="n">
-        <v>68.50969917549187</v>
+        <v>81.41817550714057</v>
       </c>
       <c r="F24" t="n">
         <v>45.51313681076557</v>
@@ -5988,16 +6023,16 @@
         <v>116</v>
       </c>
       <c r="B25" t="n">
-        <v>9.555</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="C25" t="n">
-        <v>335</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1204</v>
+        <v>1198</v>
       </c>
       <c r="E25" t="n">
-        <v>3.02239565121441</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0.09194657402897673</v>
@@ -6017,16 +6052,16 @@
         <v>70</v>
       </c>
       <c r="B26" t="n">
-        <v>9.65</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>54540</v>
+        <v>59157</v>
       </c>
       <c r="D26" t="n">
-        <v>1331</v>
+        <v>1325</v>
       </c>
       <c r="E26" t="n">
-        <v>516.6961042644416</v>
+        <v>563.237368491275</v>
       </c>
       <c r="F26" t="n">
         <v>460.9194217210015</v>
@@ -6046,13 +6081,13 @@
         <v>117</v>
       </c>
       <c r="B27" t="n">
-        <v>9.709</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>1455</v>
+        <v>1449</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -6075,16 +6110,16 @@
         <v>118</v>
       </c>
       <c r="B28" t="n">
-        <v>9.789999999999999</v>
+        <v>9.66</v>
       </c>
       <c r="C28" t="n">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="D28" t="n">
-        <v>1580</v>
+        <v>1574</v>
       </c>
       <c r="E28" t="n">
-        <v>1.576775536254019</v>
+        <v>1.3278011915338</v>
       </c>
       <c r="F28" t="n">
         <v>6.809917289472142</v>
@@ -6104,13 +6139,13 @@
         <v>119</v>
       </c>
       <c r="B29" t="n">
-        <v>9.872</v>
+        <v>9.728</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>1704</v>
+        <v>1698</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -6133,16 +6168,16 @@
         <v>71</v>
       </c>
       <c r="B30" t="n">
-        <v>9.970000000000001</v>
+        <v>9.81</v>
       </c>
       <c r="C30" t="n">
-        <v>51800</v>
+        <v>44975</v>
       </c>
       <c r="D30" t="n">
-        <v>1834</v>
+        <v>1828</v>
       </c>
       <c r="E30" t="n">
-        <v>549.2073428741895</v>
+        <v>480.6913355393357</v>
       </c>
       <c r="F30" t="n">
         <v>315.8853773332613</v>
@@ -6162,16 +6197,16 @@
         <v>120</v>
       </c>
       <c r="B31" t="n">
-        <v>10.07</v>
+        <v>9.925000000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>140</v>
+        <v>55</v>
       </c>
       <c r="D31" t="n">
-        <v>2087</v>
+        <v>2081</v>
       </c>
       <c r="E31" t="n">
-        <v>1.52249487197515</v>
+        <v>0.6033121120470689</v>
       </c>
       <c r="F31" t="n">
         <v>0.7853746341039872</v>
@@ -6191,16 +6226,16 @@
         <v>72</v>
       </c>
       <c r="B32" t="n">
-        <v>10.18</v>
+        <v>10.05</v>
       </c>
       <c r="C32" t="n">
-        <v>18605</v>
+        <v>31960</v>
       </c>
       <c r="D32" t="n">
-        <v>2337</v>
+        <v>2331</v>
       </c>
       <c r="E32" t="n">
-        <v>203.8913012463062</v>
+        <v>353.3677407277988</v>
       </c>
       <c r="F32" t="n">
         <v>263.4994746808906</v>
@@ -6220,13 +6255,13 @@
         <v>121</v>
       </c>
       <c r="B33" t="n">
-        <v>10.216</v>
+        <v>10.11</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>2588</v>
+        <v>2582</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -6249,16 +6284,16 @@
         <v>122</v>
       </c>
       <c r="B34" t="n">
-        <v>10.232</v>
+        <v>10.15</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D34" t="n">
-        <v>2837</v>
+        <v>2831</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>0.4941792711678997</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -6278,13 +6313,13 @@
         <v>123</v>
       </c>
       <c r="B35" t="n">
-        <v>10.27</v>
+        <v>10.188</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>3087</v>
+        <v>3081</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -6317,7 +6352,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -6353,28 +6388,28 @@
         <v>132</v>
       </c>
       <c r="B2" t="n">
-        <v>5943939</v>
+        <v>5982733</v>
       </c>
       <c r="C2" t="n">
-        <v>26.8</v>
+        <v>26.85</v>
       </c>
       <c r="D2" t="n">
-        <v>-15650</v>
+        <v>157096</v>
       </c>
       <c r="E2" t="n">
-        <v>6922605</v>
+        <v>7006498</v>
       </c>
       <c r="F2" t="n">
-        <v>31.21</v>
+        <v>31.45</v>
       </c>
       <c r="G2" t="n">
-        <v>-16010</v>
+        <v>50535</v>
       </c>
       <c r="H2" t="n">
-        <v>-978666</v>
+        <v>-1023765</v>
       </c>
       <c r="I2" t="n">
-        <v>360</v>
+        <v>106561</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -6382,28 +6417,28 @@
         <v>133</v>
       </c>
       <c r="B3" t="n">
-        <v>5933229</v>
+        <v>5972023</v>
       </c>
       <c r="C3" t="n">
-        <v>26.75</v>
+        <v>26.8</v>
       </c>
       <c r="D3" t="n">
-        <v>-15595</v>
+        <v>157096</v>
       </c>
       <c r="E3" t="n">
-        <v>6747255</v>
+        <v>6827688</v>
       </c>
       <c r="F3" t="n">
-        <v>30.42</v>
+        <v>30.64</v>
       </c>
       <c r="G3" t="n">
-        <v>-15595</v>
+        <v>49855</v>
       </c>
       <c r="H3" t="n">
-        <v>-814026</v>
+        <v>-855665</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>107241</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -6417,7 +6452,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>-55</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>1920</v>
@@ -6426,13 +6461,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>-1920</v>
       </c>
       <c r="I4" t="n">
-        <v>945</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -6449,19 +6484,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>173430</v>
+        <v>176890</v>
       </c>
       <c r="F5" t="n">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="G5" t="n">
-        <v>585</v>
+        <v>680</v>
       </c>
       <c r="H5" t="n">
-        <v>-162720</v>
+        <v>-166180</v>
       </c>
       <c r="I5" t="n">
-        <v>-585</v>
+        <v>-680</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -6469,28 +6504,28 @@
         <v>136</v>
       </c>
       <c r="B6" t="n">
-        <v>11579064</v>
+        <v>11432090</v>
       </c>
       <c r="C6" t="n">
-        <v>52.21</v>
+        <v>51.31</v>
       </c>
       <c r="D6" t="n">
-        <v>-96152</v>
+        <v>53005</v>
       </c>
       <c r="E6" t="n">
-        <v>10346288</v>
+        <v>10331887</v>
       </c>
       <c r="F6" t="n">
-        <v>46.65</v>
+        <v>46.38</v>
       </c>
       <c r="G6" t="n">
-        <v>33012</v>
+        <v>223428</v>
       </c>
       <c r="H6" t="n">
-        <v>1232776</v>
+        <v>1100203</v>
       </c>
       <c r="I6" t="n">
-        <v>-129164</v>
+        <v>-170423</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -6498,28 +6533,28 @@
         <v>137</v>
       </c>
       <c r="B7" t="n">
-        <v>11579064</v>
+        <v>11432090</v>
       </c>
       <c r="C7" t="n">
-        <v>52.21</v>
+        <v>51.31</v>
       </c>
       <c r="D7" t="n">
-        <v>-96152</v>
+        <v>53005</v>
       </c>
       <c r="E7" t="n">
-        <v>10346288</v>
+        <v>10331887</v>
       </c>
       <c r="F7" t="n">
-        <v>46.65</v>
+        <v>46.38</v>
       </c>
       <c r="G7" t="n">
-        <v>33012</v>
+        <v>223428</v>
       </c>
       <c r="H7" t="n">
-        <v>1232776</v>
+        <v>1100203</v>
       </c>
       <c r="I7" t="n">
-        <v>-129164</v>
+        <v>-170423</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -6527,28 +6562,28 @@
         <v>138</v>
       </c>
       <c r="B8" t="n">
-        <v>4606836</v>
+        <v>4742874</v>
       </c>
       <c r="C8" t="n">
-        <v>20.77</v>
+        <v>21.29</v>
       </c>
       <c r="D8" t="n">
-        <v>30454</v>
+        <v>54330</v>
       </c>
       <c r="E8" t="n">
-        <v>4879084</v>
+        <v>4872168</v>
       </c>
       <c r="F8" t="n">
-        <v>22</v>
+        <v>21.87</v>
       </c>
       <c r="G8" t="n">
-        <v>-100185</v>
+        <v>7665</v>
       </c>
       <c r="H8" t="n">
-        <v>-272248</v>
+        <v>-129294</v>
       </c>
       <c r="I8" t="n">
-        <v>130639</v>
+        <v>46665</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -6556,28 +6591,28 @@
         <v>139</v>
       </c>
       <c r="B9" t="n">
-        <v>25626</v>
+        <v>103101</v>
       </c>
       <c r="C9" t="n">
-        <v>0.11</v>
+        <v>0.46</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>20400</v>
       </c>
       <c r="E9" t="n">
-        <v>23093</v>
+        <v>60610</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1</v>
+        <v>0.27</v>
       </c>
       <c r="G9" t="n">
-        <v>2190</v>
+        <v>3563</v>
       </c>
       <c r="H9" t="n">
-        <v>2533</v>
+        <v>42491</v>
       </c>
       <c r="I9" t="n">
-        <v>-2190</v>
+        <v>16837</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -6585,28 +6620,28 @@
         <v>140</v>
       </c>
       <c r="B10" t="n">
-        <v>21725</v>
+        <v>15775</v>
       </c>
       <c r="C10" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>-1870</v>
+        <v>-375</v>
       </c>
       <c r="E10" t="n">
-        <v>6120</v>
+        <v>5410</v>
       </c>
       <c r="F10" t="n">
         <v>0.02</v>
       </c>
       <c r="G10" t="n">
-        <v>-2225</v>
+        <v>-735</v>
       </c>
       <c r="H10" t="n">
-        <v>15605</v>
+        <v>10365</v>
       </c>
       <c r="I10" t="n">
-        <v>355</v>
+        <v>360</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -6614,22 +6649,22 @@
         <v>141</v>
       </c>
       <c r="B11" t="n">
-        <v>22177190</v>
+        <v>22276573</v>
       </c>
       <c r="C11" t="n">
         <v>100</v>
       </c>
       <c r="D11" t="n">
-        <v>-83218</v>
+        <v>284456</v>
       </c>
       <c r="E11" t="n">
-        <v>22177190</v>
+        <v>22276573</v>
       </c>
       <c r="F11" t="n">
         <v>100</v>
       </c>
       <c r="G11" t="n">
-        <v>-83218</v>
+        <v>284456</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -6649,10 +6684,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -6682,7 +6717,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="35" t="n">
-        <v>0.375</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="B2" t="s">
         <v>148</v>
@@ -6702,60 +6737,88 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="35" t="n">
-        <v>0.3958333333333333</v>
+        <v>0.375</v>
       </c>
       <c r="B3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" t="s">
         <v>153</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="E3" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="D3" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="E3" s="31" t="s">
-        <v>156</v>
-      </c>
       <c r="F3" s="35" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="35" t="n">
-        <v>0.625</v>
+        <v>0.3958333333333333</v>
       </c>
       <c r="B4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="E4" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="F4" s="35" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="35" t="n">
+        <v>0.4583333333333333</v>
+      </c>
+      <c r="B5" t="s">
         <v>155</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="C5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="F5" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="F4" s="35" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="35" t="n"/>
-      <c r="D5" s="35" t="n"/>
-      <c r="E5" s="32" t="n"/>
-      <c r="F5" s="35" t="n"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="35" t="n"/>
-      <c r="D6" s="35" t="n"/>
-      <c r="E6" s="31" t="n"/>
-      <c r="F6" s="35" t="n"/>
+      <c r="A6" s="35" t="n">
+        <v>0.6875</v>
+      </c>
+      <c r="B6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>161</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="F6" s="35" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="35" t="n"/>
       <c r="D7" s="35" t="n"/>
-      <c r="E7" s="31" t="n"/>
+      <c r="E7" s="30" t="n"/>
       <c r="F7" s="35" t="n"/>
     </row>
     <row r="8" spans="1:6">
@@ -6765,16 +6828,13 @@
       <c r="F8" s="35" t="n"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="35" t="n"/>
-      <c r="D9" s="35" t="n"/>
-      <c r="E9" s="30" t="n"/>
+      <c r="A9" s="19" t="n"/>
+      <c r="D9" s="19" t="n"/>
+      <c r="E9" s="21" t="n"/>
       <c r="F9" s="35" t="n"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="19" t="n"/>
-      <c r="D10" s="19" t="n"/>
-      <c r="E10" s="21" t="n"/>
-      <c r="F10" s="35" t="n"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="19" t="n"/>
@@ -6787,9 +6847,6 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="19" t="n"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="19" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/data/indicators_input.xlsx
+++ b/data/indicators_input.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="EstaPasta_de_trabalho"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="indicators" sheetId="1" state="visible" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="174">
   <si>
     <t>Index</t>
   </si>
@@ -473,7 +473,7 @@
     <t>BZ</t>
   </si>
   <si>
-    <t>Inflation Report</t>
+    <t>Consumer Confidence @ 82,3</t>
   </si>
   <si>
     <t>Sep</t>
@@ -482,46 +482,34 @@
     <t>-</t>
   </si>
   <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>IPC-15</t>
-  </si>
-  <si>
-    <t>0,13% mom</t>
+    <t>low</t>
   </si>
   <si>
     <t>US</t>
   </si>
   <si>
-    <t>Initial Jobless Claims</t>
-  </si>
-  <si>
-    <t>Sep 16</t>
-  </si>
-  <si>
-    <t>302 k</t>
+    <t>Markit Manufac.</t>
+  </si>
+  <si>
+    <t>Sep P</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Markit Services</t>
+  </si>
+  <si>
+    <t>55,7</t>
+  </si>
+  <si>
+    <t>CNI Business confidence</t>
   </si>
   <si>
     <t>Low</t>
-  </si>
-  <si>
-    <t>Leading index</t>
-  </si>
-  <si>
-    <t>Aug</t>
-  </si>
-  <si>
-    <t>0,3% mom</t>
-  </si>
-  <si>
-    <t>Jobs Creation</t>
-  </si>
-  <si>
-    <t>60 k</t>
-  </si>
-  <si>
-    <t>Medium</t>
   </si>
   <si>
     <t>Contract</t>
@@ -1073,7 +1061,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1087,8 +1075,8 @@
   </sheetPr>
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -1108,78 +1096,66 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="21">
-        <f>bloomberg!B2</f>
-        <v/>
-      </c>
-      <c r="C2" s="27">
-        <f>bloomberg!D2</f>
-        <v/>
+      <c r="B2" s="21" t="n">
+        <v>202.695</v>
+      </c>
+      <c r="C2" s="27" t="n">
+        <v>-0.8569999999999993</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="21">
-        <f>bloomberg!B3</f>
-        <v/>
-      </c>
-      <c r="C3" s="27">
-        <f>bloomberg!D3</f>
-        <v/>
+      <c r="B3" s="21" t="n">
+        <v>12643.78</v>
+      </c>
+      <c r="C3" s="27" t="n">
+        <v>43.75</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="21">
-        <f>bloomberg!B4</f>
-        <v/>
-      </c>
-      <c r="C4" s="27">
-        <f>bloomberg!D4</f>
-        <v/>
+      <c r="B4" s="21" t="n">
+        <v>99.953125</v>
+      </c>
+      <c r="C4" s="27" t="n">
+        <v>97.676125</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="21">
-        <f>bloomberg!B5</f>
-        <v/>
-      </c>
-      <c r="C5" s="27">
-        <f>bloomberg!D5</f>
-        <v/>
+      <c r="B5" s="21" t="n">
+        <v>2498.3</v>
+      </c>
+      <c r="C5" s="27" t="n">
+        <v>-2.599999999999909</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="21">
-        <f>bloomberg!B6</f>
-        <v/>
-      </c>
-      <c r="C6" s="27">
-        <f>bloomberg!D6</f>
-        <v/>
+      <c r="B6" s="21" t="n">
+        <v>1.1971</v>
+      </c>
+      <c r="C6" s="27" t="n">
+        <v>0.003000000000000114</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="21">
-        <f>bloomberg!B7</f>
-        <v/>
-      </c>
-      <c r="C7" s="27">
-        <f>bloomberg!D7</f>
-        <v/>
+      <c r="B7" s="21" t="n">
+        <v>17.7832</v>
+      </c>
+      <c r="C7" s="27" t="n">
+        <v>-0.09689999999999799</v>
       </c>
       <c r="H7" s="29" t="n"/>
     </row>
@@ -1187,52 +1163,44 @@
       <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="21">
-        <f>bloomberg!B8</f>
-        <v/>
-      </c>
-      <c r="C8" s="27">
-        <f>bloomberg!D8</f>
-        <v/>
+      <c r="B8" s="21" t="n">
+        <v>50.45</v>
+      </c>
+      <c r="C8" s="27" t="n">
+        <v>-0.09999999999999432</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="21">
-        <f>bloomberg!B9</f>
-        <v/>
-      </c>
-      <c r="C9" s="27">
-        <f>bloomberg!D9</f>
-        <v/>
+      <c r="B9" s="21" t="n">
+        <v>469</v>
+      </c>
+      <c r="C9" s="27" t="n">
+        <v>-16.5</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="21">
-        <f>bloomberg!B10</f>
-        <v/>
-      </c>
-      <c r="C10" s="27">
-        <f>bloomberg!D10</f>
-        <v/>
+      <c r="B10" s="21" t="n">
+        <v>978.75</v>
+      </c>
+      <c r="C10" s="27" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="21">
-        <f>bloomberg!B11</f>
-        <v/>
-      </c>
-      <c r="C11" s="27">
-        <f>bloomberg!D11</f>
-        <v/>
+      <c r="B11" s="21" t="n">
+        <v>9.76</v>
+      </c>
+      <c r="C11" s="27" t="n">
+        <v>0.08999999999999986</v>
       </c>
     </row>
   </sheetData>
@@ -1249,7 +1217,7 @@
   <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -1262,19 +1230,19 @@
   <sheetData>
     <row customHeight="1" ht="15.75" r="1" s="33" spans="1:5" thickBot="1">
       <c r="A1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E1" t="s">
         <v>166</v>
-      </c>
-      <c r="B1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E1" t="s">
-        <v>170</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="2" s="33" spans="1:5" thickBot="1">
@@ -1282,16 +1250,16 @@
         <v>97</v>
       </c>
       <c r="B2" s="17" t="n">
-        <v>2587704</v>
+        <v>2602435</v>
       </c>
       <c r="C2" s="15" t="n">
-        <v>2602435</v>
+        <v>2537916</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>14731</v>
+        <v>-64519</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>5440465.432</v>
+        <v>20933938.669</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="3" s="33" spans="1:5" thickBot="1">
@@ -1299,16 +1267,16 @@
         <v>98</v>
       </c>
       <c r="B3" s="17" t="n">
-        <v>329079</v>
+        <v>352786</v>
       </c>
       <c r="C3" s="15" t="n">
-        <v>352786</v>
+        <v>359661</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>23707</v>
+        <v>6875</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>4629633.623</v>
+        <v>3829490.225</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="4" s="33" spans="1:5" thickBot="1">
@@ -1316,16 +1284,16 @@
         <v>99</v>
       </c>
       <c r="B4" s="17" t="n">
-        <v>313460</v>
+        <v>318460</v>
       </c>
       <c r="C4" s="15" t="n">
-        <v>318460</v>
+        <v>331050</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>5000</v>
+        <v>12590</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>3705065.489</v>
+        <v>1496985.829</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="5" s="33" spans="1:5" thickBot="1">
@@ -1333,16 +1301,16 @@
         <v>66</v>
       </c>
       <c r="B5" s="17" t="n">
-        <v>4494712</v>
+        <v>4655542</v>
       </c>
       <c r="C5" s="15" t="n">
-        <v>4655542</v>
+        <v>4693879</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>160830</v>
+        <v>38337</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>36073711.188</v>
+        <v>33521828.457</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="6" s="33" spans="1:5" thickBot="1">
@@ -1350,16 +1318,16 @@
         <v>100</v>
       </c>
       <c r="B6" s="17" t="n">
-        <v>78070</v>
+        <v>78435</v>
       </c>
       <c r="C6" s="15" t="n">
-        <v>78435</v>
+        <v>78750</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>365</v>
+        <v>315</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>35564.318</v>
+        <v>30703.464</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="7" s="33" spans="1:5" thickBot="1">
@@ -1367,16 +1335,16 @@
         <v>101</v>
       </c>
       <c r="B7" s="17" t="n">
-        <v>67000</v>
+        <v>71675</v>
       </c>
       <c r="C7" s="15" t="n">
-        <v>71675</v>
+        <v>71435</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>4675</v>
+        <v>-240</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>960001.375</v>
+        <v>45595.082</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="8" s="33" spans="1:5" thickBot="1">
@@ -1384,21 +1352,21 @@
         <v>102</v>
       </c>
       <c r="B8" s="17" t="n">
-        <v>1521796</v>
+        <v>1579854</v>
       </c>
       <c r="C8" s="15" t="n">
-        <v>1579854</v>
+        <v>1574854</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>58058</v>
+        <v>-5000</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>17248337.811</v>
+        <v>29732626.495</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="9" s="33" spans="1:5" thickBot="1">
       <c r="A9" s="14" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B9" s="17" t="n">
         <v>27105</v>
@@ -1410,24 +1378,24 @@
         <v>0</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>175016.578</v>
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="10" s="33" spans="1:5" thickBot="1">
       <c r="A10" s="14" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B10" s="17" t="n">
-        <v>36470</v>
+        <v>39585</v>
       </c>
       <c r="C10" s="15" t="n">
         <v>39585</v>
       </c>
       <c r="D10" s="3" t="n">
-        <v>3115</v>
+        <v>0</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>344701.989</v>
+        <v>77279.524</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="11" s="33" spans="1:5" thickBot="1">
@@ -1435,21 +1403,21 @@
         <v>103</v>
       </c>
       <c r="B11" s="17" t="n">
-        <v>1512649</v>
+        <v>1527504</v>
       </c>
       <c r="C11" s="15" t="n">
-        <v>1527504</v>
+        <v>1490764</v>
       </c>
       <c r="D11" s="3" t="n">
-        <v>14855</v>
+        <v>-36740</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>12260497.708</v>
+        <v>27371326.176</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="12" s="33" spans="1:5" thickBot="1">
       <c r="A12" s="14" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B12" s="17" t="n">
         <v>9255</v>
@@ -1466,7 +1434,7 @@
     </row>
     <row customHeight="1" ht="15.75" r="13" s="33" spans="1:5" thickBot="1">
       <c r="A13" s="14" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B13" s="17" t="n">
         <v>4350</v>
@@ -1486,16 +1454,16 @@
         <v>104</v>
       </c>
       <c r="B14" s="17" t="n">
-        <v>630623</v>
+        <v>632003</v>
       </c>
       <c r="C14" s="15" t="n">
-        <v>632003</v>
+        <v>621053</v>
       </c>
       <c r="D14" s="3" t="n">
-        <v>1380</v>
+        <v>-10950</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>1550223.965</v>
+        <v>3052010.392</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="15" s="33" spans="1:5" thickBot="1">
@@ -1503,16 +1471,16 @@
         <v>68</v>
       </c>
       <c r="B15" s="17" t="n">
-        <v>2066511</v>
+        <v>2058721</v>
       </c>
       <c r="C15" s="15" t="n">
-        <v>2058721</v>
+        <v>2070301</v>
       </c>
       <c r="D15" s="3" t="n">
-        <v>-7790</v>
+        <v>11580</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>42109060.587</v>
+        <v>32120881.602</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="16" s="33" spans="1:5" thickBot="1">
@@ -1520,16 +1488,16 @@
         <v>105</v>
       </c>
       <c r="B16" s="17" t="n">
-        <v>560787</v>
+        <v>540860</v>
       </c>
       <c r="C16" s="15" t="n">
-        <v>540860</v>
+        <v>541859</v>
       </c>
       <c r="D16" s="3" t="n">
-        <v>-19927</v>
+        <v>999</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>5933543.96</v>
+        <v>472879.719</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="17" s="33" spans="1:5" thickBot="1">
@@ -1537,16 +1505,16 @@
         <v>106</v>
       </c>
       <c r="B17" s="17" t="n">
-        <v>586307</v>
+        <v>585021</v>
       </c>
       <c r="C17" s="15" t="n">
-        <v>585021</v>
+        <v>520853</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>-1286</v>
+        <v>-64168</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>3420918.589</v>
+        <v>9032233.932</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="18" s="33" spans="1:5" thickBot="1">
@@ -1554,16 +1522,16 @@
         <v>107</v>
       </c>
       <c r="B18" s="17" t="n">
-        <v>275398</v>
+        <v>276953</v>
       </c>
       <c r="C18" s="15" t="n">
-        <v>276953</v>
+        <v>293928</v>
       </c>
       <c r="D18" s="3" t="n">
-        <v>1555</v>
+        <v>16975</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>1211796.01</v>
+        <v>6689550.158</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="19" s="33" spans="1:5" thickBot="1">
@@ -1571,16 +1539,16 @@
         <v>108</v>
       </c>
       <c r="B19" s="17" t="n">
-        <v>1729585</v>
+        <v>1747528</v>
       </c>
       <c r="C19" s="15" t="n">
-        <v>1747528</v>
+        <v>1810336</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>17943</v>
+        <v>62808</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>26627222.121</v>
+        <v>21744245.6</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="20" s="33" spans="1:5" thickBot="1">
@@ -1588,16 +1556,16 @@
         <v>109</v>
       </c>
       <c r="B20" s="17" t="n">
-        <v>74644</v>
+        <v>74634</v>
       </c>
       <c r="C20" s="15" t="n">
-        <v>74634</v>
+        <v>74679</v>
       </c>
       <c r="D20" s="3" t="n">
-        <v>-10</v>
+        <v>45</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>35509.537</v>
+        <v>5326.399</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="21" s="33" spans="1:5" thickBot="1">
@@ -1605,16 +1573,16 @@
         <v>110</v>
       </c>
       <c r="B21" s="17" t="n">
-        <v>1322165</v>
+        <v>1325280</v>
       </c>
       <c r="C21" s="15" t="n">
-        <v>1325280</v>
+        <v>1329860</v>
       </c>
       <c r="D21" s="3" t="n">
-        <v>3115</v>
+        <v>4580</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>3336625.561</v>
+        <v>8740920.298</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="22" s="33" spans="1:5" thickBot="1">
@@ -1622,16 +1590,16 @@
         <v>111</v>
       </c>
       <c r="B22" s="17" t="n">
-        <v>49523</v>
+        <v>49808</v>
       </c>
       <c r="C22" s="15" t="n">
-        <v>49808</v>
+        <v>51748</v>
       </c>
       <c r="D22" s="3" t="n">
-        <v>285</v>
+        <v>1940</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>64913.898</v>
+        <v>248491.329</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="23" s="33" spans="1:5" thickBot="1">
@@ -1639,16 +1607,16 @@
         <v>69</v>
       </c>
       <c r="B23" s="17" t="n">
-        <v>1460763</v>
+        <v>1476081</v>
       </c>
       <c r="C23" s="15" t="n">
-        <v>1476081</v>
+        <v>1486872</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>15318</v>
+        <v>10791</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>17916082.555</v>
+        <v>16344166.381</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="24" s="33" spans="1:5" thickBot="1">
@@ -1656,16 +1624,16 @@
         <v>112</v>
       </c>
       <c r="B24" s="17" t="n">
-        <v>33843</v>
+        <v>35188</v>
       </c>
       <c r="C24" s="15" t="n">
-        <v>35188</v>
+        <v>35013</v>
       </c>
       <c r="D24" s="3" t="n">
-        <v>1345</v>
+        <v>-175</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>116504.037</v>
+        <v>66513.193</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="25" s="33" spans="1:5" thickBot="1">
@@ -1673,16 +1641,16 @@
         <v>113</v>
       </c>
       <c r="B25" s="17" t="n">
-        <v>258180</v>
+        <v>259170</v>
       </c>
       <c r="C25" s="15" t="n">
-        <v>259170</v>
+        <v>274560</v>
       </c>
       <c r="D25" s="3" t="n">
-        <v>990</v>
+        <v>15390</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>506435.259</v>
+        <v>3851630.65</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="26" s="33" spans="1:5" thickBot="1">
@@ -1690,16 +1658,16 @@
         <v>114</v>
       </c>
       <c r="B26" s="17" t="n">
-        <v>17310</v>
+        <v>17400</v>
       </c>
       <c r="C26" s="15" t="n">
-        <v>17400</v>
+        <v>17705</v>
       </c>
       <c r="D26" s="3" t="n">
-        <v>90</v>
+        <v>305</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>9495.68</v>
+        <v>30374.005</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="27" s="33" spans="1:5" thickBot="1">
@@ -1707,21 +1675,21 @@
         <v>115</v>
       </c>
       <c r="B27" s="17" t="n">
-        <v>111482</v>
+        <v>109887</v>
       </c>
       <c r="C27" s="15" t="n">
-        <v>109887</v>
+        <v>112722</v>
       </c>
       <c r="D27" s="3" t="n">
-        <v>-1595</v>
+        <v>2835</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>653753.612</v>
+        <v>666860.514</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="28" s="33" spans="1:5" thickBot="1">
       <c r="A28" s="14" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B28" s="17" t="n">
         <v>1590</v>
@@ -1744,13 +1712,13 @@
         <v>12025</v>
       </c>
       <c r="C29" s="15" t="n">
-        <v>12025</v>
+        <v>12030</v>
       </c>
       <c r="D29" s="3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>0</v>
+        <v>328.306</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="30" s="33" spans="1:5" thickBot="1">
@@ -1758,16 +1726,16 @@
         <v>70</v>
       </c>
       <c r="B30" s="17" t="n">
-        <v>777894</v>
+        <v>772014</v>
       </c>
       <c r="C30" s="15" t="n">
-        <v>772014</v>
+        <v>767559</v>
       </c>
       <c r="D30" s="3" t="n">
-        <v>-5880</v>
+        <v>-4455</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>3674693.779</v>
+        <v>4054085.12</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="31" s="33" spans="1:5" thickBot="1">
@@ -1792,16 +1760,16 @@
         <v>118</v>
       </c>
       <c r="B32" s="17" t="n">
-        <v>56855</v>
+        <v>56755</v>
       </c>
       <c r="C32" s="15" t="n">
         <v>56755</v>
       </c>
       <c r="D32" s="3" t="n">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>7306.278</v>
+        <v>3395.217</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="33" s="33" spans="1:5" thickBot="1">
@@ -1826,16 +1794,16 @@
         <v>71</v>
       </c>
       <c r="B34" s="17" t="n">
-        <v>488916</v>
+        <v>479980</v>
       </c>
       <c r="C34" s="15" t="n">
-        <v>479980</v>
+        <v>485521</v>
       </c>
       <c r="D34" s="3" t="n">
-        <v>-8936</v>
+        <v>5541</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>2280021.076</v>
+        <v>1891627.826</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="35" s="33" spans="1:5" thickBot="1">
@@ -1843,16 +1811,16 @@
         <v>120</v>
       </c>
       <c r="B35" s="17" t="n">
-        <v>62563</v>
+        <v>62568</v>
       </c>
       <c r="C35" s="15" t="n">
         <v>62568</v>
       </c>
       <c r="D35" s="3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>2518.052</v>
+        <v>8289.672</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="36" s="33" spans="1:5" thickBot="1">
@@ -1860,16 +1828,16 @@
         <v>72</v>
       </c>
       <c r="B36" s="18" t="n">
-        <v>420281</v>
+        <v>422854</v>
       </c>
       <c r="C36" s="16" t="n">
-        <v>422854</v>
+        <v>421142</v>
       </c>
       <c r="D36" s="3" t="n">
-        <v>2573</v>
+        <v>-1712</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>1317233.67</v>
+        <v>753311.2389999999</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="37" s="33" spans="1:5" thickBot="1">
@@ -1894,16 +1862,16 @@
         <v>122</v>
       </c>
       <c r="B38" s="18" t="n">
-        <v>4562</v>
+        <v>4607</v>
       </c>
       <c r="C38" s="16" t="n">
         <v>4607</v>
       </c>
       <c r="D38" s="3" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>1516.75</v>
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="15.75" r="39" s="33" spans="1:5" thickBot="1">
@@ -1952,10 +1920,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -1973,7 +1941,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D2" sqref="D2:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -2000,14 +1968,17 @@
       <c r="A2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" t="n">
-        <v>203.068</v>
-      </c>
-      <c r="C2" t="n">
-        <v>202.068</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
+      <c r="B2">
+        <f>_xll.BDP(A2,$J$5)</f>
+        <v/>
+      </c>
+      <c r="C2">
+        <f>_xll.BDH(A2,$J$5,$K$2,$K$2)</f>
+        <v/>
+      </c>
+      <c r="D2">
+        <f>B2-C2</f>
+        <v/>
       </c>
       <c r="J2" t="s">
         <v>17</v>
@@ -2021,14 +1992,17 @@
       <c r="A3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" t="n">
-        <v>12609.18</v>
-      </c>
-      <c r="C3" t="n">
-        <v>12569.17</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.3183185524581189</v>
+      <c r="B3">
+        <f>_xll.BDP(A3,$J$5)</f>
+        <v/>
+      </c>
+      <c r="C3">
+        <f>_xll.BDH(A3,$J$5,$K$2,$K$2)</f>
+        <v/>
+      </c>
+      <c r="D3">
+        <f>B3-C3</f>
+        <v/>
       </c>
       <c r="J3" t="s">
         <v>19</v>
@@ -2038,28 +2012,34 @@
       <c r="A4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="n">
-        <v>2.2755784</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2.268</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.007578400000000318</v>
+      <c r="B4">
+        <f>_xll.BDP(A4,$J$5)</f>
+        <v/>
+      </c>
+      <c r="C4">
+        <f>_xll.BDH(A4,$J$5,$K$2,$K$2)</f>
+        <v/>
+      </c>
+      <c r="D4">
+        <f>B4-C4</f>
+        <v/>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="n">
-        <v>2503.7</v>
-      </c>
-      <c r="C5" t="n">
-        <v>2505.2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>-0.05987545904518887</v>
+      <c r="B5">
+        <f>_xll.BDP(A5,$J$5)</f>
+        <v/>
+      </c>
+      <c r="C5">
+        <f>_xll.BDH(A5,$J$5,$K$2,$K$2)</f>
+        <v/>
+      </c>
+      <c r="D5">
+        <f>B5-C5</f>
+        <v/>
       </c>
       <c r="J5" t="s">
         <v>14</v>
@@ -2069,14 +2049,17 @@
       <c r="A6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" t="n">
-        <v>1.1914</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1.1892</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.184998318197116</v>
+      <c r="B6">
+        <f>_xll.BDP(A6,$J$5)</f>
+        <v/>
+      </c>
+      <c r="C6">
+        <f>_xll.BDH(A6,$J$5,$K$2,$K$2)</f>
+        <v/>
+      </c>
+      <c r="D6">
+        <f>B6-C6</f>
+        <v/>
       </c>
       <c r="J6" t="s">
         <v>23</v>
@@ -2086,70 +2069,85 @@
       <c r="A7" t="s">
         <v>24</v>
       </c>
-      <c r="B7" t="n">
-        <v>17.8336</v>
-      </c>
-      <c r="C7" t="n">
-        <v>17.7688</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.3646841655035926</v>
+      <c r="B7">
+        <f>_xll.BDP(A7,$J$5)</f>
+        <v/>
+      </c>
+      <c r="C7">
+        <f>_xll.BDH(A7,$J$5,$K$2,$K$2)</f>
+        <v/>
+      </c>
+      <c r="D7">
+        <f>B7-C7</f>
+        <v/>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>25</v>
       </c>
-      <c r="B8" t="n">
-        <v>50.49</v>
-      </c>
-      <c r="C8" t="n">
-        <v>50.69</v>
-      </c>
-      <c r="D8" t="n">
-        <v>-0.3945551390806767</v>
+      <c r="B8">
+        <f>_xll.BDP(A8,$J$5)</f>
+        <v/>
+      </c>
+      <c r="C8">
+        <f>_xll.BDH(A8,$J$5,$K$2,$K$2)</f>
+        <v/>
+      </c>
+      <c r="D8">
+        <f>B8-C8</f>
+        <v/>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>26</v>
       </c>
-      <c r="B9" t="n">
-        <v>485.5</v>
-      </c>
-      <c r="C9" t="n">
-        <v>495.5</v>
-      </c>
-      <c r="D9" t="n">
-        <v>-2.018163471241174</v>
+      <c r="B9">
+        <f>_xll.BDP(A9,$J$5)</f>
+        <v/>
+      </c>
+      <c r="C9">
+        <f>_xll.BDH(A9,$J$5,$K$2,$K$2)</f>
+        <v/>
+      </c>
+      <c r="D9">
+        <f>B9-C9</f>
+        <v/>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>27</v>
       </c>
-      <c r="B10" t="n">
-        <v>963.25</v>
-      </c>
-      <c r="C10" t="n">
-        <v>970</v>
-      </c>
-      <c r="D10" t="n">
-        <v>-0.6958762886597913</v>
+      <c r="B10">
+        <f>_xll.BDP(A10,$J$5)</f>
+        <v/>
+      </c>
+      <c r="C10">
+        <f>_xll.BDH(A10,$J$5,$K$2,$K$2)</f>
+        <v/>
+      </c>
+      <c r="D10">
+        <f>B10-C10</f>
+        <v/>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>28</v>
       </c>
-      <c r="B11" t="n">
-        <v>9.710000000000001</v>
-      </c>
-      <c r="C11" t="n">
-        <v>9.779999999999999</v>
-      </c>
-      <c r="D11" t="n">
-        <v>-0.06999999999999851</v>
+      <c r="B11">
+        <f>_xll.BDP(A11,$J$5)</f>
+        <v/>
+      </c>
+      <c r="C11">
+        <f>_xll.BDH(A11,$J$5,$K$2,$K$2)</f>
+        <v/>
+      </c>
+      <c r="D11">
+        <f>B11-C11</f>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -2184,7 +2182,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="11">
-        <f>_xll.BDH(E3,B1,$F4,"","cols=2;rows=201")</f>
+        <f>_xll.BDH(E3,B1,$F4,"","cols=2;rows=202")</f>
         <v/>
       </c>
       <c r="B2" t="n">
@@ -3801,7 +3799,12 @@
       </c>
     </row>
     <row r="203" spans="1:6">
-      <c r="A203" s="20" t="n"/>
+      <c r="A203" s="20" t="n">
+        <v>42999</v>
+      </c>
+      <c r="B203" t="n">
+        <v>8.720000000000001</v>
+      </c>
     </row>
     <row r="204" spans="1:6">
       <c r="A204" s="20" t="n"/>
@@ -3872,34 +3875,34 @@
         <v>44</v>
       </c>
       <c r="C2" s="10" t="n">
-        <v>3.374400000000001</v>
+        <v>3.37</v>
       </c>
       <c r="D2" s="21" t="n">
-        <v>-0.03979999999999956</v>
+        <v>-0.004400000000000237</v>
       </c>
       <c r="E2" s="21" t="n">
-        <v>3.71250619101815</v>
+        <v>3.630806696062971</v>
       </c>
       <c r="F2" s="21" t="n">
-        <v>0.02974035509974993</v>
+        <v>-0.07164173699829579</v>
       </c>
       <c r="G2" s="21" t="n">
-        <v>3.374400000000001</v>
+        <v>0</v>
       </c>
       <c r="H2" s="21" t="n">
-        <v>3.71250619101815</v>
+        <v>0</v>
       </c>
       <c r="I2" s="26" t="n">
-        <v>43321</v>
+        <v>43987</v>
       </c>
       <c r="J2" s="24" t="n">
-        <v>2617.834413185809</v>
+        <v>8234.805365699043</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.7016742855926045</v>
+        <v>-0.1463527089418104</v>
       </c>
       <c r="L2" t="n">
-        <v>0.08489842106765239</v>
+        <v>0.08369221848217206</v>
       </c>
       <c r="P2" s="25" t="s">
         <v>45</v>
@@ -3913,34 +3916,34 @@
         <v>46</v>
       </c>
       <c r="C3" s="10" t="n">
-        <v>3.342</v>
+        <v>3.29</v>
       </c>
       <c r="D3" s="21" t="n">
-        <v>-0.02800000000000025</v>
+        <v>-0.05199999999999996</v>
       </c>
       <c r="E3" s="21" t="n">
-        <v>4.157562806234871</v>
+        <v>4.127857558225356</v>
       </c>
       <c r="F3" s="21" t="n">
-        <v>0.004775046769811553</v>
+        <v>-0.0616217953770537</v>
       </c>
       <c r="G3" s="21" t="n">
-        <v>3.299837698814412</v>
+        <v>3.29</v>
       </c>
       <c r="H3" s="21" t="n">
-        <v>4.739789013673779</v>
+        <v>3.29</v>
       </c>
       <c r="I3" s="26" t="n">
-        <v>43570</v>
+        <v>44196</v>
       </c>
       <c r="J3" s="24" t="n">
-        <v>4769.904091632866</v>
+        <v>10172.5820374825</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.4042787202717529</v>
+        <v>-0.09272517587560758</v>
       </c>
       <c r="L3" t="n">
-        <v>0.08819123508168437</v>
+        <v>0.08718861509516929</v>
       </c>
       <c r="P3" s="25">
         <f>"B"&amp;TEXT(O3,"A")</f>
@@ -3955,34 +3958,34 @@
         <v>47</v>
       </c>
       <c r="C4" s="10" t="n">
-        <v>3.97</v>
+        <v>3.93</v>
       </c>
       <c r="D4" s="21" t="n">
-        <v>-0.02049999999999969</v>
+        <v>-0.03999999999999976</v>
       </c>
       <c r="E4" s="21" t="n">
-        <v>4.426746974297724</v>
+        <v>4.356763972247757</v>
       </c>
       <c r="F4" s="21" t="n">
-        <v>-0.03493339916449401</v>
+        <v>-0.168234445249249</v>
       </c>
       <c r="G4" s="21" t="n">
-        <v>4.824298919248959</v>
+        <v>3.93</v>
       </c>
       <c r="H4" s="21" t="n">
-        <v>4.791437281164446</v>
+        <v>4.356763972247757</v>
       </c>
       <c r="I4" s="26" t="n">
-        <v>43987</v>
+        <v>44578</v>
       </c>
       <c r="J4" s="24" t="n">
-        <v>8232.675715832436</v>
+        <v>13252.5553263004</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.1402742396965084</v>
+        <v>-0.04085680448684403</v>
       </c>
       <c r="L4" t="n">
-        <v>0.09242786509388942</v>
+        <v>0.09152764489888301</v>
       </c>
       <c r="P4" s="25">
         <f>"B"&amp;TEXT(O4,"A")</f>
@@ -3997,34 +4000,34 @@
         <v>48</v>
       </c>
       <c r="C5" s="10" t="n">
-        <v>4.2164</v>
+        <v>4.1604</v>
       </c>
       <c r="D5" s="21" t="n">
-        <v>-0.02360000000000001</v>
+        <v>-0.0559999999999998</v>
       </c>
       <c r="E5" s="21" t="n">
-        <v>4.520487249807936</v>
+        <v>4.483218314769277</v>
       </c>
       <c r="F5" s="21" t="n">
-        <v>-0.03231205711804463</v>
+        <v>-0.09066906802743802</v>
       </c>
       <c r="G5" s="21" t="n">
-        <v>5.382671329368982</v>
+        <v>5.248845660933954</v>
       </c>
       <c r="H5" s="21" t="n">
-        <v>4.962325751563967</v>
+        <v>5.078902365419236</v>
       </c>
       <c r="I5" s="26" t="n">
-        <v>44196</v>
+        <v>44757</v>
       </c>
       <c r="J5" s="24" t="n">
-        <v>10157.5179656072</v>
+        <v>15002.39445580319</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.08583084286993559</v>
+        <v>-0.02755764268946859</v>
       </c>
       <c r="L5" t="n">
-        <v>0.09371578590913372</v>
+        <v>0.09276011931343137</v>
       </c>
       <c r="P5" s="25">
         <f>"B"&amp;TEXT(O5,"A")</f>
@@ -4039,34 +4042,34 @@
         <v>49</v>
       </c>
       <c r="C6" s="10" t="n">
-        <v>4.5342</v>
+        <v>4.48</v>
       </c>
       <c r="D6" s="21" t="n">
-        <v>-0.03580000000000041</v>
+        <v>-0.05419999999999939</v>
       </c>
       <c r="E6" s="21" t="n">
-        <v>4.555561444491296</v>
+        <v>4.517493715323351</v>
       </c>
       <c r="F6" s="21" t="n">
-        <v>-0.01191259119937005</v>
+        <v>-0.09405920919187682</v>
       </c>
       <c r="G6" s="21" t="n">
-        <v>5.536344224138401</v>
+        <v>5.486626147462226</v>
       </c>
       <c r="H6" s="21" t="n">
-        <v>4.665545758494938</v>
+        <v>4.624840551953735</v>
       </c>
       <c r="I6" s="26" t="n">
-        <v>44578</v>
+        <v>45112</v>
       </c>
       <c r="J6" s="24" t="n">
-        <v>13222.10142807197</v>
+        <v>17952.52920198937</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.03582969654310209</v>
+        <v>-0.02041983850453732</v>
       </c>
       <c r="L6" t="n">
-        <v>0.09552575660152796</v>
+        <v>0.09454564852423465</v>
       </c>
       <c r="P6" s="25">
         <f>"B"&amp;TEXT(O6,"A")</f>
@@ -4081,34 +4084,34 @@
         <v>50</v>
       </c>
       <c r="C7" s="10" t="n">
-        <v>4.65</v>
+        <v>4.59</v>
       </c>
       <c r="D7" s="21" t="n">
-        <v>-0.02919999999999937</v>
+        <v>-0.06000000000000102</v>
       </c>
       <c r="E7" s="21" t="n">
-        <v>4.562097576945945</v>
+        <v>4.528051101249919</v>
       </c>
       <c r="F7" s="21" t="n">
-        <v>-0.01192063771520147</v>
+        <v>-0.08995455717371037</v>
       </c>
       <c r="G7" s="21" t="n">
-        <v>5.666850678201163</v>
+        <v>5.554766263898747</v>
       </c>
       <c r="H7" s="21" t="n">
-        <v>4.6192006855162</v>
+        <v>4.620218069922832</v>
       </c>
       <c r="I7" s="26" t="n">
-        <v>44757</v>
+        <v>45590</v>
       </c>
       <c r="J7" s="24" t="n">
-        <v>14956.08616560139</v>
+        <v>22089.84232238599</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.02257404889259573</v>
+        <v>-0.00576433611711169</v>
       </c>
       <c r="L7" t="n">
-        <v>0.09781395923594266</v>
+        <v>0.09690253682924649</v>
       </c>
       <c r="P7" s="25">
         <f>"B"&amp;TEXT(O7,"A")</f>
@@ -4123,34 +4126,34 @@
         <v>51</v>
       </c>
       <c r="C8" s="10" t="n">
-        <v>4.6834</v>
+        <v>4.6265</v>
       </c>
       <c r="D8" s="21" t="n">
-        <v>-0.02479999999999982</v>
+        <v>-0.05690000000000001</v>
       </c>
       <c r="E8" s="21" t="n">
-        <v>4.72510863840756</v>
+        <v>4.693110445517479</v>
       </c>
       <c r="F8" s="21" t="n">
-        <v>-0.009669324939665103</v>
+        <v>-0.08132590109402038</v>
       </c>
       <c r="G8" s="21" t="n">
-        <v>4.849458452507061</v>
+        <v>4.807836716555003</v>
       </c>
       <c r="H8" s="21" t="n">
-        <v>5.538571205848553</v>
+        <v>5.51615865370807</v>
       </c>
       <c r="I8" s="26" t="n">
-        <v>45112</v>
+        <v>46413</v>
       </c>
       <c r="J8" s="24" t="n">
-        <v>17887.17492708591</v>
+        <v>29583.31853297326</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.01648893682884567</v>
+        <v>-0.0004137072486670723</v>
       </c>
       <c r="L8" t="n">
-        <v>0.100566583229436</v>
+        <v>0.09987067529147184</v>
       </c>
       <c r="P8" s="25">
         <f>"B"&amp;TEXT(O8,"A")</f>
@@ -4165,34 +4168,34 @@
         <v>52</v>
       </c>
       <c r="C9" s="10" t="n">
-        <v>4.86</v>
+        <v>4.82</v>
       </c>
       <c r="D9" s="21" t="n">
-        <v>-0.009999999999999593</v>
+        <v>-0.04000000000000045</v>
       </c>
       <c r="E9" s="21" t="n">
-        <v>4.770836359054575</v>
+        <v>4.739898463820191</v>
       </c>
       <c r="F9" s="21" t="n">
-        <v>-0.02715850491439298</v>
+        <v>-0.08946074785525227</v>
       </c>
       <c r="G9" s="21" t="n">
-        <v>5.63950692136439</v>
+        <v>5.671295131392284</v>
       </c>
       <c r="H9" s="21" t="n">
-        <v>4.97199792201326</v>
+        <v>4.944965975901949</v>
       </c>
       <c r="I9" s="26" t="n">
-        <v>45589</v>
+        <v>47148</v>
       </c>
       <c r="J9" s="24" t="n">
-        <v>22018.56129279627</v>
+        <v>36953.35015493679</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.003517653677509447</v>
+        <v>0.001787731863447939</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1015353316013669</v>
+        <v>0.1008423820248807</v>
       </c>
       <c r="P9" s="25">
         <f>"B"&amp;TEXT(O9,"A")</f>
@@ -4207,34 +4210,34 @@
         <v>53</v>
       </c>
       <c r="C10" s="10" t="n">
-        <v>4.9421</v>
+        <v>4.9129</v>
       </c>
       <c r="D10" s="21" t="n">
-        <v>-0.0116999999999999</v>
+        <v>-0.02920000000000006</v>
       </c>
       <c r="E10" s="21" t="n">
-        <v>4.863052011404712</v>
+        <v>4.822572037222028</v>
       </c>
       <c r="F10" s="21" t="n">
-        <v>0.009288936330942299</v>
+        <v>-0.06680916189829578</v>
       </c>
       <c r="G10" s="21" t="n">
-        <v>5.201171817890571</v>
+        <v>5.206114746838031</v>
       </c>
       <c r="H10" s="21" t="n">
-        <v>5.154103100495266</v>
+        <v>5.083457251843759</v>
       </c>
       <c r="I10" s="26" t="n">
-        <v>46412</v>
+        <v>47891</v>
       </c>
       <c r="J10" s="24" t="n">
-        <v>29485.35163525075</v>
+        <v>43609.74272950949</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0008320847626891448</v>
+        <v>0.002304488253973558</v>
       </c>
       <c r="L10" t="n">
-        <v>0.102535331601367</v>
+        <v>0.110842382024881</v>
       </c>
       <c r="P10" s="25">
         <f>"B"&amp;TEXT(O10,"A")</f>
@@ -4249,34 +4252,34 @@
         <v>54</v>
       </c>
       <c r="C11" s="10" t="n">
-        <v>5</v>
+        <v>4.9735</v>
       </c>
       <c r="D11" s="21" t="n">
-        <v>-0.009999999999999593</v>
+        <v>-0.02650000000000083</v>
       </c>
       <c r="E11" s="21" t="n">
-        <v>4.820414908041548</v>
+        <v>4.788986488667968</v>
       </c>
       <c r="F11" s="21" t="n">
-        <v>0.01156536345039427</v>
+        <v>-0.1087240530199374</v>
       </c>
       <c r="G11" s="21" t="n">
-        <v>5.270353318543175</v>
+        <v>5.255918977988738</v>
       </c>
       <c r="H11" s="21" t="n">
-        <v>4.62186823914934</v>
+        <v>4.632861851844483</v>
       </c>
       <c r="I11" s="26" t="n">
-        <v>47144</v>
+        <v>48284</v>
       </c>
       <c r="J11" s="24" t="n">
-        <v>36807.6125589251</v>
+        <v>47563.48971767386</v>
       </c>
       <c r="K11" t="n">
-        <v>0.002719733292327886</v>
+        <v>0.005030595637417479</v>
       </c>
       <c r="L11" t="n">
-        <v>0.102935331601367</v>
+        <v>0.120842382024881</v>
       </c>
       <c r="P11" s="25">
         <f>"B"&amp;TEXT(O11,"A")</f>
@@ -4291,34 +4294,34 @@
         <v>55</v>
       </c>
       <c r="C12" s="10" t="n">
-        <v>5.025</v>
+        <v>5</v>
       </c>
       <c r="D12" s="21" t="n">
-        <v>-0.009799999999999393</v>
+        <v>-0.02500000000000002</v>
       </c>
       <c r="E12" s="21" t="n">
-        <v>4.819647041398478</v>
+        <v>4.779880743214626</v>
       </c>
       <c r="F12" s="21" t="n">
-        <v>0.01145662281329951</v>
+        <v>-0.1168588388098968</v>
       </c>
       <c r="G12" s="21" t="n">
-        <v>5.164717314131662</v>
+        <v>5.147580235593741</v>
       </c>
       <c r="H12" s="21" t="n">
-        <v>4.815359136576292</v>
+        <v>4.729226698844169</v>
       </c>
       <c r="I12" s="26" t="n">
-        <v>47885</v>
+        <v>48792</v>
       </c>
       <c r="J12" s="24" t="n">
-        <v>43409.58694627797</v>
+        <v>52120.67172511822</v>
       </c>
       <c r="K12" t="n">
-        <v>0.003051898228717542</v>
+        <v>0.004019695255680356</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1018866985741411</v>
+        <v>0.1011864758595655</v>
       </c>
       <c r="P12" s="25">
         <f>"B"&amp;TEXT(O12,"A")</f>
@@ -4333,34 +4336,34 @@
         <v>56</v>
       </c>
       <c r="C13" s="10" t="n">
-        <v>5.1338</v>
+        <v>5.1051</v>
       </c>
       <c r="D13" s="21" t="n">
-        <v>-0.006700000000000456</v>
+        <v>-0.02870000000000025</v>
       </c>
       <c r="E13" s="21" t="n">
-        <v>4.724065808571254</v>
+        <v>4.682192595595303</v>
       </c>
       <c r="F13" s="21" t="n">
-        <v>0.008201432538346154</v>
+        <v>-0.1313125135302906</v>
       </c>
       <c r="G13" s="21" t="n">
-        <v>6.506639655676993</v>
+        <v>6.417349070858425</v>
       </c>
       <c r="H13" s="21" t="n">
-        <v>3.533809136192367</v>
+        <v>3.478185753423735</v>
       </c>
       <c r="I13" s="26" t="n">
-        <v>48275</v>
+        <v>49045</v>
       </c>
       <c r="J13" s="24" t="n">
-        <v>47276.93391188097</v>
+        <v>55779.78539257534</v>
       </c>
       <c r="K13" t="n">
-        <v>0.005832130703861682</v>
+        <v>0.003007860056997158</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1018866985741411</v>
+        <v>0.1011864758595655</v>
       </c>
       <c r="P13" s="25">
         <f>"B"&amp;TEXT(O13,"A")</f>
@@ -4375,34 +4378,34 @@
         <v>57</v>
       </c>
       <c r="C14" s="10" t="n">
-        <v>5.1154</v>
+        <v>5.0825</v>
       </c>
       <c r="D14" s="21" t="n">
-        <v>0.005399999999999849</v>
+        <v>-0.03290000000000098</v>
       </c>
       <c r="E14" s="21" t="n">
-        <v>4.749846106719291</v>
+        <v>4.712111859511281</v>
       </c>
       <c r="F14" s="21" t="n">
-        <v>-0.003549408859226943</v>
+        <v>-0.148569719851066</v>
       </c>
       <c r="G14" s="21" t="n">
-        <v>4.923320489609484</v>
+        <v>4.848263241426731</v>
       </c>
       <c r="H14" s="21" t="n">
-        <v>5.01961902565049</v>
+        <v>5.023093575725546</v>
       </c>
       <c r="I14" s="26" t="n">
-        <v>48778</v>
+        <v>49045</v>
       </c>
       <c r="J14" s="24" t="n">
-        <v>51715.66558540906</v>
+        <v>55779.78539257534</v>
       </c>
       <c r="K14" t="n">
-        <v>0.00485849278281103</v>
+        <v>0.003007860056997158</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1018866985741411</v>
+        <v>0.1011864758595655</v>
       </c>
       <c r="P14" s="25">
         <f>"B"&amp;TEXT(O14,"A")</f>
@@ -4417,34 +4420,34 @@
         <v>58</v>
       </c>
       <c r="C15" s="10" t="n">
-        <v>5.076</v>
+        <v>5.0475</v>
       </c>
       <c r="D15" s="21" t="n">
-        <v>0.002900000000000125</v>
+        <v>-0.02849999999999936</v>
       </c>
       <c r="E15" s="21" t="n">
-        <v>4.792418548832345</v>
+        <v>4.752814968219243</v>
       </c>
       <c r="F15" s="21" t="n">
-        <v>-0.0003956286579898105</v>
+        <v>-0.1606635724317851</v>
       </c>
       <c r="G15" s="21" t="n">
-        <v>4.175219324535839</v>
+        <v>4.249701320902077</v>
       </c>
       <c r="H15" s="21" t="n">
-        <v>5.774883757369254</v>
+        <v>5.688644444927005</v>
       </c>
       <c r="I15" s="26" t="n">
-        <v>49027</v>
+        <v>49045</v>
       </c>
       <c r="J15" s="24" t="n">
-        <v>55369.70820328689</v>
+        <v>55779.78539257534</v>
       </c>
       <c r="K15" t="n">
-        <v>0.003703603549676249</v>
+        <v>0.003007860056997158</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1018866985741411</v>
+        <v>0.1011864758595655</v>
       </c>
       <c r="P15" s="25">
         <f>"B"&amp;TEXT(O15,"A")</f>
@@ -4466,7 +4469,7 @@
   <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2:L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -4520,34 +4523,34 @@
         <v>66</v>
       </c>
       <c r="C2" t="n">
-        <v>7.4835</v>
+        <v>7.470000000000001</v>
       </c>
       <c r="D2" s="21" t="n">
-        <v>-0.00340000000000007</v>
+        <v>-0.01349999999999962</v>
       </c>
       <c r="E2" s="22" t="n">
-        <v>-9.650494198594068</v>
+        <v>-9.501727813085864</v>
       </c>
       <c r="F2" s="22" t="n">
-        <v>-0.3421713406362432</v>
+        <v>0.1487663855082033</v>
       </c>
       <c r="G2" s="21" t="n">
-        <v>0.9887485700156572</v>
+        <v>0.9889590146257293</v>
       </c>
       <c r="H2" s="23" t="n">
-        <v>-0.0004212050689491598</v>
+        <v>-0.002245464447294454</v>
       </c>
       <c r="I2" s="26" t="n">
         <v>43102</v>
       </c>
       <c r="J2" s="24" t="n">
-        <v>1291.146761639439</v>
+        <v>1272.726032441884</v>
       </c>
       <c r="K2" s="24" t="n">
-        <v>524.9514919505466</v>
+        <v>524.9385268615827</v>
       </c>
       <c r="L2" t="n">
-        <v>0.07571791393752392</v>
+        <v>0.07556458642408082</v>
       </c>
       <c r="R2" s="25" t="s">
         <v>67</v>
@@ -4561,34 +4564,34 @@
         <v>68</v>
       </c>
       <c r="C3" t="n">
-        <v>7.3024</v>
+        <v>7.231400000000001</v>
       </c>
       <c r="D3" s="21" t="n">
-        <v>-0.02080000000000126</v>
+        <v>-0.07099999999999884</v>
       </c>
       <c r="E3" s="22" t="n">
-        <v>-6.760243494512292</v>
+        <v>-6.8600161774722</v>
       </c>
       <c r="F3" s="22" t="n">
-        <v>-0.08022111230882079</v>
+        <v>-0.09977268295990882</v>
       </c>
       <c r="G3" s="21" t="n">
-        <v>0.9918471846492257</v>
+        <v>0.991501097301521</v>
       </c>
       <c r="H3" s="23" t="n">
-        <v>-0.0001616996345059629</v>
+        <v>-0.001201628337273997</v>
       </c>
       <c r="I3" s="26" t="n">
         <v>43440</v>
       </c>
       <c r="J3" s="24" t="n">
-        <v>5866.754760053273</v>
+        <v>5857.561128264078</v>
       </c>
       <c r="K3" s="24" t="n">
-        <v>546.0137724205774</v>
+        <v>545.9164886942975</v>
       </c>
       <c r="L3" t="n">
-        <v>0.07343942220102602</v>
+        <v>0.07273155260275095</v>
       </c>
       <c r="R3" s="25" t="s">
         <v>67</v>
@@ -4602,34 +4605,34 @@
         <v>69</v>
       </c>
       <c r="C4" t="n">
-        <v>8.68</v>
+        <v>8.5815</v>
       </c>
       <c r="D4" s="21" t="n">
-        <v>-0.06189999999999962</v>
+        <v>-0.09849999999999998</v>
       </c>
       <c r="E4" s="22" t="n">
-        <v>-13.99992616628362</v>
+        <v>-13.85003686345393</v>
       </c>
       <c r="F4" s="22" t="n">
-        <v>-0.1899445103877024</v>
+        <v>0.1498893028296919</v>
       </c>
       <c r="G4" s="21" t="n">
-        <v>0.9963405711972863</v>
+        <v>0.9963839636612559</v>
       </c>
       <c r="H4" s="23" t="n">
-        <v>-0.0005288584335734203</v>
+        <v>-0.0007645424260719347</v>
       </c>
       <c r="I4" s="26" t="n">
-        <v>44035</v>
+        <v>44036</v>
       </c>
       <c r="J4" s="24" t="n">
-        <v>13724.67349511353</v>
+        <v>13760.85449550923</v>
       </c>
       <c r="K4" s="24" t="n">
-        <v>603.2452468159115</v>
+        <v>603.001139895984</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0858288693497529</v>
+        <v>0.08466197559718905</v>
       </c>
       <c r="R4" s="25" t="s">
         <v>67</v>
@@ -4643,34 +4646,34 @@
         <v>70</v>
       </c>
       <c r="C5" t="n">
-        <v>9.2509</v>
+        <v>9.1509</v>
       </c>
       <c r="D5" s="21" t="n">
-        <v>-0.04899999999999949</v>
+        <v>-0.0999999999999987</v>
       </c>
       <c r="E5" s="22" t="n">
-        <v>-21.90987135881353</v>
+        <v>-21.91013508272166</v>
       </c>
       <c r="F5" s="22" t="n">
-        <v>0.1002749606159021</v>
+        <v>-0.0002637239081266785</v>
       </c>
       <c r="G5" s="21" t="n">
-        <v>0.994688567577089</v>
+        <v>0.9944801214036131</v>
       </c>
       <c r="H5" s="23" t="n">
-        <v>2.093278032799795e-06</v>
+        <v>-0.0005178333717380523</v>
       </c>
       <c r="I5" s="26" t="n">
-        <v>44529</v>
+        <v>44530</v>
       </c>
       <c r="J5" s="24" t="n">
-        <v>20041.20549347066</v>
+        <v>20136.16039903132</v>
       </c>
       <c r="K5" s="24" t="n">
-        <v>671.7564337782073</v>
+        <v>671.3583496390587</v>
       </c>
       <c r="L5" t="n">
-        <v>0.09199191554242535</v>
+        <v>0.09109068757443919</v>
       </c>
       <c r="R5" s="25" t="s">
         <v>67</v>
@@ -4684,34 +4687,34 @@
         <v>71</v>
       </c>
       <c r="C6" t="n">
-        <v>9.491199999999999</v>
+        <v>9.3969</v>
       </c>
       <c r="D6" s="21" t="n">
-        <v>-0.04380000000000095</v>
+        <v>-0.09429999999999855</v>
       </c>
       <c r="E6" s="22" t="n">
-        <v>-31.88009475602161</v>
+        <v>-32.3100672329231</v>
       </c>
       <c r="F6" s="22" t="n">
-        <v>-0.3802043226792975</v>
+        <v>-0.4299724769014901</v>
       </c>
       <c r="G6" s="21" t="n">
-        <v>0.9893437139742338</v>
+        <v>0.9888899845329852</v>
       </c>
       <c r="H6" s="23" t="n">
-        <v>-0.000390427055636744</v>
+        <v>-0.001058087669922658</v>
       </c>
       <c r="I6" s="26" t="n">
-        <v>44932</v>
+        <v>44935</v>
       </c>
       <c r="J6" s="24" t="n">
-        <v>25246.22521196673</v>
+        <v>25398.35262027612</v>
       </c>
       <c r="K6" s="24" t="n">
-        <v>753.6749651937972</v>
+        <v>753.2371243442385</v>
       </c>
       <c r="L6" t="n">
-        <v>0.09472830952157295</v>
+        <v>0.09374057929553348</v>
       </c>
       <c r="R6" s="25" t="s">
         <v>67</v>
@@ -4725,34 +4728,34 @@
         <v>72</v>
       </c>
       <c r="C7" t="n">
-        <v>9.695</v>
+        <v>9.625</v>
       </c>
       <c r="D7" s="21" t="n">
-        <v>-0.03999999999999915</v>
+        <v>-0.07000000000000062</v>
       </c>
       <c r="E7" s="22" t="n">
-        <v>-35.49985850955423</v>
+        <v>-35.49994657937094</v>
       </c>
       <c r="F7" s="22" t="n">
-        <v>0.0002420908115610132</v>
+        <v>-8.806981671227732e-05</v>
       </c>
       <c r="G7" s="21" t="n">
-        <v>0.9903109564711966</v>
+        <v>0.9908309169787602</v>
       </c>
       <c r="H7" s="23" t="n">
-        <v>-6.149671320243577e-05</v>
+        <v>0.0008566056315102433</v>
       </c>
       <c r="I7" s="26" t="n">
-        <v>45268</v>
+        <v>45272</v>
       </c>
       <c r="J7" s="24" t="n">
-        <v>29354.66812272192</v>
+        <v>29514.07477812529</v>
       </c>
       <c r="K7" s="24" t="n">
-        <v>847.0090406151589</v>
+        <v>846.1162844437912</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0964765921638208</v>
+        <v>0.09554534493918652</v>
       </c>
       <c r="R7" s="25" t="s">
         <v>67</v>
@@ -4773,7 +4776,7 @@
   <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -4824,34 +4827,34 @@
         <v>75</v>
       </c>
       <c r="C2" t="n">
-        <v>8.172000000000001</v>
+        <v>8.173400000000001</v>
       </c>
       <c r="D2" s="21" t="n">
-        <v>0.0009000000000014552</v>
+        <v>0.0014000000000014</v>
       </c>
       <c r="E2" s="22" t="n">
-        <v>3.114582081902157</v>
+        <v>3.15687557986874</v>
       </c>
       <c r="F2" s="22" t="n">
-        <v>0.0128105650940018</v>
+        <v>0.04229349796658344</v>
       </c>
       <c r="G2" s="21" t="n">
-        <v>1.003665553192175</v>
+        <v>1.003693330530059</v>
       </c>
       <c r="H2" s="23" t="n">
-        <v>1.520901310447798e-06</v>
+        <v>2.777733788361658e-05</v>
       </c>
       <c r="I2" s="26" t="n">
         <v>43010</v>
       </c>
       <c r="J2" s="24" t="n">
-        <v>109.8483649984701</v>
+        <v>91.56763454666361</v>
       </c>
       <c r="K2" t="n">
         <v>500</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0814097620532892</v>
+        <v>0.08142136454583038</v>
       </c>
       <c r="R2" s="34" t="s">
         <v>76</v>
@@ -4865,34 +4868,34 @@
         <v>77</v>
       </c>
       <c r="C3" t="n">
-        <v>7.4352</v>
+        <v>7.4185</v>
       </c>
       <c r="D3" s="21" t="n">
-        <v>-0.00140000000000029</v>
+        <v>-0.01670000000000005</v>
       </c>
       <c r="E3" s="22" t="n">
-        <v>-14.48049419859404</v>
+        <v>-14.65172781308588</v>
       </c>
       <c r="F3" s="22" t="n">
-        <v>-0.1421713406361835</v>
+        <v>-0.1712336144918396</v>
       </c>
       <c r="G3" s="21" t="n">
-        <v>0.9825895674092048</v>
+        <v>0.9823782630466814</v>
       </c>
       <c r="H3" s="23" t="n">
-        <v>-0.000166417036572275</v>
+        <v>-0.0002113043625233679</v>
       </c>
       <c r="I3" s="26" t="n">
         <v>43102</v>
       </c>
       <c r="J3" s="24" t="n">
-        <v>1213.994255831494</v>
+        <v>1196.450009127147</v>
       </c>
       <c r="K3" t="n">
         <v>500</v>
       </c>
       <c r="L3" t="n">
-        <v>0.07571791393752392</v>
+        <v>0.07556458642408082</v>
       </c>
       <c r="R3" s="25" t="s">
         <v>76</v>
@@ -4906,34 +4909,34 @@
         <v>78</v>
       </c>
       <c r="C4" t="n">
-        <v>7.237699999999999</v>
+        <v>7.198299999999999</v>
       </c>
       <c r="D4" s="21" t="n">
-        <v>-0.000300000000000189</v>
+        <v>-0.03940000000000055</v>
       </c>
       <c r="E4" s="22" t="n">
-        <v>-4.729417642207745</v>
+        <v>-4.669427334535181</v>
       </c>
       <c r="F4" s="22" t="n">
-        <v>-0.5301118881065321</v>
+        <v>0.05999030767256386</v>
       </c>
       <c r="G4" s="21" t="n">
-        <v>0.9945992162411385</v>
+        <v>0.9946964528491616</v>
       </c>
       <c r="H4" s="23" t="n">
-        <v>-0.0006986813109238765</v>
+        <v>9.72366080231879e-05</v>
       </c>
       <c r="I4" s="26" t="n">
         <v>43192</v>
       </c>
       <c r="J4" s="24" t="n">
-        <v>2285.69009495186</v>
+        <v>2269.716142298421</v>
       </c>
       <c r="K4" t="n">
         <v>500</v>
       </c>
       <c r="L4" t="n">
-        <v>0.07278392698597402</v>
+        <v>0.07238031282433743</v>
       </c>
       <c r="R4" s="25" t="s">
         <v>76</v>
@@ -4947,34 +4950,34 @@
         <v>79</v>
       </c>
       <c r="C5" t="n">
-        <v>7.142699999999999</v>
+        <v>7.1</v>
       </c>
       <c r="D5" s="21" t="n">
-        <v>-0.02340000000000142</v>
+        <v>-0.04269999999999968</v>
       </c>
       <c r="E5" s="22" t="n">
-        <v>-4.729400371747127</v>
+        <v>-4.500648509259825</v>
       </c>
       <c r="F5" s="22" t="n">
-        <v>-0.8390060325152988</v>
+        <v>0.2287518624873028</v>
       </c>
       <c r="G5" s="21" t="n">
-        <v>0.9943013496381915</v>
+        <v>0.9946088913304656</v>
       </c>
       <c r="H5" s="23" t="n">
-        <v>-0.001124808132347388</v>
+        <v>0.0003075416922740937</v>
       </c>
       <c r="I5" s="26" t="n">
         <v>43283</v>
       </c>
       <c r="J5" s="24" t="n">
-        <v>3356.838977790176</v>
+        <v>3342.514357493201</v>
       </c>
       <c r="K5" t="n">
         <v>500</v>
       </c>
       <c r="L5" t="n">
-        <v>0.07185067966710745</v>
+        <v>0.07139821260013135</v>
       </c>
       <c r="R5" s="25" t="s">
         <v>76</v>
@@ -4988,34 +4991,34 @@
         <v>80</v>
       </c>
       <c r="C6" t="n">
-        <v>7.214999999999999</v>
+        <v>7.1452</v>
       </c>
       <c r="D6" s="21" t="n">
-        <v>-0.01340000000000074</v>
+        <v>-0.06979999999999903</v>
       </c>
       <c r="E6" s="22" t="n">
-        <v>-2.50020676556495</v>
+        <v>-2.48003179191672</v>
       </c>
       <c r="F6" s="22" t="n">
-        <v>-0.3402721180394144</v>
+        <v>0.02017497364822951</v>
       </c>
       <c r="G6" s="21" t="n">
-        <v>0.9971295221571438</v>
+        <v>0.9971661947333141</v>
       </c>
       <c r="H6" s="23" t="n">
-        <v>-0.0004508156586831014</v>
+        <v>3.667257617034902e-05</v>
       </c>
       <c r="I6" s="26" t="n">
         <v>43374</v>
       </c>
       <c r="J6" s="24" t="n">
-        <v>4413.855244089063</v>
+        <v>4403.595203653822</v>
       </c>
       <c r="K6" t="n">
         <v>500</v>
       </c>
       <c r="L6" t="n">
-        <v>0.07236501178038002</v>
+        <v>0.07166213576037772</v>
       </c>
       <c r="R6" s="25" t="s">
         <v>76</v>
@@ -5029,34 +5032,34 @@
         <v>81</v>
       </c>
       <c r="C7" t="n">
-        <v>7.35</v>
+        <v>7.28</v>
       </c>
       <c r="D7" s="21" t="n">
-        <v>-0.01860000000000017</v>
+        <v>-0.06999999999999923</v>
       </c>
       <c r="E7" s="22" t="n">
-        <v>-2.000243494512249</v>
+        <v>-2.000016177472197</v>
       </c>
       <c r="F7" s="22" t="n">
-        <v>0.1397788876912611</v>
+        <v>0.0002273170400521884</v>
       </c>
       <c r="G7" s="21" t="n">
-        <v>0.9976949242549801</v>
+        <v>0.9977023089799931</v>
       </c>
       <c r="H7" s="23" t="n">
-        <v>0.0001853278476214859</v>
+        <v>7.384725013048765e-06</v>
       </c>
       <c r="I7" s="26" t="n">
         <v>43467</v>
       </c>
       <c r="J7" s="24" t="n">
-        <v>5358.949443940219</v>
+        <v>5351.409973103728</v>
       </c>
       <c r="K7" t="n">
         <v>500</v>
       </c>
       <c r="L7" t="n">
-        <v>0.07367589727151325</v>
+        <v>0.07297360670827513</v>
       </c>
       <c r="R7" s="25" t="s">
         <v>76</v>
@@ -5070,34 +5073,34 @@
         <v>82</v>
       </c>
       <c r="C8" t="n">
-        <v>7.539999999999999</v>
+        <v>7.46</v>
       </c>
       <c r="D8" s="21" t="n">
-        <v>-0.02830000000000066</v>
+        <v>-0.07999999999999952</v>
       </c>
       <c r="E8" s="22" t="n">
-        <v>-0.9999553466313871</v>
+        <v>-0.9999148343853292</v>
       </c>
       <c r="F8" s="22" t="n">
-        <v>0.1698188141177615</v>
+        <v>4.051224605783332e-05</v>
       </c>
       <c r="G8" s="21" t="n">
-        <v>0.9989204992836495</v>
+        <v>0.9989362751911114</v>
       </c>
       <c r="H8" s="23" t="n">
-        <v>0.000222221172441972</v>
+        <v>1.577590746193458e-05</v>
       </c>
       <c r="I8" s="26" t="n">
         <v>43556</v>
       </c>
       <c r="J8" s="24" t="n">
-        <v>6268.423365265335</v>
+        <v>6265.333285198722</v>
       </c>
       <c r="K8" t="n">
         <v>500</v>
       </c>
       <c r="L8" t="n">
-        <v>0.07548447089680899</v>
+        <v>0.07468232176107037</v>
       </c>
       <c r="R8" s="25" t="s">
         <v>76</v>
@@ -5111,34 +5114,34 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>7.7575</v>
+        <v>7.670000000000001</v>
       </c>
       <c r="D9" s="21" t="n">
-        <v>-0.02059999999999995</v>
+        <v>-0.08750000000000008</v>
       </c>
       <c r="E9" s="22" t="n">
-        <v>-0.2497021602659855</v>
+        <v>-2.24405270754513e-05</v>
       </c>
       <c r="F9" s="22" t="n">
-        <v>-0.05947209465631542</v>
+        <v>0.24967971973891</v>
       </c>
       <c r="G9" s="21" t="n">
-        <v>0.9997966993611187</v>
+        <v>1.000133963136111</v>
       </c>
       <c r="H9" s="23" t="n">
-        <v>-6.838299567590855e-05</v>
+        <v>0.0003372637749925467</v>
       </c>
       <c r="I9" s="26" t="n">
         <v>43647</v>
       </c>
       <c r="J9" s="24" t="n">
-        <v>7124.877715574257</v>
+        <v>7126.709322103125</v>
       </c>
       <c r="K9" t="n">
         <v>500</v>
       </c>
       <c r="L9" t="n">
-        <v>0.07759136856030113</v>
+        <v>0.07668934373016167</v>
       </c>
       <c r="R9" s="25" t="s">
         <v>76</v>
@@ -5152,34 +5155,34 @@
         <v>84</v>
       </c>
       <c r="C10" t="n">
-        <v>8.0121</v>
+        <v>7.9114</v>
       </c>
       <c r="D10" s="21" t="n">
-        <v>-0.04129999999999967</v>
+        <v>-0.1006999999999994</v>
       </c>
       <c r="E10" s="22" t="n">
-        <v>1.209803748117855</v>
+        <v>1.140226661294624</v>
       </c>
       <c r="F10" s="22" t="n">
-        <v>-0.130012539154567</v>
+        <v>-0.06957708682323038</v>
       </c>
       <c r="G10" s="21" t="n">
-        <v>1.001488922086473</v>
+        <v>1.001447797091153</v>
       </c>
       <c r="H10" s="23" t="n">
-        <v>-0.0001384498135765799</v>
+        <v>-4.112499532071823e-05</v>
       </c>
       <c r="I10" s="26" t="n">
         <v>43739</v>
       </c>
       <c r="J10" s="24" t="n">
-        <v>7975.569792972237</v>
+        <v>7984.644189928076</v>
       </c>
       <c r="K10" t="n">
         <v>500</v>
       </c>
       <c r="L10" t="n">
-        <v>0.07999726011436192</v>
+        <v>0.07899523948374076</v>
       </c>
       <c r="R10" s="25" t="s">
         <v>76</v>
@@ -5193,34 +5196,34 @@
         <v>85</v>
       </c>
       <c r="C11" t="n">
-        <v>8.1671</v>
+        <v>8.047800000000001</v>
       </c>
       <c r="D11" s="21" t="n">
-        <v>-0.05080000000000062</v>
+        <v>-0.1192999999999986</v>
       </c>
       <c r="E11" s="22" t="n">
-        <v>-0.2901035009178488</v>
+        <v>-0.2197182244127738</v>
       </c>
       <c r="F11" s="22" t="n">
-        <v>-0.08004214813228661</v>
+        <v>0.07038527650507498</v>
       </c>
       <c r="G11" s="21" t="n">
-        <v>0.9996522589128635</v>
+        <v>0.9997561788303241</v>
       </c>
       <c r="H11" s="23" t="n">
-        <v>-8.561981007837449e-05</v>
+        <v>0.0001039199174606154</v>
       </c>
       <c r="I11" s="26" t="n">
         <v>43832</v>
       </c>
       <c r="J11" s="24" t="n">
-        <v>8754.454248064576</v>
+        <v>8773.303994425078</v>
       </c>
       <c r="K11" t="n">
         <v>500</v>
       </c>
       <c r="L11" t="n">
-        <v>0.08170053583526626</v>
+        <v>0.08049839348405774</v>
       </c>
       <c r="R11" s="25" t="s">
         <v>76</v>
@@ -5234,34 +5237,34 @@
         <v>86</v>
       </c>
       <c r="C12" t="n">
-        <v>8.539899999999999</v>
+        <v>8.4199</v>
       </c>
       <c r="D12" s="21" t="n">
-        <v>-0.07230000000000025</v>
+        <v>-0.1199999999999993</v>
       </c>
       <c r="E12" s="22" t="n">
-        <v>-0.01015749018687395</v>
+        <v>-0.01023510115244486</v>
       </c>
       <c r="F12" s="22" t="n">
-        <v>-0.2303995440586237</v>
+        <v>-7.761096557090674e-05</v>
       </c>
       <c r="G12" s="21" t="n">
-        <v>0.9999236537469622</v>
+        <v>0.9999421586754997</v>
       </c>
       <c r="H12" s="23" t="n">
-        <v>-0.0002463275863422432</v>
+        <v>1.850492853749941e-05</v>
       </c>
       <c r="I12" s="26" t="n">
         <v>44013</v>
       </c>
       <c r="J12" s="24" t="n">
-        <v>10123.42344331773</v>
+        <v>10154.15878137355</v>
       </c>
       <c r="K12" t="n">
         <v>500</v>
       </c>
       <c r="L12" t="n">
-        <v>0.08540579012247695</v>
+        <v>0.08420406918198808</v>
       </c>
       <c r="R12" s="25" t="s">
         <v>76</v>
@@ -5275,34 +5278,34 @@
         <v>87</v>
       </c>
       <c r="C13" t="n">
-        <v>9.068899999999999</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="D13" s="21" t="n">
-        <v>-0.06040000000000134</v>
+        <v>-0.09889999999999899</v>
       </c>
       <c r="E13" s="22" t="n">
-        <v>-0.1100509729726196</v>
+        <v>-3.399198811315784e-05</v>
       </c>
       <c r="F13" s="22" t="n">
-        <v>-0.03989172447010914</v>
+        <v>0.1100169809845064</v>
       </c>
       <c r="G13" s="21" t="n">
-        <v>0.9997793948022629</v>
+        <v>0.9999056692256241</v>
       </c>
       <c r="H13" s="23" t="n">
-        <v>-3.675008298664739e-05</v>
+        <v>0.0001262744233612167</v>
       </c>
       <c r="I13" s="26" t="n">
         <v>44378</v>
       </c>
       <c r="J13" s="24" t="n">
-        <v>12414.28913997879</v>
+        <v>12458.95167075651</v>
       </c>
       <c r="K13" t="n">
         <v>500</v>
       </c>
       <c r="L13" t="n">
-        <v>0.09070988861384688</v>
+        <v>0.08970882946722392</v>
       </c>
       <c r="R13" s="25" t="s">
         <v>76</v>
@@ -5323,7 +5326,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -5362,10 +5365,10 @@
         <v>96</v>
       </c>
       <c r="C2" t="n">
-        <v>2174230</v>
+        <v>2543581</v>
       </c>
       <c r="E2" t="n">
-        <v>8364.815763300428</v>
+        <v>9048.933069215424</v>
       </c>
       <c r="F2" t="n">
         <v>5086.04817860171</v>
@@ -5374,7 +5377,7 @@
         <v>5191.96931242336</v>
       </c>
       <c r="H2" t="n">
-        <v>4890.944651507521</v>
+        <v>4902.246180432731</v>
       </c>
       <c r="I2" t="n">
         <v>4928.287555311905</v>
@@ -5385,16 +5388,16 @@
         <v>97</v>
       </c>
       <c r="B3" t="n">
-        <v>8.141</v>
+        <v>8.141999999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>54540</v>
+        <v>209795</v>
       </c>
       <c r="D3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" t="n">
-        <v>5.094615918904922</v>
+        <v>17.13894384307428</v>
       </c>
       <c r="F3" t="n">
         <v>104.8748845376868</v>
@@ -5417,13 +5420,13 @@
         <v>8.035</v>
       </c>
       <c r="C4" t="n">
-        <v>46710</v>
+        <v>38625</v>
       </c>
       <c r="D4" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" t="n">
-        <v>15.73100898554582</v>
+        <v>12.55342492697275</v>
       </c>
       <c r="F4" t="n">
         <v>1.964883252610876</v>
@@ -5443,16 +5446,16 @@
         <v>99</v>
       </c>
       <c r="B5" t="n">
-        <v>7.785</v>
+        <v>7.77</v>
       </c>
       <c r="C5" t="n">
-        <v>37595</v>
+        <v>15185</v>
       </c>
       <c r="D5" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E5" t="n">
-        <v>21.32125805354811</v>
+        <v>8.433301875907013</v>
       </c>
       <c r="F5" t="n">
         <v>2.100666683468131</v>
@@ -5472,16 +5475,16 @@
         <v>66</v>
       </c>
       <c r="B6" t="n">
-        <v>7.58</v>
+        <v>7.565</v>
       </c>
       <c r="C6" t="n">
-        <v>368025</v>
+        <v>341875</v>
       </c>
       <c r="D6" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E6" t="n">
-        <v>292.8749608148945</v>
+        <v>268.0332706030212</v>
       </c>
       <c r="F6" t="n">
         <v>505.7848141641472</v>
@@ -5490,7 +5493,7 @@
         <v>428.3112500464898</v>
       </c>
       <c r="H6" t="n">
-        <v>378.5000038894345</v>
+        <v>378.1056913463888</v>
       </c>
       <c r="I6" t="n">
         <v>467.9650110110565</v>
@@ -5501,16 +5504,16 @@
         <v>100</v>
       </c>
       <c r="B7" t="n">
-        <v>7.437</v>
+        <v>7.42</v>
       </c>
       <c r="C7" t="n">
-        <v>365</v>
+        <v>315</v>
       </c>
       <c r="D7" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E7" t="n">
-        <v>0.381334539685746</v>
+        <v>0.3253835893570268</v>
       </c>
       <c r="F7" t="n">
         <v>0.2332537531632742</v>
@@ -5519,7 +5522,7 @@
         <v>2.499232501093198</v>
       </c>
       <c r="H7" t="n">
-        <v>4.188074780457336</v>
+        <v>4.187186670134659</v>
       </c>
       <c r="I7" t="n">
         <v>2.091010925627987</v>
@@ -5530,16 +5533,16 @@
         <v>101</v>
       </c>
       <c r="B8" t="n">
-        <v>7.363</v>
+        <v>7.338</v>
       </c>
       <c r="C8" t="n">
-        <v>9900</v>
+        <v>470</v>
       </c>
       <c r="D8" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E8" t="n">
-        <v>12.33777847824764</v>
+        <v>0.5802532915273938</v>
       </c>
       <c r="F8" t="n">
         <v>1.462841335374022</v>
@@ -5548,7 +5551,7 @@
         <v>2.041652460863693</v>
       </c>
       <c r="H8" t="n">
-        <v>1.131413827310692</v>
+        <v>0.944786443394497</v>
       </c>
       <c r="I8" t="n">
         <v>0.4677880368438565</v>
@@ -5559,16 +5562,16 @@
         <v>102</v>
       </c>
       <c r="B9" t="n">
-        <v>7.285</v>
+        <v>7.245</v>
       </c>
       <c r="C9" t="n">
-        <v>178850</v>
+        <v>308165</v>
       </c>
       <c r="D9" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E9" t="n">
-        <v>264.5542922561372</v>
+        <v>452.3508177204295</v>
       </c>
       <c r="F9" t="n">
         <v>47.32163781121359</v>
@@ -5588,16 +5591,16 @@
         <v>103</v>
       </c>
       <c r="B10" t="n">
-        <v>7.19</v>
+        <v>7.145</v>
       </c>
       <c r="C10" t="n">
-        <v>129299</v>
+        <v>288489</v>
       </c>
       <c r="D10" t="n">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E10" t="n">
-        <v>279.4342474609724</v>
+        <v>620.3723135632216</v>
       </c>
       <c r="F10" t="n">
         <v>157.7256968100318</v>
@@ -5617,16 +5620,16 @@
         <v>104</v>
       </c>
       <c r="B11" t="n">
-        <v>7.24</v>
+        <v>7.17</v>
       </c>
       <c r="C11" t="n">
-        <v>16645</v>
+        <v>32745</v>
       </c>
       <c r="D11" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E11" t="n">
-        <v>47.01936567037911</v>
+        <v>92.21269537370952</v>
       </c>
       <c r="F11" t="n">
         <v>12.29256872131019</v>
@@ -5646,16 +5649,16 @@
         <v>68</v>
       </c>
       <c r="B12" t="n">
-        <v>7.37</v>
+        <v>7.3</v>
       </c>
       <c r="C12" t="n">
-        <v>460730</v>
+        <v>351025</v>
       </c>
       <c r="D12" t="n">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E12" t="n">
-        <v>1583.565738083872</v>
+        <v>1203.874132222718</v>
       </c>
       <c r="F12" t="n">
         <v>912.2071308307015</v>
@@ -5675,16 +5678,16 @@
         <v>105</v>
       </c>
       <c r="B13" t="n">
-        <v>7.55</v>
+        <v>7.47</v>
       </c>
       <c r="C13" t="n">
-        <v>66225</v>
+        <v>5270</v>
       </c>
       <c r="D13" t="n">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E13" t="n">
-        <v>265.4021418212475</v>
+        <v>21.09294011945584</v>
       </c>
       <c r="F13" t="n">
         <v>60.69419523453431</v>
@@ -5704,16 +5707,16 @@
         <v>106</v>
       </c>
       <c r="B14" t="n">
-        <v>7.76</v>
+        <v>7.67</v>
       </c>
       <c r="C14" t="n">
-        <v>39000</v>
+        <v>102780</v>
       </c>
       <c r="D14" t="n">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E14" t="n">
-        <v>177.6133058827442</v>
+        <v>467.8604297084315</v>
       </c>
       <c r="F14" t="n">
         <v>61.63571112920621</v>
@@ -5733,16 +5736,16 @@
         <v>107</v>
       </c>
       <c r="B15" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="C15" t="n">
-        <v>14149</v>
+        <v>77940</v>
       </c>
       <c r="D15" t="n">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E15" t="n">
-        <v>72.13788937463956</v>
+        <v>397.5030715275588</v>
       </c>
       <c r="F15" t="n">
         <v>3.684319203518196</v>
@@ -5762,16 +5765,16 @@
         <v>108</v>
       </c>
       <c r="B16" t="n">
-        <v>8.17</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>318285</v>
+        <v>259206</v>
       </c>
       <c r="D16" t="n">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E16" t="n">
-        <v>1782.641683012174</v>
+        <v>1453.772673199481</v>
       </c>
       <c r="F16" t="n">
         <v>524.0706347352395</v>
@@ -5791,16 +5794,16 @@
         <v>109</v>
       </c>
       <c r="B17" t="n">
-        <v>8.35</v>
+        <v>8.23</v>
       </c>
       <c r="C17" t="n">
-        <v>435</v>
+        <v>65</v>
       </c>
       <c r="D17" t="n">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E17" t="n">
-        <v>2.633299442942516</v>
+        <v>0.3942039196075494</v>
       </c>
       <c r="F17" t="n">
         <v>4.136283406663354</v>
@@ -5820,16 +5823,16 @@
         <v>110</v>
       </c>
       <c r="B18" t="n">
-        <v>8.539999999999999</v>
+        <v>8.42</v>
       </c>
       <c r="C18" t="n">
-        <v>41835</v>
+        <v>109225</v>
       </c>
       <c r="D18" t="n">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E18" t="n">
-        <v>270.4930324562451</v>
+        <v>707.8015636996497</v>
       </c>
       <c r="F18" t="n">
         <v>218.9021266174602</v>
@@ -5849,16 +5852,16 @@
         <v>111</v>
       </c>
       <c r="B19" t="n">
-        <v>8.699999999999999</v>
+        <v>8.59</v>
       </c>
       <c r="C19" t="n">
-        <v>835</v>
+        <v>3185</v>
       </c>
       <c r="D19" t="n">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E19" t="n">
-        <v>5.746224625709924</v>
+        <v>21.96824634500073</v>
       </c>
       <c r="F19" t="n">
         <v>0.5224525299891731</v>
@@ -5878,16 +5881,16 @@
         <v>69</v>
       </c>
       <c r="B20" t="n">
-        <v>8.82</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>236225</v>
+        <v>214665</v>
       </c>
       <c r="D20" t="n">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E20" t="n">
-        <v>1715.958297841138</v>
+        <v>1562.842625978187</v>
       </c>
       <c r="F20" t="n">
         <v>1190.296562244001</v>
@@ -5907,16 +5910,16 @@
         <v>112</v>
       </c>
       <c r="B21" t="n">
-        <v>8.93</v>
+        <v>8.835000000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>1575</v>
+        <v>895</v>
       </c>
       <c r="D21" t="n">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="E21" t="n">
-        <v>11.98533059600195</v>
+        <v>6.826668226002504</v>
       </c>
       <c r="F21" t="n">
         <v>0.1182697793451248</v>
@@ -5936,16 +5939,16 @@
         <v>113</v>
       </c>
       <c r="B22" t="n">
-        <v>9.07</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>7020</v>
+        <v>53160</v>
       </c>
       <c r="D22" t="n">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="E22" t="n">
-        <v>55.63577868818689</v>
+        <v>422.5113185741941</v>
       </c>
       <c r="F22" t="n">
         <v>8.570461171192701</v>
@@ -5965,16 +5968,16 @@
         <v>114</v>
       </c>
       <c r="B23" t="n">
-        <v>9.145</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>135</v>
+        <v>430</v>
       </c>
       <c r="D23" t="n">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E23" t="n">
-        <v>1.114266456913184</v>
+        <v>3.559528288015469</v>
       </c>
       <c r="F23" t="n">
         <v>0.09292795156538433</v>
@@ -5994,16 +5997,16 @@
         <v>115</v>
       </c>
       <c r="B24" t="n">
-        <v>9.23</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>9530</v>
+        <v>9675</v>
       </c>
       <c r="D24" t="n">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="E24" t="n">
-        <v>81.41817550714057</v>
+        <v>82.90163352621359</v>
       </c>
       <c r="F24" t="n">
         <v>45.51313681076557</v>
@@ -6023,16 +6026,16 @@
         <v>116</v>
       </c>
       <c r="B25" t="n">
-        <v>9.359999999999999</v>
+        <v>9.265000000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>0.04548074732958415</v>
       </c>
       <c r="F25" t="n">
         <v>0.09194657402897673</v>
@@ -6052,16 +6055,16 @@
         <v>70</v>
       </c>
       <c r="B26" t="n">
-        <v>9.470000000000001</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="C26" t="n">
-        <v>59157</v>
+        <v>64901</v>
       </c>
       <c r="D26" t="n">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="E26" t="n">
-        <v>563.237368491275</v>
+        <v>620.7272113724871</v>
       </c>
       <c r="F26" t="n">
         <v>460.9194217210015</v>
@@ -6081,13 +6084,13 @@
         <v>117</v>
       </c>
       <c r="B27" t="n">
-        <v>9.550000000000001</v>
+        <v>9.452</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -6110,16 +6113,16 @@
         <v>118</v>
       </c>
       <c r="B28" t="n">
-        <v>9.66</v>
+        <v>9.565</v>
       </c>
       <c r="C28" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="D28" t="n">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="E28" t="n">
-        <v>1.3278011915338</v>
+        <v>0.6160324217503602</v>
       </c>
       <c r="F28" t="n">
         <v>6.809917289472142</v>
@@ -6139,13 +6142,13 @@
         <v>119</v>
       </c>
       <c r="B29" t="n">
-        <v>9.728</v>
+        <v>9.635</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -6168,16 +6171,16 @@
         <v>71</v>
       </c>
       <c r="B30" t="n">
-        <v>9.81</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="C30" t="n">
-        <v>44975</v>
+        <v>37085</v>
       </c>
       <c r="D30" t="n">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="E30" t="n">
-        <v>480.6913355393357</v>
+        <v>398.665452627524</v>
       </c>
       <c r="F30" t="n">
         <v>315.8853773332613</v>
@@ -6197,16 +6200,16 @@
         <v>120</v>
       </c>
       <c r="B31" t="n">
-        <v>9.925000000000001</v>
+        <v>9.855</v>
       </c>
       <c r="C31" t="n">
-        <v>55</v>
+        <v>180</v>
       </c>
       <c r="D31" t="n">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="E31" t="n">
-        <v>0.6033121120470689</v>
+        <v>1.984358188523703</v>
       </c>
       <c r="F31" t="n">
         <v>0.7853746341039872</v>
@@ -6226,16 +6229,16 @@
         <v>72</v>
       </c>
       <c r="B32" t="n">
-        <v>10.05</v>
+        <v>9.98</v>
       </c>
       <c r="C32" t="n">
-        <v>31960</v>
+        <v>18165</v>
       </c>
       <c r="D32" t="n">
-        <v>2331</v>
+        <v>2330</v>
       </c>
       <c r="E32" t="n">
-        <v>353.3677407277988</v>
+        <v>201.9850937360739</v>
       </c>
       <c r="F32" t="n">
         <v>263.4994746808906</v>
@@ -6255,13 +6258,13 @@
         <v>121</v>
       </c>
       <c r="B33" t="n">
-        <v>10.11</v>
+        <v>10.04</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>2582</v>
+        <v>2581</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -6284,16 +6287,16 @@
         <v>122</v>
       </c>
       <c r="B34" t="n">
-        <v>10.15</v>
+        <v>10.08</v>
       </c>
       <c r="C34" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>2831</v>
+        <v>2830</v>
       </c>
       <c r="E34" t="n">
-        <v>0.4941792711678997</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -6313,13 +6316,13 @@
         <v>123</v>
       </c>
       <c r="B35" t="n">
-        <v>10.188</v>
+        <v>10.118</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>3081</v>
+        <v>3080</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -6388,28 +6391,28 @@
         <v>132</v>
       </c>
       <c r="B2" t="n">
-        <v>5982733</v>
+        <v>6099337</v>
       </c>
       <c r="C2" t="n">
-        <v>26.85</v>
+        <v>27.37</v>
       </c>
       <c r="D2" t="n">
-        <v>157096</v>
+        <v>116604</v>
       </c>
       <c r="E2" t="n">
-        <v>7006498</v>
+        <v>7081737</v>
       </c>
       <c r="F2" t="n">
-        <v>31.45</v>
+        <v>31.78</v>
       </c>
       <c r="G2" t="n">
-        <v>50535</v>
+        <v>75239</v>
       </c>
       <c r="H2" t="n">
-        <v>-1023765</v>
+        <v>-982400</v>
       </c>
       <c r="I2" t="n">
-        <v>106561</v>
+        <v>41365</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -6417,28 +6420,28 @@
         <v>133</v>
       </c>
       <c r="B3" t="n">
-        <v>5972023</v>
+        <v>6088627</v>
       </c>
       <c r="C3" t="n">
-        <v>26.8</v>
+        <v>27.32</v>
       </c>
       <c r="D3" t="n">
-        <v>157096</v>
+        <v>116604</v>
       </c>
       <c r="E3" t="n">
-        <v>6827688</v>
+        <v>6902297</v>
       </c>
       <c r="F3" t="n">
-        <v>30.64</v>
+        <v>30.97</v>
       </c>
       <c r="G3" t="n">
-        <v>49855</v>
+        <v>74609</v>
       </c>
       <c r="H3" t="n">
-        <v>-855665</v>
+        <v>-813670</v>
       </c>
       <c r="I3" t="n">
-        <v>107241</v>
+        <v>41995</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -6484,19 +6487,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>176890</v>
+        <v>177520</v>
       </c>
       <c r="F5" t="n">
         <v>0.79</v>
       </c>
       <c r="G5" t="n">
-        <v>680</v>
+        <v>630</v>
       </c>
       <c r="H5" t="n">
-        <v>-166180</v>
+        <v>-166810</v>
       </c>
       <c r="I5" t="n">
-        <v>-680</v>
+        <v>-630</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -6504,28 +6507,28 @@
         <v>136</v>
       </c>
       <c r="B6" t="n">
-        <v>11432090</v>
+        <v>11502301</v>
       </c>
       <c r="C6" t="n">
-        <v>51.31</v>
+        <v>51.62</v>
       </c>
       <c r="D6" t="n">
-        <v>53005</v>
+        <v>70211</v>
       </c>
       <c r="E6" t="n">
-        <v>10331887</v>
+        <v>10550878</v>
       </c>
       <c r="F6" t="n">
-        <v>46.38</v>
+        <v>47.35</v>
       </c>
       <c r="G6" t="n">
-        <v>223428</v>
+        <v>218991</v>
       </c>
       <c r="H6" t="n">
-        <v>1100203</v>
+        <v>951423</v>
       </c>
       <c r="I6" t="n">
-        <v>-170423</v>
+        <v>-148780</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -6533,28 +6536,28 @@
         <v>137</v>
       </c>
       <c r="B7" t="n">
-        <v>11432090</v>
+        <v>11502301</v>
       </c>
       <c r="C7" t="n">
-        <v>51.31</v>
+        <v>51.62</v>
       </c>
       <c r="D7" t="n">
-        <v>53005</v>
+        <v>70211</v>
       </c>
       <c r="E7" t="n">
-        <v>10331887</v>
+        <v>10550878</v>
       </c>
       <c r="F7" t="n">
-        <v>46.38</v>
+        <v>47.35</v>
       </c>
       <c r="G7" t="n">
-        <v>223428</v>
+        <v>218991</v>
       </c>
       <c r="H7" t="n">
-        <v>1100203</v>
+        <v>951423</v>
       </c>
       <c r="I7" t="n">
-        <v>-170423</v>
+        <v>-148780</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -6562,28 +6565,28 @@
         <v>138</v>
       </c>
       <c r="B8" t="n">
-        <v>4742874</v>
+        <v>4560793</v>
       </c>
       <c r="C8" t="n">
-        <v>21.29</v>
+        <v>20.46</v>
       </c>
       <c r="D8" t="n">
-        <v>54330</v>
+        <v>-182081</v>
       </c>
       <c r="E8" t="n">
-        <v>4872168</v>
+        <v>4582083</v>
       </c>
       <c r="F8" t="n">
-        <v>21.87</v>
+        <v>20.56</v>
       </c>
       <c r="G8" t="n">
-        <v>7665</v>
+        <v>-290085</v>
       </c>
       <c r="H8" t="n">
-        <v>-129294</v>
+        <v>-21290</v>
       </c>
       <c r="I8" t="n">
-        <v>46665</v>
+        <v>108004</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -6591,28 +6594,28 @@
         <v>139</v>
       </c>
       <c r="B9" t="n">
-        <v>103101</v>
+        <v>103239</v>
       </c>
       <c r="C9" t="n">
         <v>0.46</v>
       </c>
       <c r="D9" t="n">
-        <v>20400</v>
+        <v>138</v>
       </c>
       <c r="E9" t="n">
-        <v>60610</v>
+        <v>60617</v>
       </c>
       <c r="F9" t="n">
         <v>0.27</v>
       </c>
       <c r="G9" t="n">
-        <v>3563</v>
+        <v>7</v>
       </c>
       <c r="H9" t="n">
-        <v>42491</v>
+        <v>42622</v>
       </c>
       <c r="I9" t="n">
-        <v>16837</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -6620,28 +6623,28 @@
         <v>140</v>
       </c>
       <c r="B10" t="n">
-        <v>15775</v>
+        <v>14855</v>
       </c>
       <c r="C10" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="D10" t="n">
-        <v>-375</v>
+        <v>-920</v>
       </c>
       <c r="E10" t="n">
-        <v>5410</v>
+        <v>5210</v>
       </c>
       <c r="F10" t="n">
         <v>0.02</v>
       </c>
       <c r="G10" t="n">
-        <v>-735</v>
+        <v>-200</v>
       </c>
       <c r="H10" t="n">
-        <v>10365</v>
+        <v>9645</v>
       </c>
       <c r="I10" t="n">
-        <v>360</v>
+        <v>-720</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -6649,22 +6652,22 @@
         <v>141</v>
       </c>
       <c r="B11" t="n">
-        <v>22276573</v>
+        <v>22280525</v>
       </c>
       <c r="C11" t="n">
         <v>100</v>
       </c>
       <c r="D11" t="n">
-        <v>284456</v>
+        <v>3952</v>
       </c>
       <c r="E11" t="n">
-        <v>22276573</v>
+        <v>22280525</v>
       </c>
       <c r="F11" t="n">
         <v>100</v>
       </c>
       <c r="G11" t="n">
-        <v>284456</v>
+        <v>3952</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -6686,8 +6689,8 @@
   </sheetPr>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
@@ -6737,42 +6740,42 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="35" t="n">
-        <v>0.375</v>
+        <v>0.4479166666666667</v>
       </c>
       <c r="B3" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F3" s="35" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="35" t="n">
-        <v>0.3958333333333333</v>
+        <v>0.4479166666666667</v>
       </c>
       <c r="B4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D4" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="C4" t="s">
-        <v>156</v>
-      </c>
-      <c r="D4" s="35" t="s">
+      <c r="E4" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="F4" s="35" t="s">
         <v>157</v>
-      </c>
-      <c r="E4" s="32" t="s">
-        <v>158</v>
-      </c>
-      <c r="F4" s="35" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -6780,40 +6783,26 @@
         <v>0.4583333333333333</v>
       </c>
       <c r="B5" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C5" t="s">
         <v>160</v>
       </c>
       <c r="D5" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="F5" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="E5" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="F5" s="35" t="s">
-        <v>159</v>
-      </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="35" t="n">
-        <v>0.6875</v>
-      </c>
-      <c r="B6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C6" t="s">
-        <v>163</v>
-      </c>
-      <c r="D6" s="35" t="s">
-        <v>161</v>
-      </c>
-      <c r="E6" s="31" t="s">
-        <v>164</v>
-      </c>
-      <c r="F6" s="35" t="s">
-        <v>165</v>
-      </c>
+      <c r="A6" s="35" t="n"/>
+      <c r="D6" s="35" t="n"/>
+      <c r="E6" s="31" t="n"/>
+      <c r="F6" s="35" t="n"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="35" t="n"/>
